--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Lemma_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Lemma_of.xlsx
@@ -1506,19 +1506,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1000054</v>
+        <v>1000053</v>
       </c>
       <c r="C55" t="n">
-        <v>3000054</v>
+        <v>3000056</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bilancio Energetico</t>
+          <t>Bilancio Partecipativo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Energia totale impiegata nel funzionamento di un determinato sistema; comprende sia l’energia in ingresso (quella necessaria alla produzione del prodotto) sia l’energia in uscita (ad esempio quella dispersa come calore).</t>
+          <t>Il bilancio partecipativo (diventato famoso nel mondo per l´esperienza promossa a porto alegre in brasile) è un processo fatto di assemblee e incontri in cui la popolazione decide come e dove investire i soldi del comune sulla città. I conflitti diventano evidenti, aperti, trasparenti e, quindi, produttivi nel processo di costruzione della città e della società. L'impegno dell'amministrazione pubblica è quello di dare concretezza e visibilità di risultati alle proposte e alle indicazioni dei cittadini. Nascono progetti condivisi e studiati cooperativamente. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -1527,19 +1527,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1000055</v>
+        <v>1000054</v>
       </c>
       <c r="C56" t="n">
-        <v>3000055</v>
+        <v>3000054</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bilancio O Rapporto Ambientale</t>
+          <t>Bilancio Energetico</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rapporto o bilancio ambientale sono termini spesso utilizzati indistintamente. Nei paesi anglosassoni (i primi a instaurare questa pratica aziendale) con il termine environmental reporting si intende l'attività di informazione sul rapporto tra impresa e territorio fisico. Il rapporto ambientale è pertanto quel documento diffuso al pubblico e redatto periodicamente all'interno, per mezzo del quale l'impresa descrive le sue principali problematiche ambientali, il suo approccio strategico, la sua organizzazione per la gestione ambientale, le azioni messe in atto per la protezione ambientale e documenta, con dati statistiche e indicatori, il proprio impatto (il bilancio ambientale) e gli aspetti finanziari connessi con l'ambiente (spese correnti e di investimento). Oltre che strumento di comunicazione con i vari interlocutori dell'impresa (azionisti finanziatori, assicuratori, opinione pubblica, gruppi ambientalisti, autorità nazionali e locali, clienti e consumatori), il rapporto ambientale (e il bilancio che esso contiene) rappresenta un elemento fondamentale per la gestione strategica della variabile ambiente, all'interno del processo di pianificazione d'impresa. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Energia totale impiegata nel funzionamento di un determinato sistema; comprende sia l’energia in ingresso (quella necessaria alla produzione del prodotto) sia l’energia in uscita (ad esempio quella dispersa come calore).</t>
         </is>
       </c>
     </row>
@@ -1548,19 +1548,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1000053</v>
+        <v>1000055</v>
       </c>
       <c r="C57" t="n">
-        <v>3000056</v>
+        <v>3000055</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bilancio Partecipativo</t>
+          <t>Bilancio O Rapporto Ambientale</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Il bilancio partecipativo (diventato famoso nel mondo per l´esperienza promossa a porto alegre in brasile) è un processo fatto di assemblee e incontri in cui la popolazione decide come e dove investire i soldi del comune sulla città. I conflitti diventano evidenti, aperti, trasparenti e, quindi, produttivi nel processo di costruzione della città e della società. L'impegno dell'amministrazione pubblica è quello di dare concretezza e visibilità di risultati alle proposte e alle indicazioni dei cittadini. Nascono progetti condivisi e studiati cooperativamente. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Rapporto o bilancio ambientale sono termini spesso utilizzati indistintamente. Nei paesi anglosassoni (i primi a instaurare questa pratica aziendale) con il termine environmental reporting si intende l'attività di informazione sul rapporto tra impresa e territorio fisico. Il rapporto ambientale è pertanto quel documento diffuso al pubblico e redatto periodicamente all'interno, per mezzo del quale l'impresa descrive le sue principali problematiche ambientali, il suo approccio strategico, la sua organizzazione per la gestione ambientale, le azioni messe in atto per la protezione ambientale e documenta, con dati statistiche e indicatori, il proprio impatto (il bilancio ambientale) e gli aspetti finanziari connessi con l'ambiente (spese correnti e di investimento). Oltre che strumento di comunicazione con i vari interlocutori dell'impresa (azionisti finanziatori, assicuratori, opinione pubblica, gruppi ambientalisti, autorità nazionali e locali, clienti e consumatori), il rapporto ambientale (e il bilancio che esso contiene) rappresenta un elemento fondamentale per la gestione strategica della variabile ambiente, all'interno del processo di pianificazione d'impresa. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -1590,19 +1590,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1000058</v>
+        <v>1000057</v>
       </c>
       <c r="C59" t="n">
-        <v>3000058</v>
+        <v>3000061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Biofuels</t>
+          <t>Biodiversità</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Alcooli e oli di origine vegetale spesso contenenti ossigeno, impiegati tal quali o trasformati in eteri (mtbe, etbe) o esteri (biodiesel) come combustibili sia per autotrazione sia per impianti stazionari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Sinonimo di diversità biologica. La biodiversità è lo stock naturale di materiale genetico presente all'interno di un ecosistema, prodottosi attraverso il processo di speciazione. I genotipi reperibili in un ambiente si sono differenziati e moltiplicati per adattarsi alle variazioni ambientali e trarne di volta in volta profitto. La biodiversità può essere intesa in due modi: l'eterogeneità di forma o di funzioni tra gli individui di una specie, o tra le sue popolazioni, per cui in determinati siti, con determinate combinazioni di fattori ambientali, alcuni gruppi di individui si dimostrano più efficienti di altri, pur simili nell'utilizzare le risorse del sistema l'eterogeneità di forme e di funzioni tra specie differenti a causa della quale popolazioni anche affini o strettamente imparentate dimostrano differenti capacità di adattamento all'ambiente e risultano particolarmente efficienti nell'occupare e nel difendere la nicchia ecologica a loro disposizione. La biodiversità, cioè la diversità biologica, si basa sulla ricchezza del patrimonio ereditario costituito dai caratteri (geni) di un individuo o di una popolazione (risorse genetiche). Le suddette risorse genetiche sono considerate come insieme di componenti dell'ecosistema (specie viventi, organismi, loro parti e comunità) in rapporto al loro uso o valore, attuali o potenziali, per la vita del pianeta terra e, quindi, per la stessa umanità. Dall'ampiezza e dalla varietà del suddetto patrimonio genetico dipende la capacità dell'ecosistema di adattarsi ed evolvere in situazioni geografiche, fasi climatiche e tempi diversi. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm e http://www.provincia.arezzo.it/atanor/glossario/</t>
         </is>
       </c>
     </row>
@@ -1611,19 +1611,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1000059</v>
+        <v>1000058</v>
       </c>
       <c r="C60" t="n">
-        <v>3000059</v>
+        <v>3000058</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Biocenosi</t>
+          <t>Biofuels</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>È l'insieme delle popolazioni di specie animali e vegetali che coesistono nello spazio e nel tempo in un dato ambiente ed interagiscono fra loro, in reciproca relazione. Lo spazio, o ambiente, occupato dalla biocenosi, è chiamato biotopo. Si suddivide in fitocenosi ed in zoocenosi quando ci si riferisce rispettivamente a vegetali o animali che popolano un ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Alcooli e oli di origine vegetale spesso contenenti ossigeno, impiegati tal quali o trasformati in eteri (mtbe, etbe) o esteri (biodiesel) come combustibili sia per autotrazione sia per impianti stazionari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -1632,19 +1632,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1000060</v>
+        <v>1000059</v>
       </c>
       <c r="C61" t="n">
-        <v>3000060</v>
+        <v>3000059</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Biodegradabile</t>
+          <t>Biocenosi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Riferito alle sostanze che possiedono la caratteristica di poter essere degradate per via microbica, ossia mediante decomposizione per effetto di agenti biofisici naturali (batteri, luce solare, umidità, etc.), implicando la non tossicità dei residui della decomposizione che non provocheranno problemi alle catene alimentari. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>È l'insieme delle popolazioni di specie animali e vegetali che coesistono nello spazio e nel tempo in un dato ambiente ed interagiscono fra loro, in reciproca relazione. Lo spazio, o ambiente, occupato dalla biocenosi, è chiamato biotopo. Si suddivide in fitocenosi ed in zoocenosi quando ci si riferisce rispettivamente a vegetali o animali che popolano un ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1653,19 +1653,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1000057</v>
+        <v>1000060</v>
       </c>
       <c r="C62" t="n">
-        <v>3000061</v>
+        <v>3000060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Biodiversità</t>
+          <t>Biodegradabile</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sinonimo di diversità biologica. La biodiversità è lo stock naturale di materiale genetico presente all'interno di un ecosistema, prodottosi attraverso il processo di speciazione. I genotipi reperibili in un ambiente si sono differenziati e moltiplicati per adattarsi alle variazioni ambientali e trarne di volta in volta profitto. La biodiversità può essere intesa in due modi: l'eterogeneità di forma o di funzioni tra gli individui di una specie, o tra le sue popolazioni, per cui in determinati siti, con determinate combinazioni di fattori ambientali, alcuni gruppi di individui si dimostrano più efficienti di altri, pur simili nell'utilizzare le risorse del sistema l'eterogeneità di forme e di funzioni tra specie differenti a causa della quale popolazioni anche affini o strettamente imparentate dimostrano differenti capacità di adattamento all'ambiente e risultano particolarmente efficienti nell'occupare e nel difendere la nicchia ecologica a loro disposizione. La biodiversità, cioè la diversità biologica, si basa sulla ricchezza del patrimonio ereditario costituito dai caratteri (geni) di un individuo o di una popolazione (risorse genetiche). Le suddette risorse genetiche sono considerate come insieme di componenti dell'ecosistema (specie viventi, organismi, loro parti e comunità) in rapporto al loro uso o valore, attuali o potenziali, per la vita del pianeta terra e, quindi, per la stessa umanità. Dall'ampiezza e dalla varietà del suddetto patrimonio genetico dipende la capacità dell'ecosistema di adattarsi ed evolvere in situazioni geografiche, fasi climatiche e tempi diversi. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm e http://www.provincia.arezzo.it/atanor/glossario/</t>
+          <t>Riferito alle sostanze che possiedono la caratteristica di poter essere degradate per via microbica, ossia mediante decomposizione per effetto di agenti biofisici naturali (batteri, luce solare, umidità, etc.), implicando la non tossicità dei residui della decomposizione che non provocheranno problemi alle catene alimentari. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1695,19 +1695,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1000063</v>
+        <v>1000062</v>
       </c>
       <c r="C64" t="n">
-        <v>3000063</v>
+        <v>3000065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bioetica</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bioetica è la disciplina che indica un dovere morale dell'uomo per un rispetto e una reverenza verso la natura, sostenendo che il mondo naturale ha un proprio diritto bioetico, incluso quello della esistenza, completamente indipendente da ogni considerazione circa la sua utilità per l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Formazione di gas, per fermentazione anaerobica in presenza di microrganismi (batteri acidogeni, batteri acetogeni e metanobatteri) di rifiuti industriali e agricoli o fanghi dei trattamenti delle acque urbane, il metano contenuto nel biogas può essere utilizzato per la produzione di energia. . dal processo di biogassificazione si ricavano, oltre al biogas, buoni fertilizzanti naturali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1716,19 +1716,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1000064</v>
+        <v>1000063</v>
       </c>
       <c r="C65" t="n">
-        <v>3000064</v>
+        <v>3000063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Biofitodepurazione</t>
+          <t>Bioetica</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>È la depurazione naturale svolta, attraverso la biodegrazione iniziale della sostanza organica (scarico) ad opera di batteri aerobi o anaerobi, con successivo fitoassorbimento dei prodotti mineralizzati (azoto, fosforo, carbonio...) da parte di vegetali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Bioetica è la disciplina che indica un dovere morale dell'uomo per un rispetto e una reverenza verso la natura, sostenendo che il mondo naturale ha un proprio diritto bioetico, incluso quello della esistenza, completamente indipendente da ogni considerazione circa la sua utilità per l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1000062</v>
+        <v>1000064</v>
       </c>
       <c r="C66" t="n">
-        <v>3000065</v>
+        <v>3000064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biofitodepurazione</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Formazione di gas, per fermentazione anaerobica in presenza di microrganismi (batteri acidogeni, batteri acetogeni e metanobatteri) di rifiuti industriali e agricoli o fanghi dei trattamenti delle acque urbane, il metano contenuto nel biogas può essere utilizzato per la produzione di energia. . dal processo di biogassificazione si ricavano, oltre al biogas, buoni fertilizzanti naturali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>È la depurazione naturale svolta, attraverso la biodegrazione iniziale della sostanza organica (scarico) ad opera di batteri aerobi o anaerobi, con successivo fitoassorbimento dei prodotti mineralizzati (azoto, fosforo, carbonio...) da parte di vegetali. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1779,19 +1779,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1000067</v>
+        <v>1000066</v>
       </c>
       <c r="C68" t="n">
-        <v>3000067</v>
+        <v>3000069</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bioingegneria</t>
+          <t>Biological Oxygen Demand</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Propone interventi di restauro ambientale e di difesa del suolo attraverso tecniche "dolci", secondo un approccio ecologico in alternativa a quello dell'ingegneria tradizionale. La capacità autodepurativa, gli interscambi idrici, l'habitat di animali e piante e gli ecosistemi con le tecnologie "dure" dell'ingegneria tradizionale vengono infatti ridotti ed i paesaggio inaridito. Nel caso di un ripristino fluviale la misura più importante è quella di lasciare lungo il corso un corridoio ripariale di almeno 10 metri. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Indica il contenuto di sostanza organica biodegradabile, presente negli scarichi idrici, espresso in termini di quantità di ossigeno necessario alla degradazione da parte di microrganismi in un test della durata di cinque giorni. Il parametro rappresenta un indicatore del potenziale di riduzione dell'ossigeno disciolto nei corpi idrici ricettori degli scarichi con possibili effetti ambientali negativi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -1800,19 +1800,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1000068</v>
+        <v>1000067</v>
       </c>
       <c r="C69" t="n">
-        <v>3000068</v>
+        <v>3000067</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bioitaly</t>
+          <t>Bioingegneria</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Progetto con il quale l'italia dal 1995 al 1997 ha svolto il lavoro di identificazione dei siti di importanza comunitaria (sic) nel proprio territorio nazionale, nell'ambito della direttiva habitat. Il risultato finale consiste nell'implementazione da parte delle regioni di una banca dati informatizzata, di formulari cartacei natura 2000 e delle relative cartografie. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Propone interventi di restauro ambientale e di difesa del suolo attraverso tecniche "dolci", secondo un approccio ecologico in alternativa a quello dell'ingegneria tradizionale. La capacità autodepurativa, gli interscambi idrici, l'habitat di animali e piante e gli ecosistemi con le tecnologie "dure" dell'ingegneria tradizionale vengono infatti ridotti ed i paesaggio inaridito. Nel caso di un ripristino fluviale la misura più importante è quella di lasciare lungo il corso un corridoio ripariale di almeno 10 metri. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1821,19 +1821,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1000066</v>
+        <v>1000068</v>
       </c>
       <c r="C70" t="n">
-        <v>3000069</v>
+        <v>3000068</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Biological Oxygen Demand</t>
+          <t>Bioitaly</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Indica il contenuto di sostanza organica biodegradabile, presente negli scarichi idrici, espresso in termini di quantità di ossigeno necessario alla degradazione da parte di microrganismi in un test della durata di cinque giorni. Il parametro rappresenta un indicatore del potenziale di riduzione dell'ossigeno disciolto nei corpi idrici ricettori degli scarichi con possibili effetti ambientali negativi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Progetto con il quale l'italia dal 1995 al 1997 ha svolto il lavoro di identificazione dei siti di importanza comunitaria (sic) nel proprio territorio nazionale, nell'ambito della direttiva habitat. Il risultato finale consiste nell'implementazione da parte delle regioni di una banca dati informatizzata, di formulari cartacei natura 2000 e delle relative cartografie. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1863,19 +1863,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1000071</v>
+        <v>1000070</v>
       </c>
       <c r="C72" t="n">
-        <v>3000071</v>
+        <v>3000073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Biomassa</t>
+          <t>Biorisanamento</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Termine generico che indica tutta la materia organica sia di natura vegetale che animale presente, ad esempio, in un ecosistema. È un indice della capacità produttiva di un particolare ambiente biologico. Normalmente viene espressa in peso (secco) per unità di superficie o in unità di energia (j/m). Ovviamente l'unità di misura cambia a seconda dell'oggetto in esame. La biomassa di una popolazione di insetti, ad esempio, verrà calcolata in g/m, mentre quella di una comunità erbacea presente in un prato in kg/m e quella di un bosco in t/ha. In campo energetico la biomassa indica la quantità di materiale organico che può essere utilizzata per produrre energia per combustione o tramite fermentazione. Le biomasse utili ai fini della produzione di energia includono il legno, liquami e feci animali, residui agricoli, forestali e della carta. Il concetto di biomassa è strettamente collegato a quello di "produttività" che indica la produzione di biomassa per unità di tempo ed è un parametro funzionale utile allo studio della qualità ambientale e all'evoluzione dello stato di un ecosistema fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Processo di bonifica di un ambiente inquinato mediante il quale i microrganismi sono stimolati a degradare rapidamente sostanze inquinanti fino a concentrazioni accettabili. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1884,19 +1884,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1000072</v>
+        <v>1000071</v>
       </c>
       <c r="C73" t="n">
-        <v>3000072</v>
+        <v>3000071</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Biomonitoraggio</t>
+          <t>Biomassa</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Il biomonitoraggio consiste nel monitoraggio delle caratteristiche di un determinato ambiente attraverso parametri biologici; esso si basa sulle variazioni ecologiche indotte da un qualunque fattore (fisico, chimico e microbiologico) sull'ecosistema. Dette variazioni si manifestano tramite alterazioni nelle comunità degli organismi che vengono utilizzati quali indicatori. Il biomonitoraggio non è in grado di fornire informazioni precise riguardanti le cause delle variazioni indotte nell'ambiente oggetto di indagine. Per ottenere tali informazioni si abbinano al biomonitoraggio le analisi chimiche, chimico - fisiche e microbiologiche. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
+          <t>Termine generico che indica tutta la materia organica sia di natura vegetale che animale presente, ad esempio, in un ecosistema. È un indice della capacità produttiva di un particolare ambiente biologico. Normalmente viene espressa in peso (secco) per unità di superficie o in unità di energia (j/m). Ovviamente l'unità di misura cambia a seconda dell'oggetto in esame. La biomassa di una popolazione di insetti, ad esempio, verrà calcolata in g/m, mentre quella di una comunità erbacea presente in un prato in kg/m e quella di un bosco in t/ha. In campo energetico la biomassa indica la quantità di materiale organico che può essere utilizzata per produrre energia per combustione o tramite fermentazione. Le biomasse utili ai fini della produzione di energia includono il legno, liquami e feci animali, residui agricoli, forestali e della carta. Il concetto di biomassa è strettamente collegato a quello di "produttività" che indica la produzione di biomassa per unità di tempo ed è un parametro funzionale utile allo studio della qualità ambientale e all'evoluzione dello stato di un ecosistema fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1905,19 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1000070</v>
+        <v>1000072</v>
       </c>
       <c r="C74" t="n">
-        <v>3000073</v>
+        <v>3000072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Biorisanamento</t>
+          <t>Biomonitoraggio</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Processo di bonifica di un ambiente inquinato mediante il quale i microrganismi sono stimolati a degradare rapidamente sostanze inquinanti fino a concentrazioni accettabili. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Il biomonitoraggio consiste nel monitoraggio delle caratteristiche di un determinato ambiente attraverso parametri biologici; esso si basa sulle variazioni ecologiche indotte da un qualunque fattore (fisico, chimico e microbiologico) sull'ecosistema. Dette variazioni si manifestano tramite alterazioni nelle comunità degli organismi che vengono utilizzati quali indicatori. Il biomonitoraggio non è in grado di fornire informazioni precise riguardanti le cause delle variazioni indotte nell'ambiente oggetto di indagine. Per ottenere tali informazioni si abbinano al biomonitoraggio le analisi chimiche, chimico - fisiche e microbiologiche. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -1947,19 +1947,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1000075</v>
+        <v>1000074</v>
       </c>
       <c r="C76" t="n">
-        <v>3000075</v>
+        <v>3000077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Biosfera</t>
+          <t>Biotecnologie</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Indica l'involucro esterno alla superficie terrestre, costituito da aria, acqua, suolo e sottosuolo (per la profondità di poche decine di metri), in cui sussistono le condizioni essenziali alla vita; per estensione definisce l'insieme delle forme viventi presenti sul pianeta terra. Con l'idrosfera, insieme delle masse d'acqua, la geosfera, insieme dei substrati geologici, e l'atmosfera che è la massa d'aria che ci circonda, costituisce l'ecosfera, in pratica, il pianeta stesso, considerato come la massima espressione dell'integrazione tra le varie componenti viventi (biotiche) e non viventi (abiotiche). La biosfera non è una cosa separata dal resto, ma si compenetra con tutte le matrici ambientali; infatti gli esseri viventi sono presenti sia all'interno dell'idrosfera che negli strati più bassi dell'atmosfera e nella geosfera (soprattutto nella pedosfera, cioè lo strato superficiale dei suolo). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Utilizzazione integrata della biochimica, della microbiologia e delle scienze dell'ingegneria genetica per realizzare applicazioni tecnologiche partendo dalle proprietà dei microrganismi, delle colture cellulari o di altri agenti biologici. Si occupa cioè della produzione industriale di sostanze elaborate da organismi viventi batteri, lieviti, cellule vegetali e animali. Principali settori di applicazione delle biotecnologie: sanitario (produzione di proteine umane, di vaccini..); agro-alimentare (utilizzo di enzimi per migliorare la resa e la qualità dei prodotti alimentari, produzione di fertilizzanti, fitofarmaci...); chimico (chimica fine, processi catalitici, recupero di sottoprodotti della produzione di base...); ambientale (trattamento biologico dei rifiuti, biosensori per rilevare l'inquinamento...); energetico (utilizzo di materiale agricolo di scarto, dell'energia solare..). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1968,19 +1968,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1000076</v>
+        <v>1000075</v>
       </c>
       <c r="C77" t="n">
-        <v>3000076</v>
+        <v>3000075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Biossido Di Carbonio</t>
+          <t>Biosfera</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Anidride carbonica o biossido di carbonio: gas inerte, incolore, inodore, non tossico e non infiammabile, componente naturale dell'atmosfera, ove è presente in tracce. Indispensabile per la vita vegetale, è uno dei gas che contribuiscono al cosiddetto effetto serra fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Indica l'involucro esterno alla superficie terrestre, costituito da aria, acqua, suolo e sottosuolo (per la profondità di poche decine di metri), in cui sussistono le condizioni essenziali alla vita; per estensione definisce l'insieme delle forme viventi presenti sul pianeta terra. Con l'idrosfera, insieme delle masse d'acqua, la geosfera, insieme dei substrati geologici, e l'atmosfera che è la massa d'aria che ci circonda, costituisce l'ecosfera, in pratica, il pianeta stesso, considerato come la massima espressione dell'integrazione tra le varie componenti viventi (biotiche) e non viventi (abiotiche). La biosfera non è una cosa separata dal resto, ma si compenetra con tutte le matrici ambientali; infatti gli esseri viventi sono presenti sia all'interno dell'idrosfera che negli strati più bassi dell'atmosfera e nella geosfera (soprattutto nella pedosfera, cioè lo strato superficiale dei suolo). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -1989,19 +1989,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1000074</v>
+        <v>1000076</v>
       </c>
       <c r="C78" t="n">
-        <v>3000077</v>
+        <v>3000076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Biotecnologie</t>
+          <t>Biossido Di Carbonio</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Utilizzazione integrata della biochimica, della microbiologia e delle scienze dell'ingegneria genetica per realizzare applicazioni tecnologiche partendo dalle proprietà dei microrganismi, delle colture cellulari o di altri agenti biologici. Si occupa cioè della produzione industriale di sostanze elaborate da organismi viventi batteri, lieviti, cellule vegetali e animali. Principali settori di applicazione delle biotecnologie: sanitario (produzione di proteine umane, di vaccini..); agro-alimentare (utilizzo di enzimi per migliorare la resa e la qualità dei prodotti alimentari, produzione di fertilizzanti, fitofarmaci...); chimico (chimica fine, processi catalitici, recupero di sottoprodotti della produzione di base...); ambientale (trattamento biologico dei rifiuti, biosensori per rilevare l'inquinamento...); energetico (utilizzo di materiale agricolo di scarto, dell'energia solare..). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Anidride carbonica o biossido di carbonio: gas inerte, incolore, inodore, non tossico e non infiammabile, componente naturale dell'atmosfera, ove è presente in tracce. Indispensabile per la vita vegetale, è uno dei gas che contribuiscono al cosiddetto effetto serra fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2031,19 +2031,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1000079</v>
+        <v>1000078</v>
       </c>
       <c r="C80" t="n">
-        <v>3000079</v>
+        <v>3000081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Blueprint For Survival</t>
+          <t>Bottom-Up</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Saggio, pubblicato nel 1972 dalla rivista ecologist, che rappresentava una revisione radicale dei problemi dell'ambiente umano, esaminando i cambiamenti necessari per creare una società basata sulla stabilità e il riutilizzo dei materiali fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Politiche ed iniziative di agenda 21 o di sviluppo sostenibile,</t>
         </is>
       </c>
     </row>
@@ -2052,19 +2052,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1000080</v>
+        <v>1000079</v>
       </c>
       <c r="C81" t="n">
-        <v>3000080</v>
+        <v>3000079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Bonifica</t>
+          <t>Blueprint For Survival</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ogni intervento di rimozione della fonte inquinante e di quanto dalla stessa contaminato, fino al raggiungimento dei valori limite conformi all'utilizzo previsto dell'area. Fonte: d.l.vo 5.febb.1997,n22</t>
+          <t>Saggio, pubblicato nel 1972 dalla rivista ecologist, che rappresentava una revisione radicale dei problemi dell'ambiente umano, esaminando i cambiamenti necessari per creare una società basata sulla stabilità e il riutilizzo dei materiali fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2073,19 +2073,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1000078</v>
+        <v>1000080</v>
       </c>
       <c r="C82" t="n">
-        <v>3000081</v>
+        <v>3000080</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bottom-Up</t>
+          <t>Bonifica</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Politiche ed iniziative di agenda 21 o di sviluppo sostenibile,</t>
+          <t>Ogni intervento di rimozione della fonte inquinante e di quanto dalla stessa contaminato, fino al raggiungimento dei valori limite conformi all'utilizzo previsto dell'area. Fonte: d.l.vo 5.febb.1997,n22</t>
         </is>
       </c>
     </row>
@@ -2115,19 +2115,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1000083</v>
+        <v>1000082</v>
       </c>
       <c r="C84" t="n">
-        <v>3000083</v>
+        <v>3000085</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cambiamento</t>
+          <t>Caos</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Il cambiamento costituisce il fondamento della dinamica sociale. Sebbene, ai suoi esordi, la sociologia sia stata influenzata da una sorta di concetto meccanicistico di progresso (ad esempio la legge dei tre stadi della conoscenza umana, "teologico, metafisico e positivo", elaborata da comte), la società non è mai stata considerata statica. Essa è frutto di trasformazioni che si susseguono continuamente. Può trattarsi di trasformazioni lente, graduali, quasi impercettibili oppure veloci, scioccanti, sconvolgenti, imprevedibili, implacabili, onnipresenti. Le trasformazioni possono essere molto vaste in dimensione ed intensità, di breve o di lungo termine, con effetti di piccola e grande scala; operano contemporaneamente a livello locale e globale (pasmore, 1994). Occorre, inoltre, notare che la corrispondenza tra cambiamento e progresso, caratteristica del diciannovesimo secolo, è stata fortemente messa in discussione, dato che il cambiamento può essere positivo e/o negativo, regressivo e/o progressivo, costruttivo e/o distruttivo. In sintesi, è possibile affermare che il cambiamento: è un processo continuo che si basa sul saggio uso delle risorse disponibili; si configura mentre viene attuato; si basa sulla prefigurazione del futuro e si attua con forte flessibilità di modelli; non avviene tutto assieme ad un'ora stabilita; è basato sulla partecipazione di tutti i soggetti e le componenti coinvolte nella situazione e nel sistema di riferimento. Il cambiamento è dunque frutto del rapporto tra le singole parti ed è tessuto dalla combinazione tra loro; dipende dall'apertura della parte-componente e dell'organismo più ampio ad intessere continue, contemporanee interazioni; più una parte (ad esempio un ecosistema locale o una comunità sociale) è aperta al suo interno e conserva la diversità delle sue componenti, più aperta potrà essere all'esterno; e viceversa. Esiste, quindi, una chiara correlazione fra i suddetti modi di intendere il cambiamento e quelli emersi da parte ambientalista sulla crescita e lo sviluppo. In termini sociologi, si tratta della dinamica dell'interazione sociale; un'interazione mai statica ed ordinata. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>La teoria del caos è strettamente legata a quella della complessità (vedi). Caos è ordine dinamico, circolarità ed iterazione tra cause ed effetti, convivenza di molteplici ordini, non sempre identificabili, interpretabili e semplificabili dal modo in cui l'essere umano organizza la propria conoscenza (ad esempio leggi ed assunzioni scientifiche). La teoria del caos si fonda sulla natura olistica della dinamica non lineare. In altre parole, i sistemi dinamici sono complessi e, quindi, olistici; possiedono un carattere di completezza per cui le parti s'influenzano a vicenda, e globale (intero) e locale (parte) s'influenzano contemporaneamente. Un sistema è dinamico e caotico, si basa su un'estrema sensibilità e mutevolezza e non ritorna mai al suo stato precedente per gli effetti di iterazione e connessione (feedback) fra tutte le componenti. Tali effetti possono amplificare condizioni iniziali in modo imprevedibile. Forse la migliore immagine della teoria del caos è data dall'ormai noto "effetto farfalla", secondo il quale un battito d'ali di una farfalla, oggi a pechino, potrebbe trasformarsi in un temporale nei prossimi mesi a new york. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -2136,19 +2136,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1000084</v>
+        <v>1000083</v>
       </c>
       <c r="C85" t="n">
-        <v>3000084</v>
+        <v>3000083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cambiamento Paradigmatico</t>
+          <t>Cambiamento</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>È il cambiamento di valori, concetti e modi di pensare basati su esempi (dal significato greco di paradigma). Esso è di tale intensità da abbracciare, progressivamente, tutti i settori della scienza e del sapere, attraversando differenti aree e campi di attività. Esso avviene in diversi periodi storici, caratterizzando l'evoluzione dell'essere umano. Un esempio recente è quello della sostenibilità. Apparsa da circa trenta anni come idea regolativa per riconciliare l'umanità con la natura, essa catalizza nuovi orizzonti e prospettive per le teorie, le discipline scientifiche, le strategie politiche, le culture e le azioni del genere umano. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Il cambiamento costituisce il fondamento della dinamica sociale. Sebbene, ai suoi esordi, la sociologia sia stata influenzata da una sorta di concetto meccanicistico di progresso (ad esempio la legge dei tre stadi della conoscenza umana, "teologico, metafisico e positivo", elaborata da comte), la società non è mai stata considerata statica. Essa è frutto di trasformazioni che si susseguono continuamente. Può trattarsi di trasformazioni lente, graduali, quasi impercettibili oppure veloci, scioccanti, sconvolgenti, imprevedibili, implacabili, onnipresenti. Le trasformazioni possono essere molto vaste in dimensione ed intensità, di breve o di lungo termine, con effetti di piccola e grande scala; operano contemporaneamente a livello locale e globale (pasmore, 1994). Occorre, inoltre, notare che la corrispondenza tra cambiamento e progresso, caratteristica del diciannovesimo secolo, è stata fortemente messa in discussione, dato che il cambiamento può essere positivo e/o negativo, regressivo e/o progressivo, costruttivo e/o distruttivo. In sintesi, è possibile affermare che il cambiamento: è un processo continuo che si basa sul saggio uso delle risorse disponibili; si configura mentre viene attuato; si basa sulla prefigurazione del futuro e si attua con forte flessibilità di modelli; non avviene tutto assieme ad un'ora stabilita; è basato sulla partecipazione di tutti i soggetti e le componenti coinvolte nella situazione e nel sistema di riferimento. Il cambiamento è dunque frutto del rapporto tra le singole parti ed è tessuto dalla combinazione tra loro; dipende dall'apertura della parte-componente e dell'organismo più ampio ad intessere continue, contemporanee interazioni; più una parte (ad esempio un ecosistema locale o una comunità sociale) è aperta al suo interno e conserva la diversità delle sue componenti, più aperta potrà essere all'esterno; e viceversa. Esiste, quindi, una chiara correlazione fra i suddetti modi di intendere il cambiamento e quelli emersi da parte ambientalista sulla crescita e lo sviluppo. In termini sociologi, si tratta della dinamica dell'interazione sociale; un'interazione mai statica ed ordinata. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -2157,19 +2157,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1000082</v>
+        <v>1000084</v>
       </c>
       <c r="C86" t="n">
-        <v>3000085</v>
+        <v>3000084</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Caos</t>
+          <t>Cambiamento Paradigmatico</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>La teoria del caos è strettamente legata a quella della complessità (vedi). Caos è ordine dinamico, circolarità ed iterazione tra cause ed effetti, convivenza di molteplici ordini, non sempre identificabili, interpretabili e semplificabili dal modo in cui l'essere umano organizza la propria conoscenza (ad esempio leggi ed assunzioni scientifiche). La teoria del caos si fonda sulla natura olistica della dinamica non lineare. In altre parole, i sistemi dinamici sono complessi e, quindi, olistici; possiedono un carattere di completezza per cui le parti s'influenzano a vicenda, e globale (intero) e locale (parte) s'influenzano contemporaneamente. Un sistema è dinamico e caotico, si basa su un'estrema sensibilità e mutevolezza e non ritorna mai al suo stato precedente per gli effetti di iterazione e connessione (feedback) fra tutte le componenti. Tali effetti possono amplificare condizioni iniziali in modo imprevedibile. Forse la migliore immagine della teoria del caos è data dall'ormai noto "effetto farfalla", secondo il quale un battito d'ali di una farfalla, oggi a pechino, potrebbe trasformarsi in un temporale nei prossimi mesi a new york. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>È il cambiamento di valori, concetti e modi di pensare basati su esempi (dal significato greco di paradigma). Esso è di tale intensità da abbracciare, progressivamente, tutti i settori della scienza e del sapere, attraversando differenti aree e campi di attività. Esso avviene in diversi periodi storici, caratterizzando l'evoluzione dell'essere umano. Un esempio recente è quello della sostenibilità. Apparsa da circa trenta anni come idea regolativa per riconciliare l'umanità con la natura, essa catalizza nuovi orizzonti e prospettive per le teorie, le discipline scientifiche, le strategie politiche, le culture e le azioni del genere umano. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -2178,19 +2178,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1000086</v>
+        <v>1000085</v>
       </c>
       <c r="C87" t="n">
-        <v>3000086</v>
+        <v>3000236</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Environmental Carrying Capacity</t>
+          <t>Capacity Building</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Una nozione delle soglie ambientali da prendere in considerazione nella gestione e pianificazione urbana. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>I processi e mezzi adottati da governi nazionali e comunità locali per sviluppare le abilità e competenze necessarie per gestire il proprio ambiente e le risorse naturali in un maniera sostenibile fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -2199,19 +2199,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1000087</v>
+        <v>1000086</v>
       </c>
       <c r="C88" t="n">
-        <v>3000087</v>
+        <v>3000086</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Capacità Portante O Capacità Di Carico</t>
+          <t>Environmental Carrying Capacity</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Quantità di popolazione che un dato habitat può sostenere indefinitamente; la capacità portante del pianeta è la capacità di alimentare e sostenere la popolazione e tutte le altre forme viventi. La capacità portante è legata al concetto di sostenibilità e di equilibrio tra quantità delle risorse disponibili e consistenza/attività economica/stili di vita di una data popolazione.</t>
+          <t>Una nozione delle soglie ambientali da prendere in considerazione nella gestione e pianificazione urbana. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -2220,19 +2220,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1000088</v>
+        <v>1000087</v>
       </c>
       <c r="C89" t="n">
-        <v>3000088</v>
+        <v>3000087</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Capitale Naturale</t>
+          <t>Capacità Portante O Capacità Di Carico</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>È composto dall’insieme dei sistemi naturali (mari, fiumi, foreste, fauna, flora) e dai prodotti agricoli, della pesca, della caccia, del patrimonio artistico e culturale presente in un dato territorio.</t>
+          <t>Quantità di popolazione che un dato habitat può sostenere indefinitamente; la capacità portante del pianeta è la capacità di alimentare e sostenere la popolazione e tutte le altre forme viventi. La capacità portante è legata al concetto di sostenibilità e di equilibrio tra quantità delle risorse disponibili e consistenza/attività economica/stili di vita di una data popolazione.</t>
         </is>
       </c>
     </row>
@@ -2241,19 +2241,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1000089</v>
+        <v>1000088</v>
       </c>
       <c r="C90" t="n">
-        <v>3000089</v>
+        <v>3000088</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Capitale Umano</t>
+          <t>Capitale Naturale</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Questo concetto si riferisce alla società ed al suo sistema organizzativo come organismo vitale nel quale la dimensione umana ha un ruolo primario. Il capitale umano è determinato da una continua interazione sociale basata sulla qualità della mutualità (riconoscimento, rispetto, fiducia reciproca). Si base sul miglioramento costante delle abilità e delle capacità di: analizzare, diagnosticare, concepire proposte, progettare, sperimentare, migliorare, realizzare, valutare, diffondere soluzioni. Tali capacità rappresentano le identità culturali e le potenzialità delle comunità sociali di un contesto locale. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>È composto dall’insieme dei sistemi naturali (mari, fiumi, foreste, fauna, flora) e dai prodotti agricoli, della pesca, della caccia, del patrimonio artistico e culturale presente in un dato territorio.</t>
         </is>
       </c>
     </row>
@@ -2262,19 +2262,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1000090</v>
+        <v>1000089</v>
       </c>
       <c r="C91" t="n">
-        <v>3000090</v>
+        <v>3000089</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Carbon Tax</t>
+          <t>Capitale Umano</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Tassa sui combustibili (parzialmente legata all'anidride carbonica emessa nella combustione) finalizzata a fare ricadere i danni ambientali causati dalle emissioni di co2 sul soggetto che le emette fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Questo concetto si riferisce alla società ed al suo sistema organizzativo come organismo vitale nel quale la dimensione umana ha un ruolo primario. Il capitale umano è determinato da una continua interazione sociale basata sulla qualità della mutualità (riconoscimento, rispetto, fiducia reciproca). Si base sul miglioramento costante delle abilità e delle capacità di: analizzare, diagnosticare, concepire proposte, progettare, sperimentare, migliorare, realizzare, valutare, diffondere soluzioni. Tali capacità rappresentano le identità culturali e le potenzialità delle comunità sociali di un contesto locale. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -2283,19 +2283,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1000091</v>
+        <v>1000090</v>
       </c>
       <c r="C92" t="n">
-        <v>3000091</v>
+        <v>3000090</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Carico Ambientale</t>
+          <t>Carbon Tax</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Pressione esercitata dall’insieme dei fattori antropici presenti in un’area su una determinata risorsa ambientale</t>
+          <t>Tassa sui combustibili (parzialmente legata all'anidride carbonica emessa nella combustione) finalizzata a fare ricadere i danni ambientali causati dalle emissioni di co2 sul soggetto che le emette fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2304,19 +2304,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1000092</v>
+        <v>1000091</v>
       </c>
       <c r="C93" t="n">
-        <v>3000092</v>
+        <v>3000091</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Car-Pool</t>
+          <t>Carico Ambientale</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Utilizzare le automobili private per gli spostamenti (soprattutto quelli casa-lavoro), invece che come singoli utenti, ospitando a turno altri passeggeri (almeno due), vicini di casa o colleghi di lavoro. Il servizio è organizzato tramite i mobility managers (vedi), ma anche sulla base dell'impegno di cittadini più sensibili ed attivi. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Pressione esercitata dall’insieme dei fattori antropici presenti in un’area su una determinata risorsa ambientale</t>
         </is>
       </c>
     </row>
@@ -2325,19 +2325,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1000093</v>
+        <v>1000092</v>
       </c>
       <c r="C94" t="n">
-        <v>3000093</v>
+        <v>3000092</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Car-Sharing</t>
+          <t>Car-Pool</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Condividere la proprietà e l'uso di un'automobile con altri, dividendo le sue spese di gestione, per utilizzarla solo quando se ne ha effettivamente bisogno (vedi più in dettaglio car-sharinq). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Utilizzare le automobili private per gli spostamenti (soprattutto quelli casa-lavoro), invece che come singoli utenti, ospitando a turno altri passeggeri (almeno due), vicini di casa o colleghi di lavoro. Il servizio è organizzato tramite i mobility managers (vedi), ma anche sulla base dell'impegno di cittadini più sensibili ed attivi. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -2346,19 +2346,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1000094</v>
+        <v>1000093</v>
       </c>
       <c r="C95" t="n">
-        <v>3000094</v>
+        <v>3000093</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Carta Del Turismo Sostenibile</t>
+          <t>Car-Sharing</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Documento fondamentale redatto in occasione della conferenza di lanzarote patrocinata dal wto e dall'unesco nel 1995. La carta raccoglie 18 principi che delineano in maniera abbastanza generale e generica in quale modo il turismo possa essere pianificato e svolto in modo tale da salvaguardare risorse naturali e patrimonio perle generazioni future. La carta del turismo sostenibile ha seguito e preceduto la compilazione di numerosi altri decaloghi di norme di comportamento (unep, 1996). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Condividere la proprietà e l'uso di un'automobile con altri, dividendo le sue spese di gestione, per utilizzarla solo quando se ne ha effettivamente bisogno (vedi più in dettaglio car-sharinq). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -2367,19 +2367,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1000095</v>
+        <v>1000094</v>
       </c>
       <c r="C96" t="n">
-        <v>3000095</v>
+        <v>3000094</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Carta Di Aalborg</t>
+          <t>Carta Del Turismo Sostenibile</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>La carta di aalborg "carta delle città europee per uno sviluppo durevole e sostenibile" elabora, nel 1994, il concetto di sostenibilità, individua le responsabilità ambientali delle città e le impegna a sviluppare politiche ed azioni positive per andare verso città sostenibili.</t>
+          <t>Documento fondamentale redatto in occasione della conferenza di lanzarote patrocinata dal wto e dall'unesco nel 1995. La carta raccoglie 18 principi che delineano in maniera abbastanza generale e generica in quale modo il turismo possa essere pianificato e svolto in modo tale da salvaguardare risorse naturali e patrimonio perle generazioni future. La carta del turismo sostenibile ha seguito e preceduto la compilazione di numerosi altri decaloghi di norme di comportamento (unep, 1996). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2388,19 +2388,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1000096</v>
+        <v>1000095</v>
       </c>
       <c r="C97" t="n">
-        <v>3000096</v>
+        <v>3000095</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Carta Sociale</t>
+          <t>Carta Di Aalborg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>La carta dei diritti sociali fondamentali dei lavoratori, detta carta sociale è stata adottata nel 1989, sotto forma di dichiarazione, da tutti gli stati membri, ad eccezione del regno unito. È considerata come uno strumento politico contenente "obblighi morali" nell'intento di garantire negli stati membri il rispetto di alcuni diritti sociali, quali segnatamente il mercato del lavoro, la formazione professionale, le eguali opportunità e l'ambiente di lavoro. In essa si chiede espressamente alla commissione di promuovere iniziative nell'intento di tradurre in atti legislativi il contenuto della carta. Quest'ultima è stata anche seguita da programmi di azione. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>La carta di aalborg "carta delle città europee per uno sviluppo durevole e sostenibile" elabora, nel 1994, il concetto di sostenibilità, individua le responsabilità ambientali delle città e le impegna a sviluppare politiche ed azioni positive per andare verso città sostenibili.</t>
         </is>
       </c>
     </row>
@@ -2409,19 +2409,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1000097</v>
+        <v>1000096</v>
       </c>
       <c r="C98" t="n">
-        <v>3000097</v>
+        <v>3000096</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Carte Di Valutazione Della Fragilità, Dissesto E Degrado Ambientale</t>
+          <t>Carta Sociale</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Carta di base a scala 1:10.000 0 1:5.000.contenuti: fragilità ambientale, ad esempio zone di transizione, zone carsiche, zone umide, golene, ripe fluviali, superfici detritiche, dune mobili, ecc. Dissesto naturale, ad esempio, frane, calanchi, erosioni fluviali, eoliche, marine, ecc. Degrado ambientale indotto dalle attività umane, quale il degrado di aria, suoli, acque e della vegetazione, suddiviso in degrado fisico o chimico, biologico, ecologico. Degrado funzionale, quale il degrado economico, produttivo e di fruibilità. Degrado paesaggistico, quale il degrado percettivo sulle grandi estensioni, il degrado estetico delle qualità architettoniche ed ornamentali, il degrado culturale, legato alla perdita di legami con l'habitat di vita, ecc. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>La carta dei diritti sociali fondamentali dei lavoratori, detta carta sociale è stata adottata nel 1989, sotto forma di dichiarazione, da tutti gli stati membri, ad eccezione del regno unito. È considerata come uno strumento politico contenente "obblighi morali" nell'intento di garantire negli stati membri il rispetto di alcuni diritti sociali, quali segnatamente il mercato del lavoro, la formazione professionale, le eguali opportunità e l'ambiente di lavoro. In essa si chiede espressamente alla commissione di promuovere iniziative nell'intento di tradurre in atti legislativi il contenuto della carta. Quest'ultima è stata anche seguita da programmi di azione. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -2430,19 +2430,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1000098</v>
+        <v>1000097</v>
       </c>
       <c r="C99" t="n">
-        <v>3000098</v>
+        <v>3000097</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Carte Ecologiche</t>
+          <t>Carte Di Valutazione Della Fragilità, Dissesto E Degrado Ambientale</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sono dichiarazioni a carattere generale che in passato hanno svolto un ruolo notevole ed ancor oggi costituiscono un punto di riferimento per il dibattito sul rapporto uomo-ambiente e sulla necessità di codificare con leggi e norme il diritto dell'uomo a vivere in un ambiente sano ed in equilibrio ecologico. Fonte: fonte : biblioteca di documentazione pedagogica - firenze</t>
+          <t>Carta di base a scala 1:10.000 0 1:5.000.contenuti: fragilità ambientale, ad esempio zone di transizione, zone carsiche, zone umide, golene, ripe fluviali, superfici detritiche, dune mobili, ecc. Dissesto naturale, ad esempio, frane, calanchi, erosioni fluviali, eoliche, marine, ecc. Degrado ambientale indotto dalle attività umane, quale il degrado di aria, suoli, acque e della vegetazione, suddiviso in degrado fisico o chimico, biologico, ecologico. Degrado funzionale, quale il degrado economico, produttivo e di fruibilità. Degrado paesaggistico, quale il degrado percettivo sulle grandi estensioni, il degrado estetico delle qualità architettoniche ed ornamentali, il degrado culturale, legato alla perdita di legami con l'habitat di vita, ecc. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2451,19 +2451,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1000099</v>
+        <v>1000098</v>
       </c>
       <c r="C100" t="n">
-        <v>3000099</v>
+        <v>3000098</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cartografia</t>
+          <t>Carte Ecologiche</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Scienza complessa che comprende tutte le operazioni scientifiche, tecniche ed artistiche necessarie all'elaborazione e all'allestimento delle carte geografiche e dei diversi sistemi di espressione grafica sulla base di rilevamenti diretti del terreno e di altre fonti di cartografiche o documentarie. Il termine cartografia si riferisce non solo alla produzione ma anche alla lettura e all'utilizzo delle carte. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Sono dichiarazioni a carattere generale che in passato hanno svolto un ruolo notevole ed ancor oggi costituiscono un punto di riferimento per il dibattito sul rapporto uomo-ambiente e sulla necessità di codificare con leggi e norme il diritto dell'uomo a vivere in un ambiente sano ed in equilibrio ecologico. Fonte: fonte : biblioteca di documentazione pedagogica - firenze</t>
         </is>
       </c>
     </row>
@@ -2472,19 +2472,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1000100</v>
+        <v>1000099</v>
       </c>
       <c r="C101" t="n">
-        <v>3000100</v>
+        <v>3000099</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Centrale Idroelettrica</t>
+          <t>Cartografia</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Impianti che trasformano l'energia potenziale di una massa di acqua in quiete e/o l'energia cinetica di una corrente di acqua in energia meccanica, che a sua volta viene poi trasformata in energia elettrica. Le centrali idroelettriche si possono classificare in base a vari elementi: 1) altezza del salto sfruttato (centrali a bassa, media e alta caduta a seconda che il salto sia rispettivamente compreso fino a 50 metri, 250 metri o superiore); 2) portata utilizzabile (centrali di piccola, media e grande portata in base ad una portata d'acqua rispettivamente fino a 10 m3/secondo, 100 m3/secondo o superiore); 3) per tipologia impiantistica: impianti ad acqua fluente, a serbatoio, ad accumulazione per pompaggio. Gli impianti ad acqua fluente sfruttano la portata di un corso d'acqua disponibile in quel preciso momento, senza capacità di regolazione degli afflussi (se il corso d'acqua è in magra e si scende sotto un livello minimo di portata, cessa la produzione di energia elettrica). Gli impianti a serbatoio (o anche a bacino con deflusso regolato) sono provvisti di una capacità di invaso alla presa del corso d'acqua atta a modificare il regime delle portate utilizzate dalla centrale (la centrale è posta al piede di una diga). Gli impianti di accumulazione mediante pompaggio sono impianti simili agli "impianti a serbatoio", ma ricavano la disponibilità di acqua nel serbatoio superiore mediante sollevamento con pompe. Quest'ultimo tipo di impianto si usa laddove la disponibilità naturale di acqua è scarsa e consiste in due serbatoi di estremità, collocati a quote differenti: nelle ore diurne di maggior richiesta (ore di punta) l'acqua immagazzinata nel serbatoio superiore è usata per la produzione di energia elettrica; nelle ore di minor richiesta (ore notturne) l'acqua viene risollevata al serbatoio superiore mediante pompe fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Scienza complessa che comprende tutte le operazioni scientifiche, tecniche ed artistiche necessarie all'elaborazione e all'allestimento delle carte geografiche e dei diversi sistemi di espressione grafica sulla base di rilevamenti diretti del terreno e di altre fonti di cartografiche o documentarie. Il termine cartografia si riferisce non solo alla produzione ma anche alla lettura e all'utilizzo delle carte. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2493,19 +2493,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1000101</v>
+        <v>1000100</v>
       </c>
       <c r="C102" t="n">
-        <v>3000101</v>
+        <v>3000100</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Centrale Nucleare</t>
+          <t>Centrale Idroelettrica</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Impianto destinato alla conversione dell'energia nucleare in energia elettrica. Schematicamente una centrale nucleare è costituita da un reattore nucleare, a sua volta costituito da una struttura (detta nocciolo del reattore) in cui si trova il combustibile nucleare e nella quale avvengono le reazioni di fissione), e da un insieme di apparecchiature ausiliarie che provvedono ad asportare il calore prodotto dalla fissione. Quest'ultimo genera il vapore utilizzato per produzione di elettricità in maniera analoga a quanto avviene nelle convenzionali centrali termoelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Impianti che trasformano l'energia potenziale di una massa di acqua in quiete e/o l'energia cinetica di una corrente di acqua in energia meccanica, che a sua volta viene poi trasformata in energia elettrica. Le centrali idroelettriche si possono classificare in base a vari elementi: 1) altezza del salto sfruttato (centrali a bassa, media e alta caduta a seconda che il salto sia rispettivamente compreso fino a 50 metri, 250 metri o superiore); 2) portata utilizzabile (centrali di piccola, media e grande portata in base ad una portata d'acqua rispettivamente fino a 10 m3/secondo, 100 m3/secondo o superiore); 3) per tipologia impiantistica: impianti ad acqua fluente, a serbatoio, ad accumulazione per pompaggio. Gli impianti ad acqua fluente sfruttano la portata di un corso d'acqua disponibile in quel preciso momento, senza capacità di regolazione degli afflussi (se il corso d'acqua è in magra e si scende sotto un livello minimo di portata, cessa la produzione di energia elettrica). Gli impianti a serbatoio (o anche a bacino con deflusso regolato) sono provvisti di una capacità di invaso alla presa del corso d'acqua atta a modificare il regime delle portate utilizzate dalla centrale (la centrale è posta al piede di una diga). Gli impianti di accumulazione mediante pompaggio sono impianti simili agli "impianti a serbatoio", ma ricavano la disponibilità di acqua nel serbatoio superiore mediante sollevamento con pompe. Quest'ultimo tipo di impianto si usa laddove la disponibilità naturale di acqua è scarsa e consiste in due serbatoi di estremità, collocati a quote differenti: nelle ore diurne di maggior richiesta (ore di punta) l'acqua immagazzinata nel serbatoio superiore è usata per la produzione di energia elettrica; nelle ore di minor richiesta (ore notturne) l'acqua viene risollevata al serbatoio superiore mediante pompe fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2514,19 +2514,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1000102</v>
+        <v>1000101</v>
       </c>
       <c r="C103" t="n">
-        <v>3000102</v>
+        <v>3000101</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Centrale Solare Termoelettrica</t>
+          <t>Centrale Nucleare</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Impianto per la conversione dell'energia solare in energia elettrica mediante un passaggio intermedio di conversione in energia termica. Le tipologie sono principalmente due: impianti a concentrazione (la radiazione solare è concentrata da opportuni "specchi" su un sistema ricevitore, ove riscalda un fluido termovettore che può raggiungere temperature di alcune centinaia di °c); impianti a bassa temperatura (ad esempio gli "stagni solari", ove tra la superficie e il fondo si realizza un gradiente di temperatura di qualche decina di gradi, che può essere sfruttato per produrre energia elettrica, ovviamente con basso rendimento termodinamico) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Impianto destinato alla conversione dell'energia nucleare in energia elettrica. Schematicamente una centrale nucleare è costituita da un reattore nucleare, a sua volta costituito da una struttura (detta nocciolo del reattore) in cui si trova il combustibile nucleare e nella quale avvengono le reazioni di fissione), e da un insieme di apparecchiature ausiliarie che provvedono ad asportare il calore prodotto dalla fissione. Quest'ultimo genera il vapore utilizzato per produzione di elettricità in maniera analoga a quanto avviene nelle convenzionali centrali termoelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2535,19 +2535,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1000103</v>
+        <v>1000102</v>
       </c>
       <c r="C104" t="n">
-        <v>3000103</v>
+        <v>3000102</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Centrale Termoelettrica</t>
+          <t>Centrale Solare Termoelettrica</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Impianto che trasforma l'energia termica di combustibili in energia elettrica attraverso la creazione di vapore o utilizzando i gas derivati dalla combustione. È generalmente costituita da uno o più generatori di vapore, da motori primi termoelettrici, da uno o più gruppi generatori e trasformatori principali, dal ciclo rigenerativo e da vari circuiti e servizi ausiliari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Impianto per la conversione dell'energia solare in energia elettrica mediante un passaggio intermedio di conversione in energia termica. Le tipologie sono principalmente due: impianti a concentrazione (la radiazione solare è concentrata da opportuni "specchi" su un sistema ricevitore, ove riscalda un fluido termovettore che può raggiungere temperature di alcune centinaia di °c); impianti a bassa temperatura (ad esempio gli "stagni solari", ove tra la superficie e il fondo si realizza un gradiente di temperatura di qualche decina di gradi, che può essere sfruttato per produrre energia elettrica, ovviamente con basso rendimento termodinamico) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2556,19 +2556,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1000104</v>
+        <v>1000103</v>
       </c>
       <c r="C105" t="n">
-        <v>3000104</v>
+        <v>3000103</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Certificati Verdi</t>
+          <t>Centrale Termoelettrica</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A partire dal 2002, secondo quanto previsto dal d.m. 79/99, produttori ed importatori hanno l'obbligo di immettere una quota di energia elettrica prodotta da fonti rinnovabili pari al 2% dell'energia convenzionale prodotta o importata nel 2001. In tale quadro si inserisce il cosiddetto "mercato dei certificati verdi", in cui la domanda sarà definita dalla quota (2%) di energia soggetta ad obbligo, mentre l'offerta sarà determinata dai certificati verdi emessi da centrali a fonti rinnovabili (impianti privati qualificati, impianti cip6 gestiti dal grtn, importazioni da fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Impianto che trasforma l'energia termica di combustibili in energia elettrica attraverso la creazione di vapore o utilizzando i gas derivati dalla combustione. È generalmente costituita da uno o più generatori di vapore, da motori primi termoelettrici, da uno o più gruppi generatori e trasformatori principali, dal ciclo rigenerativo e da vari circuiti e servizi ausiliari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2577,19 +2577,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1000105</v>
+        <v>1000104</v>
       </c>
       <c r="C106" t="n">
-        <v>3000105</v>
+        <v>3000104</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Certificazione Ambientale</t>
+          <t>Certificati Verdi</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Al fine di migliorare la gestione operativa delle attività che possono avere un negativo impatto sull’ambiente, molte imprese industriali hanno iniziato a sottoporsi alla verifica di certificatori esterni (società di consulenza specializzate con esperienza primaria nel campo dell’analisi finanziaria e di bilancio). In caso tale verifica vada a buon fine (non abbia cioè riscontrato significative anomalie nel sistema di gestione ambientale degli impianti o superamento dei valori-limite alle emissioni prescritte dalla normativa ambientale in vigore), viene rilasciata una certificazione ambientale che si rifà allo standard volontario prescelto (bs 7750, iso 14000). Alcune società di consulenza si stanno orientando ad operare anche nell’ambito del regolamento emas, che prevede l’accreditamento di verificatori a livello comunitario.</t>
+          <t>A partire dal 2002, secondo quanto previsto dal d.m. 79/99, produttori ed importatori hanno l'obbligo di immettere una quota di energia elettrica prodotta da fonti rinnovabili pari al 2% dell'energia convenzionale prodotta o importata nel 2001. In tale quadro si inserisce il cosiddetto "mercato dei certificati verdi", in cui la domanda sarà definita dalla quota (2%) di energia soggetta ad obbligo, mentre l'offerta sarà determinata dai certificati verdi emessi da centrali a fonti rinnovabili (impianti privati qualificati, impianti cip6 gestiti dal grtn, importazioni da fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2598,19 +2598,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1000106</v>
+        <v>1000105</v>
       </c>
       <c r="C107" t="n">
-        <v>3000106</v>
+        <v>3000105</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Check List</t>
+          <t>Certificazione Ambientale</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Strumento usato per assicurare che siano stati analizzati tutti i processi, procedimenti e tutte le fasi di un'operazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Al fine di migliorare la gestione operativa delle attività che possono avere un negativo impatto sull’ambiente, molte imprese industriali hanno iniziato a sottoporsi alla verifica di certificatori esterni (società di consulenza specializzate con esperienza primaria nel campo dell’analisi finanziaria e di bilancio). In caso tale verifica vada a buon fine (non abbia cioè riscontrato significative anomalie nel sistema di gestione ambientale degli impianti o superamento dei valori-limite alle emissioni prescritte dalla normativa ambientale in vigore), viene rilasciata una certificazione ambientale che si rifà allo standard volontario prescelto (bs 7750, iso 14000). Alcune società di consulenza si stanno orientando ad operare anche nell’ambito del regolamento emas, che prevede l’accreditamento di verificatori a livello comunitario.</t>
         </is>
       </c>
     </row>
@@ -2619,19 +2619,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1000107</v>
+        <v>1000106</v>
       </c>
       <c r="C108" t="n">
-        <v>3000107</v>
+        <v>3000106</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Chiusura Opposta Ad Apertura</t>
+          <t>Check List</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Un concetto chiave degli ecosistemi che fa riferimento al grado di isolamento di un sistema, o alla sua vulnerabilità di fronte ai cambiamenti esterni. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>Strumento usato per assicurare che siano stati analizzati tutti i processi, procedimenti e tutte le fasi di un'operazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2640,19 +2640,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1000108</v>
+        <v>1000107</v>
       </c>
       <c r="C109" t="n">
-        <v>3000108</v>
+        <v>3000107</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ciclo</t>
+          <t>Chiusura Opposta Ad Apertura</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Dal greco kyklos (=cerchio). Corrisponde al succedersi regolare di una serie di fenomeni che si ripetono senza interruzione e con periodico ritorno al punto di partenza. C. Biologico - riciclo di alcuni elementi chimici dagli esseri viventi (bio) al mondo inanimato (geo) terrestre e all'atmosfera. Esiste un ciclo del carbonio, dell'azoto, dell'ossigeno, del fosforo, ciascuno con le sue particolarità. Sull'idea di ciclo è basato il concetto di risorse rinnovabili spontaneamente purché l'uomo non rompa questo equilibrio messo a punto in miliardi di anni di evoluzione. C. Vegetativo - insieme delle diverse fasi che si avvicendano nella vita di una pianta: germinazione del seme, accrescimento, fioritura, maturazione del frutto o del seme. C. Vitale - sequenza degli eventi che vanno dalla nascita di un organismo vivente alla sua riproduzione con formazione di nuovi esseri viventi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Un concetto chiave degli ecosistemi che fa riferimento al grado di isolamento di un sistema, o alla sua vulnerabilità di fronte ai cambiamenti esterni. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -2661,19 +2661,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1000109</v>
+        <v>1000108</v>
       </c>
       <c r="C110" t="n">
-        <v>3000109</v>
+        <v>3000108</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ciclo Biologico</t>
+          <t>Ciclo</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>L'insieme dei processi di accrescimento, di differenziamento e di riproduzione che conducono da un individuo ad altri simili (discendenti). Ha complessità diversa nei vari organismi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Dal greco kyklos (=cerchio). Corrisponde al succedersi regolare di una serie di fenomeni che si ripetono senza interruzione e con periodico ritorno al punto di partenza. C. Biologico - riciclo di alcuni elementi chimici dagli esseri viventi (bio) al mondo inanimato (geo) terrestre e all'atmosfera. Esiste un ciclo del carbonio, dell'azoto, dell'ossigeno, del fosforo, ciascuno con le sue particolarità. Sull'idea di ciclo è basato il concetto di risorse rinnovabili spontaneamente purché l'uomo non rompa questo equilibrio messo a punto in miliardi di anni di evoluzione. C. Vegetativo - insieme delle diverse fasi che si avvicendano nella vita di una pianta: germinazione del seme, accrescimento, fioritura, maturazione del frutto o del seme. C. Vitale - sequenza degli eventi che vanno dalla nascita di un organismo vivente alla sua riproduzione con formazione di nuovi esseri viventi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2682,19 +2682,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1000110</v>
+        <v>1000109</v>
       </c>
       <c r="C111" t="n">
-        <v>3000110</v>
+        <v>3000109</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ciclo Di Vita</t>
+          <t>Ciclo Biologico</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ciclo di vita ecologico di un prodotto, che comprende tutte le fasi, da quella di estrazione delle materie prime a quella di smaltimento finale del prodotto-rifiuto</t>
+          <t>L'insieme dei processi di accrescimento, di differenziamento e di riproduzione che conducono da un individuo ad altri simili (discendenti). Ha complessità diversa nei vari organismi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2703,19 +2703,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1000111</v>
+        <v>1000110</v>
       </c>
       <c r="C112" t="n">
-        <v>3000111</v>
+        <v>3000110</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Clean Development Mechanism</t>
+          <t>Ciclo Di Vita</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Meccanismo flessibile previsto nel protocollo di kyoto che consente ad un paese dell'annesso i che implementa un progetto in un paese in via di sviluppo con lo scopo di ridurre le emissioni e di favorire lo sviluppo sostenibile in quel paese di conteggiare parte della riduzione a suo favore. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Ciclo di vita ecologico di un prodotto, che comprende tutte le fasi, da quella di estrazione delle materie prime a quella di smaltimento finale del prodotto-rifiuto</t>
         </is>
       </c>
     </row>
@@ -2724,19 +2724,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1000112</v>
+        <v>1000111</v>
       </c>
       <c r="C113" t="n">
-        <v>3000112</v>
+        <v>3000111</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Cleaner Production</t>
+          <t>Clean Development Mechanism</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Impiego continuo di strategie ambientali integrate e in ottica preventiva nell'ambito di processi, prodotti e servizi con l'obiettivo di raggiungere un aumento dell'efficienza ecologica e un miglioramento della qualità della vita di una regione. "ecoprofit", facendo cardine sulla filosofia cleaner production, ha già portato alla realizzazione degli obiettivi suddetti e può essere qualificato come programma di cleaner production di maggior successo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Meccanismo flessibile previsto nel protocollo di kyoto che consente ad un paese dell'annesso i che implementa un progetto in un paese in via di sviluppo con lo scopo di ridurre le emissioni e di favorire lo sviluppo sostenibile in quel paese di conteggiare parte della riduzione a suo favore. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2745,19 +2745,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1000113</v>
+        <v>1000112</v>
       </c>
       <c r="C114" t="n">
-        <v>3000113</v>
+        <v>3000112</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Clima</t>
+          <t>Cleaner Production</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Complesso delle condizioni meteorologiche di una regione nel corso delle stagioni. Il clima dipende dalla latitudine, dall'altitudine, dalla posizione rispetto ai continenti e alle aree oceaniche. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Impiego continuo di strategie ambientali integrate e in ottica preventiva nell'ambito di processi, prodotti e servizi con l'obiettivo di raggiungere un aumento dell'efficienza ecologica e un miglioramento della qualità della vita di una regione. "ecoprofit", facendo cardine sulla filosofia cleaner production, ha già portato alla realizzazione degli obiettivi suddetti e può essere qualificato come programma di cleaner production di maggior successo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2766,19 +2766,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1000114</v>
+        <v>1000113</v>
       </c>
       <c r="C115" t="n">
-        <v>3000114</v>
+        <v>3000113</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Climatici, Cambiamenti</t>
+          <t>Clima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Variazioni del clima di una determinata regione o area della superficie terrestre come conseguenza di fenomeni astronomici (ad esempio, variazione dell'inclinazione dell'asse terrestre, polveri cosmiche o vulcaniche, ecc.), di fenomeni e variazioni indotte localmente (ad esempio, formazione di grandi bacini lacustri in aree desertiche, grandi incendi in aree boschive e di foresta, ecc.) o per l'effetto serra. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Complesso delle condizioni meteorologiche di una regione nel corso delle stagioni. Il clima dipende dalla latitudine, dall'altitudine, dalla posizione rispetto ai continenti e alle aree oceaniche. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2787,19 +2787,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1000115</v>
+        <v>1000114</v>
       </c>
       <c r="C116" t="n">
-        <v>3000115</v>
+        <v>3000114</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Climax</t>
+          <t>Climatici, Cambiamenti</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Comunità che ha raggiunto lo stadio di equilibrio ottimale in presenza di particolari condizioni ambientali (biocenosi). Rappresenta lo stadio finale di una serie di successioni, intese come modalità non stagionali, direzionali e continue di colonizzazioni e di estinzioni di un sito da parte di popolazioni di specie. Un esempio di successione su un terreno di partenza spoglio può essere: muschi, piante erbacee (arbusti), alberi caducifoglie, conifere. Possono essere necessarie anche centinaia di anni prima di raggiungere lo stadio di climax, ma una volta raggiunto, saranno necessari grossi cambiamenti climatici perché si abbiano significative variazioni della vegetazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Variazioni del clima di una determinata regione o area della superficie terrestre come conseguenza di fenomeni astronomici (ad esempio, variazione dell'inclinazione dell'asse terrestre, polveri cosmiche o vulcaniche, ecc.), di fenomeni e variazioni indotte localmente (ad esempio, formazione di grandi bacini lacustri in aree desertiche, grandi incendi in aree boschive e di foresta, ecc.) o per l'effetto serra. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2808,19 +2808,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1000116</v>
+        <v>1000115</v>
       </c>
       <c r="C117" t="n">
-        <v>3000116</v>
+        <v>3000115</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Club Di Roma</t>
+          <t>Climax</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Associazione fondata nel 1968 da aurelio peccei per esaminare la situazione critica della condizione umana in un mondo di risorse finite, proponendo politiche alternative. I membri dell'associazione provenivano dal mondo della scienza, della ricerca, dell'industria e dell'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Comunità che ha raggiunto lo stadio di equilibrio ottimale in presenza di particolari condizioni ambientali (biocenosi). Rappresenta lo stadio finale di una serie di successioni, intese come modalità non stagionali, direzionali e continue di colonizzazioni e di estinzioni di un sito da parte di popolazioni di specie. Un esempio di successione su un terreno di partenza spoglio può essere: muschi, piante erbacee (arbusti), alberi caducifoglie, conifere. Possono essere necessarie anche centinaia di anni prima di raggiungere lo stadio di climax, ma una volta raggiunto, saranno necessari grossi cambiamenti climatici perché si abbiano significative variazioni della vegetazione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2829,19 +2829,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1000117</v>
+        <v>1000116</v>
       </c>
       <c r="C118" t="n">
-        <v>3000117</v>
+        <v>3000116</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cogenerazione</t>
+          <t>Club Di Roma</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Produzione combinata di energia elettrica e calore da destinare a processi industriali, al riscaldamento (teleriscaldamento) eccetera. La produzione prevalente può essere l'una o l'altra a seconda delle necessità fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Associazione fondata nel 1968 da aurelio peccei per esaminare la situazione critica della condizione umana in un mondo di risorse finite, proponendo politiche alternative. I membri dell'associazione provenivano dal mondo della scienza, della ricerca, dell'industria e dell'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2850,19 +2850,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1000118</v>
+        <v>1000117</v>
       </c>
       <c r="C119" t="n">
-        <v>3000118</v>
+        <v>3000117</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Collettore Solare</t>
+          <t>Cogenerazione</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Apparecchiatura atta a convertire la radiazione solare in calore da utilizzare per produzione di acqua calda o vapore. Quello più diffuso è il cosiddetto collettore piano, costituito da una piastra, di materiale idoneo ad assorbire la radiazione solare incidente, che funge da accumulatore termico per riscaldare l'apposito fluido convettore fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Produzione combinata di energia elettrica e calore da destinare a processi industriali, al riscaldamento (teleriscaldamento) eccetera. La produzione prevalente può essere l'una o l'altra a seconda delle necessità fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -2871,57 +2871,57 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1000119</v>
+        <v>1000118</v>
       </c>
       <c r="C120" t="n">
-        <v>3000119</v>
+        <v>3000118</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Combustibile derivato dai rifiuti</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>Collettore Solare</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Apparecchiatura atta a convertire la radiazione solare in calore da utilizzare per produzione di acqua calda o vapore. Quello più diffuso è il cosiddetto collettore piano, costituito da una piastra, di materiale idoneo ad assorbire la radiazione solare incidente, che funge da accumulatore termico per riscaldare l'apposito fluido convettore fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1000120</v>
+        <v>1000119</v>
       </c>
       <c r="C121" t="n">
-        <v>3000120</v>
+        <v>3000119</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Combustibili Fossili</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Sostanze derivanti da resti vegetali e animali che hanno subito nel corso degli anni un processo di trasformazione per azione dell'energia solare. Il carbone, il petrolio, il metano e i vari prodotto derivati dal petrolio, ad esempio gasolio, benzine gpl, cherosene, sono combustibili fossili fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
-        </is>
-      </c>
+          <t>Combustibile derivato dai rifiuti</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1000121</v>
+        <v>1000120</v>
       </c>
       <c r="C122" t="n">
-        <v>3000121</v>
+        <v>3000120</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Comitato Di Sviluppo Locale</t>
+          <t>Combustibili Fossili</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Organo collegiale integrato da rappresentanti del governo nazionale (delegati territoriali) e da rappresentanti della società civile presieduta dal sindaco e dal consiglio comunale che, dopo un processo di consultazioni, elabora ed esegue il piano di sviluppo municipale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Sostanze derivanti da resti vegetali e animali che hanno subito nel corso degli anni un processo di trasformazione per azione dell'energia solare. Il carbone, il petrolio, il metano e i vari prodotto derivati dal petrolio, ad esempio gasolio, benzine gpl, cherosene, sono combustibili fossili fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -2930,19 +2930,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1000122</v>
+        <v>1000121</v>
       </c>
       <c r="C123" t="n">
-        <v>3000122</v>
+        <v>3000121</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Command And Control</t>
+          <t>Comitato Di Sviluppo Locale</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Strumento di politica ambientale basato sull'emanazione di norme e sul relativo controllo dell'applicazione e dell'osservanza. Rappresenta l'approccio iniziale che sin dagli anni '70 ha improntato la legislazione comunitaria e di tutti gli stati membri per la gestione delle politiche ambientali. A decorrere dai primi anni '90, in contrapposizione a tale sistema si è posto quello dell'emas che introduce approcci volontari di corresponsabilizzazione dell'apparato produttivo.</t>
+          <t>Organo collegiale integrato da rappresentanti del governo nazionale (delegati territoriali) e da rappresentanti della società civile presieduta dal sindaco e dal consiglio comunale che, dopo un processo di consultazioni, elabora ed esegue il piano di sviluppo municipale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -2951,19 +2951,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1000123</v>
+        <v>1000122</v>
       </c>
       <c r="C124" t="n">
-        <v>3000123</v>
+        <v>3000122</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Compatibilità Ambientale (O Eco-Compatibilita')</t>
+          <t>Command And Control</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Caratteristica di un progetto di essere realizzato e di sussistere senza produrre impatti negativi sulle condizioni dell'ambiente. La coerenza e la congruità delle strategie e delle azioni previste da piani e programmi, nonché degli interventi previsti dai progetti, con gli obiettivi di salvaguardia, tutela e miglioramento della qualità dell'ambiente e della qualità della vita, di valorizzazione delle risorse, nel rispetto altresì delle disposizioni normative comunitarie, statali e regionali". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Strumento di politica ambientale basato sull'emanazione di norme e sul relativo controllo dell'applicazione e dell'osservanza. Rappresenta l'approccio iniziale che sin dagli anni '70 ha improntato la legislazione comunitaria e di tutti gli stati membri per la gestione delle politiche ambientali. A decorrere dai primi anni '90, in contrapposizione a tale sistema si è posto quello dell'emas che introduce approcci volontari di corresponsabilizzazione dell'apparato produttivo.</t>
         </is>
       </c>
     </row>
@@ -2972,19 +2972,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1000124</v>
+        <v>1000123</v>
       </c>
       <c r="C125" t="n">
-        <v>3000124</v>
+        <v>3000123</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Complessità</t>
+          <t>Compatibilità Ambientale (O Eco-Compatibilita')</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Le teorie della complessità affermano che vita, umanità, evoluzione, cambiamento, conoscenza, ecc. Sono originate da, e vanno dl pari passo con, disordine, caos (vedi), perturbazione, dissimmetria, instabilità, squilibrio, flussi, turbolenza, non linearità, marginalità, incertezza, relatività, disarmonia, frattalismo, imponderabilità, ecc. Ad esempio, nell'attuale interdipendenza complessiva (globalizzazione), le azioni locali producono ampie conseguenze in termini di distanza (spazio), tempo e dimensione. La globalizzazione mette assieme simultaneamente iniziative differenti, eccezionali, individuali e frammentate. Non ci potrebbe essere globalizzazione senza localizzazione, poiché globale e locale sono differenti dimensioni di un sistema che evolve insieme alla qualità di relazioni e componenti (co-evoluzione) e si auto-organizza. Perciò soltanto un pensiero strategico può collegare (oliamo) tali eventi e gestire la complessità. È necessario un modo di pensare olistico, in grado cioè di rispettare ciò che è diverso (e divergente), le sfaccettature multidimensionali di una situazione e di un problema (frattale e ologramma), agendo sulle loro interdipendenze. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Caratteristica di un progetto di essere realizzato e di sussistere senza produrre impatti negativi sulle condizioni dell'ambiente. La coerenza e la congruità delle strategie e delle azioni previste da piani e programmi, nonché degli interventi previsti dai progetti, con gli obiettivi di salvaguardia, tutela e miglioramento della qualità dell'ambiente e della qualità della vita, di valorizzazione delle risorse, nel rispetto altresì delle disposizioni normative comunitarie, statali e regionali". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -2993,19 +2993,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1000125</v>
+        <v>1000124</v>
       </c>
       <c r="C126" t="n">
-        <v>3000125</v>
+        <v>3000124</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Componente Ambientale</t>
+          <t>Complessità</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Categoria di elementi fisicamente individuabili che compongono l'ambiente considerato dagli studi di impatto ambientale. Ad essa viene riconosciuta un'omogeneità al fine degli impatti attesi. Le componenti ambientali previste dagli studi d'impatto ambientale sono: atmosfera, suolo e sottosuolo, ambiente idrico, vegetazione, flora e fauna, ecosistemi, salute pubblica, rumore e vibrazioni, radiazioni ionizzanti e non ionizzanti, paesaggio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Le teorie della complessità affermano che vita, umanità, evoluzione, cambiamento, conoscenza, ecc. Sono originate da, e vanno dl pari passo con, disordine, caos (vedi), perturbazione, dissimmetria, instabilità, squilibrio, flussi, turbolenza, non linearità, marginalità, incertezza, relatività, disarmonia, frattalismo, imponderabilità, ecc. Ad esempio, nell'attuale interdipendenza complessiva (globalizzazione), le azioni locali producono ampie conseguenze in termini di distanza (spazio), tempo e dimensione. La globalizzazione mette assieme simultaneamente iniziative differenti, eccezionali, individuali e frammentate. Non ci potrebbe essere globalizzazione senza localizzazione, poiché globale e locale sono differenti dimensioni di un sistema che evolve insieme alla qualità di relazioni e componenti (co-evoluzione) e si auto-organizza. Perciò soltanto un pensiero strategico può collegare (oliamo) tali eventi e gestire la complessità. È necessario un modo di pensare olistico, in grado cioè di rispettare ciò che è diverso (e divergente), le sfaccettature multidimensionali di una situazione e di un problema (frattale e ologramma), agendo sulle loro interdipendenze. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -3014,19 +3014,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1000126</v>
+        <v>1000125</v>
       </c>
       <c r="C127" t="n">
-        <v>3000126</v>
+        <v>3000125</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Compost</t>
+          <t>Componente Ambientale</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Materiale organico che si ottiene dalla biodegradazione di rifiuti organici, rami, foglie, erba e vegetali in genere, e che si può utilizzare come concime naturale. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Categoria di elementi fisicamente individuabili che compongono l'ambiente considerato dagli studi di impatto ambientale. Ad essa viene riconosciuta un'omogeneità al fine degli impatti attesi. Le componenti ambientali previste dagli studi d'impatto ambientale sono: atmosfera, suolo e sottosuolo, ambiente idrico, vegetazione, flora e fauna, ecosistemi, salute pubblica, rumore e vibrazioni, radiazioni ionizzanti e non ionizzanti, paesaggio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3035,19 +3035,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1000127</v>
+        <v>1000126</v>
       </c>
       <c r="C128" t="n">
-        <v>3000127</v>
+        <v>3000126</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Compostaggio</t>
+          <t>Compost</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Biotecnologia per il trattamento di rifiuti organici di diversa provenienza e natura, basata su un processo ossidativi, operato da consorzi di microrganismi aerobici. Il compost ottenuto, se di qualità adeguata, può essere utilizzato come ammendante in agricoltura fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Materiale organico che si ottiene dalla biodegradazione di rifiuti organici, rami, foglie, erba e vegetali in genere, e che si può utilizzare come concime naturale. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -3056,19 +3056,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1000128</v>
+        <v>1000127</v>
       </c>
       <c r="C129" t="n">
-        <v>3000128</v>
+        <v>3000127</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Comunità</t>
+          <t>Compostaggio</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>La comunità è l'insieme delle persone che vivono in un contesto territoriale ed ambientale, come una comunità urbana. La comunità è caratterizzata da regole ed obiettivi comuni, ed è alla base dell'attuazione dell'agenda 21, come parte sociale. In un'accezione più ampia, ecosistemica, può contenere anche le componenti naturali, animate ed inanimate, rappresentate da opportuni stakeholders (p.e. Associazioni ambientaliste). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Biotecnologia per il trattamento di rifiuti organici di diversa provenienza e natura, basata su un processo ossidativi, operato da consorzi di microrganismi aerobici. Il compost ottenuto, se di qualità adeguata, può essere utilizzato come ammendante in agricoltura fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3077,19 +3077,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1000129</v>
+        <v>1000128</v>
       </c>
       <c r="C130" t="n">
-        <v>3000129</v>
+        <v>3000128</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Concertazione</t>
+          <t>Comunità</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Negli spazi di concertazione cittadina, la popolazione, le ong e i professionisti costruiscono insieme al comune gli indirizzi per la pianificazione a medio e lungo termine, contribuendo a delineare l'immagine della città ideale vagheggiata dalla sintesi dei desideri dei suoi abitanti. Due i grandi strumenti di indirizzo che possono uscire da questa discussione: il piano di sviluppo economico, che - puntando ad una crescita con distribuzione di reddito - valorizza molte idee nate all'interno della città informale, e il piano regolatore di sviluppo urbano e ambientale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>La comunità è l'insieme delle persone che vivono in un contesto territoriale ed ambientale, come una comunità urbana. La comunità è caratterizzata da regole ed obiettivi comuni, ed è alla base dell'attuazione dell'agenda 21, come parte sociale. In un'accezione più ampia, ecosistemica, può contenere anche le componenti naturali, animate ed inanimate, rappresentate da opportuni stakeholders (p.e. Associazioni ambientaliste). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -3098,19 +3098,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1000130</v>
+        <v>1000129</v>
       </c>
       <c r="C131" t="n">
-        <v>3000130</v>
+        <v>3000129</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Condivisione</t>
+          <t>Concertazione</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Concordare su, avere la stessa opinione. Risultato che si ottiene attraverso la partecipazione ed un processo di elaborazione, con il quale un gruppo dl attori/soggetti arriva a stabilire obiettivi, programmi, valori, visioni, che sono stabiliti concordemente sulla base di molteplici incontri/riunioni, e sui bisogni/aspettative riconosciuti come comuni, nel rispetto della diversità. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Negli spazi di concertazione cittadina, la popolazione, le ong e i professionisti costruiscono insieme al comune gli indirizzi per la pianificazione a medio e lungo termine, contribuendo a delineare l'immagine della città ideale vagheggiata dalla sintesi dei desideri dei suoi abitanti. Due i grandi strumenti di indirizzo che possono uscire da questa discussione: il piano di sviluppo economico, che - puntando ad una crescita con distribuzione di reddito - valorizza molte idee nate all'interno della città informale, e il piano regolatore di sviluppo urbano e ambientale. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -3119,19 +3119,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1000131</v>
+        <v>1000130</v>
       </c>
       <c r="C132" t="n">
-        <v>3000131</v>
+        <v>3000130</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Consilience E Democrazia Cognitiva</t>
+          <t>Condivisione</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>La scienza evolve assieme a chi la produce: l'essere umano. La sua conoscenza è parziale, perché rappresenta comunque una parte dell'ecosistema, anche se spesso ritiene di poter capire le dinamiche delle altre componenti e parlare per loro conto. Per farlo, si specializza in molte e diverse discipline. Nasce, per contro, l'esigenza di mettere assieme quanto esse producono. Il livello più elementare di "messa assieme" è quello della multidisciplinarietà, quando si analizza un problema seguendo il punto di vista di approcci scientifici, tra loro diversi. Livello più avanzato è quello dell'interdisciplinarietà, come combinazione tra vari approcci scientifici. Il livello consapevolmente più impegnativo e completo è quello della consilience, cioè l'integrazione dei saperi per governare la complessità. W. Whewell usò già nel 1840 tale termine a significare letteralmente: il "saltare insieme" della conoscenza, legando fatti e teorie attraverso le varie discipline per creare un terreno comune di spiegazione dei fenomeni. Ripresa recentemente da e. Wilson (1998), consilience sta a significare "unità della conoscenza" e si contrappone alla divisione in materie di studio. Partendo da un fenomeno (problema) si cerca di "comprenderlo" (prendere insieme), capirne e governarne la complessità, unendo la conoscenza e non separandola. Guardando ai problemi attuali, wilson lancia la sfida della consilience al fine di riconciliare almeno quattro aree di conoscenza; biologia, scienze sociali, etica, politica ambientale. Tale necessità era già evidente negli scritti di e. Morin (1977), il quale ha sempre puntato ad una visione integrata tra scienze fisiche, antropo-sociologiche e biologiche. Un'unione che deve servire allo sviluppo della "democrazia cognitiva", rendendo la conoscenza accessibile a tutte le persone affinché aumentino la capacità di autorganizzazione ed autogestione (morin, 1999). E ciò è, oggi, basilare per affrontare e gestire le sfide dello sviluppo sostenibile. Fonte: http://www.provincia.arezzo.it/imprendere21/glossario/glo</t>
+          <t>Concordare su, avere la stessa opinione. Risultato che si ottiene attraverso la partecipazione ed un processo di elaborazione, con il quale un gruppo dl attori/soggetti arriva a stabilire obiettivi, programmi, valori, visioni, che sono stabiliti concordemente sulla base di molteplici incontri/riunioni, e sui bisogni/aspettative riconosciuti come comuni, nel rispetto della diversità. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -3140,19 +3140,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1000132</v>
+        <v>1000131</v>
       </c>
       <c r="C133" t="n">
-        <v>3000132</v>
+        <v>3000131</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Green Consumerism</t>
+          <t>Consilience E Democrazia Cognitiva</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Quando sia i produttori che i singoli consumatori identificano e apprezzano prodotti e servizi generati in maniera più sostenibile. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>La scienza evolve assieme a chi la produce: l'essere umano. La sua conoscenza è parziale, perché rappresenta comunque una parte dell'ecosistema, anche se spesso ritiene di poter capire le dinamiche delle altre componenti e parlare per loro conto. Per farlo, si specializza in molte e diverse discipline. Nasce, per contro, l'esigenza di mettere assieme quanto esse producono. Il livello più elementare di "messa assieme" è quello della multidisciplinarietà, quando si analizza un problema seguendo il punto di vista di approcci scientifici, tra loro diversi. Livello più avanzato è quello dell'interdisciplinarietà, come combinazione tra vari approcci scientifici. Il livello consapevolmente più impegnativo e completo è quello della consilience, cioè l'integrazione dei saperi per governare la complessità. W. Whewell usò già nel 1840 tale termine a significare letteralmente: il "saltare insieme" della conoscenza, legando fatti e teorie attraverso le varie discipline per creare un terreno comune di spiegazione dei fenomeni. Ripresa recentemente da e. Wilson (1998), consilience sta a significare "unità della conoscenza" e si contrappone alla divisione in materie di studio. Partendo da un fenomeno (problema) si cerca di "comprenderlo" (prendere insieme), capirne e governarne la complessità, unendo la conoscenza e non separandola. Guardando ai problemi attuali, wilson lancia la sfida della consilience al fine di riconciliare almeno quattro aree di conoscenza; biologia, scienze sociali, etica, politica ambientale. Tale necessità era già evidente negli scritti di e. Morin (1977), il quale ha sempre puntato ad una visione integrata tra scienze fisiche, antropo-sociologiche e biologiche. Un'unione che deve servire allo sviluppo della "democrazia cognitiva", rendendo la conoscenza accessibile a tutte le persone affinché aumentino la capacità di autorganizzazione ed autogestione (morin, 1999). E ciò è, oggi, basilare per affrontare e gestire le sfide dello sviluppo sostenibile. Fonte: http://www.provincia.arezzo.it/imprendere21/glossario/glo</t>
         </is>
       </c>
     </row>
@@ -3161,19 +3161,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1000133</v>
+        <v>1000132</v>
       </c>
       <c r="C134" t="n">
-        <v>3000133</v>
+        <v>3000132</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Contabilità Ambientale</t>
+          <t>Green Consumerism</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Con il termine contabilità ambientale si intende un sistema che permette di rilevare, organizzare gestire e comunicare informazioni e dati ambientali, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un organizzazione pubblica o privata si parlerà di contabilità ambientale pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
+          <t>Quando sia i produttori che i singoli consumatori identificano e apprezzano prodotti e servizi generati in maniera più sostenibile. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -3182,19 +3182,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1000134</v>
+        <v>1000133</v>
       </c>
       <c r="C135" t="n">
-        <v>3000134</v>
+        <v>3000133</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Contabilità Economica</t>
+          <t>Contabilità Ambientale</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Il termine contabilità economica viene diffusamente utilizzato, anche se in modo improprio, per indicare il sistema di registrazione, organizzazione, gestione e comunicazione delle informazioni e dati di impresa, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un'organizzazione pubblica o privata si parlerà di contabilità pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
+          <t>Con il termine contabilità ambientale si intende un sistema che permette di rilevare, organizzare gestire e comunicare informazioni e dati ambientali, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un organizzazione pubblica o privata si parlerà di contabilità ambientale pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
         </is>
       </c>
     </row>
@@ -3203,19 +3203,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1000135</v>
+        <v>1000134</v>
       </c>
       <c r="C136" t="n">
-        <v>3000135</v>
+        <v>3000134</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Conti Ambientali</t>
+          <t>Contabilità Economica</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>I conti ambientali descrivono la pressione, espressa in unità fisiche, esercitata dalle attività economiche sull'ambiente naturale. Nel disegno di legge sulla contabilità ambientale pubblica, i conti ambientali vengono definiti nel modo seguente: "per sistema di conti ambientali si intende l'insieme delle informazioni che, nell'ambito del sistema statistico nazionale descrivono: a) la consistenza e le variazioni del patrimonio naturale; b) le interazioni tra economia ed ambiente; c) le spese per la prevenzione, la protezione e il ripristino in materia ambientale". Si tratta della base informativa del bilancio ambientale o documento di sostenibilità dell'ente pubblico territoriale. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Il termine contabilità economica viene diffusamente utilizzato, anche se in modo improprio, per indicare il sistema di registrazione, organizzazione, gestione e comunicazione delle informazioni e dati di impresa, questi ultimi espressi in unità fisiche e monetarie. A seconda che l'utilizzatore del sistema sia un'organizzazione pubblica o privata si parlerà di contabilità pubblica o d'impresa. Le finalità di tale strumento possono essere sia di comunicazione interna, e quindi come supporto alle decisioni dell'organizzazione, sia di comunicazione esterna.</t>
         </is>
       </c>
     </row>
@@ -3224,19 +3224,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1000136</v>
+        <v>1000135</v>
       </c>
       <c r="C137" t="n">
-        <v>3000136</v>
+        <v>3000135</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Controllo Ambientale</t>
+          <t>Conti Ambientali</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Il controllo ambientale è una funzione d'osservazione e monitoraggio dello stato dell'ambiente (nelle sue diverse componenti) e delle fonti d'inquinamento, sia d'origine naturale sia legate ad attività antropiche. Esso costituisce, quindi uno strumento privilegiato per il governo dell'ambiente. Il controllo può anche essere visto come l'insieme delle azioni mirate a garantire la disponibilità di un quadro certo e continuamente aggiornato della qualità dell'ambiente e delle informazioni di supporto che permettono di seguire e prevedere l'evoluzione dei fenomeni degenerativi generali e localizzati, consentendone la limitazione nello spazio e nel tempo. Fonte: tesi di laurea"l'agenzia nazionale per la protezione dell'ambiente" a. Giuliani 1999</t>
+          <t>I conti ambientali descrivono la pressione, espressa in unità fisiche, esercitata dalle attività economiche sull'ambiente naturale. Nel disegno di legge sulla contabilità ambientale pubblica, i conti ambientali vengono definiti nel modo seguente: "per sistema di conti ambientali si intende l'insieme delle informazioni che, nell'ambito del sistema statistico nazionale descrivono: a) la consistenza e le variazioni del patrimonio naturale; b) le interazioni tra economia ed ambiente; c) le spese per la prevenzione, la protezione e il ripristino in materia ambientale". Si tratta della base informativa del bilancio ambientale o documento di sostenibilità dell'ente pubblico territoriale. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -3245,19 +3245,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1000137</v>
+        <v>1000136</v>
       </c>
       <c r="C138" t="n">
-        <v>3000137</v>
+        <v>3000136</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Conversione Fotovoltaica</t>
+          <t>Controllo Ambientale</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Tecnologia che, sfruttando il cosiddetto effetto fotovoltaico, consente di trasformare direttamente in energia elettrica la radiazione elettromagnetica associata all'energia solare http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv cooperazione decentrata (e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s'intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l'accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Il controllo ambientale è una funzione d'osservazione e monitoraggio dello stato dell'ambiente (nelle sue diverse componenti) e delle fonti d'inquinamento, sia d'origine naturale sia legate ad attività antropiche. Esso costituisce, quindi uno strumento privilegiato per il governo dell'ambiente. Il controllo può anche essere visto come l'insieme delle azioni mirate a garantire la disponibilità di un quadro certo e continuamente aggiornato della qualità dell'ambiente e delle informazioni di supporto che permettono di seguire e prevedere l'evoluzione dei fenomeni degenerativi generali e localizzati, consentendone la limitazione nello spazio e nel tempo. Fonte: tesi di laurea"l'agenzia nazionale per la protezione dell'ambiente" a. Giuliani 1999</t>
         </is>
       </c>
     </row>
@@ -3266,19 +3266,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1000138</v>
+        <v>1000137</v>
       </c>
       <c r="C139" t="n">
-        <v>3000138</v>
+        <v>3000137</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Cooperazione Decentrata</t>
+          <t>Conversione Fotovoltaica</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>(e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s’intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l’accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Tecnologia che, sfruttando il cosiddetto effetto fotovoltaico, consente di trasformare direttamente in energia elettrica la radiazione elettromagnetica associata all'energia solare http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv cooperazione decentrata (e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s'intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l'accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -3287,19 +3287,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1000139</v>
+        <v>1000138</v>
       </c>
       <c r="C140" t="n">
-        <v>3000139</v>
+        <v>3000138</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Cooperazione Internazionale (Allo Sviluppo)</t>
+          <t>Cooperazione Decentrata</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Per "cooperazione internazionale" si intende l'insieme di operazioni di aiuto che qualcuno (ad esempio i paesi ricchi o i paesi industrializzati dell'ocse) mette in atto nei confronti dei paesi definiti "in via di sviluppo". Questo tipo di cooperazione è intesa come "cooperazione allo sviluppo" o "cooperazione con i paesi in via di sviluppo" o "aiuto pubblico ai pvs". La cooperazione internazionale nasce nel secondo dopoguerra e passa attraverso cinque fasi: prima fase, immediatamente dopo la ii guerra mondiale, fino agli inizi degli anni cinquanta: la motivazione politico-ideale. La fine della ii guerra mondiale porta con sé la consapevolezza che l'umanità andava considerata nel suo complesso, come un tutto che richiedeva, di conseguenza, un governo globale dei conflitti e dei problemi. Segue anche una grande spinta "ideale" che si ispira alla possibilità di costruire un "nuovo" mondo. La nascita dell'onu (1945), la dichiarazione universale dei diritti dell'uomo (1948, ed i successivi convenants del 1966) costituiscono la base dello strumento multilaterale della cooperazione. Su questa spinta nascono le agenzie dell'onu (fao, oms, unicef, ecc.) che sottolineano l'aspetto ideale della cooperazione e si fondano su motivi di solidarietà, interdipendenza e coscienza più ampia del "bene comune" allargato a tutta l'umanità e non più riferito solo ai singoli popoli e alla loro semplice sommatoria. Tutti motivi che postulavano e postulano il superamento del concetto di stato-nazione come concetto di riferimento al fine di un'applicazione a livello mondiale dei principi della giustizia distributiva e legale. Seconda fase, anni cinquanta: la motivazione politico-economica nel 1949 la cooperazione assume un nuovo aspetto. Il 20 gennaio del '49 il presidente degli usa truman tiene al congresso un discorso fondamentale. Gli usa si pongono ad esempio per i paesi in "ritardo" nello sviluppo. E si autonominano "maestri" di sviluppo e quindi di cooperazione. Terza fase, anni sessanta: la motivazione etico-sociale. Negli anni sessanta si realizza per la maggior parte dei paesi coloniali il processo di decolonizzazione: è proprio nel 1960 che moltissimi paesi/colonie raggiungono l'indipendenza. È anche il momento in cui le società civili del nord del mondo si fanno carico in maniera più incisiva del problema della cooperazione tra paesi. Anche in italia, a fronte della pressione della società civile, viene approvata una legge sulla cooperazione, nascono le prime organizzazioni non governative, esce la populorum progressio (1968). Vi è una forte tensione che viene appunto definita etico-sociale. Ad esempio, la populorum progressio definendo "lo sviluppo" come "nuovo nome della pace" riassume con chiarezza il paradigma concettuale che si va facendo strada e fonda il cosiddetto "dovere di solidarietà" motivato a sua volta dalla considerazione del "bene comune dell'umanità", di tutta l'umanità. Quarta fase, dagli anni settanta: la cooperazione come marketing "le imprese americane dipendono sempre più dalle materie prime dei paesi sottosviluppati. Inoltre queste imprese hanno bisogno dei mercati dei paesi sottosviluppati. Da ultimo questi paesi offrono possibilità di investimenti produttivi per la tecnologia ed il capitale statunitense". Così si possono riassumere, con collins e lappè, le tre motivazioni dell'aiuto in favore dei paesi in via di sviluppo da parte degli usa. La cooperazione diventa uno degli strumenti di penetrazione e controllo dei mercati mondiali. Anche elaborazioni lodevoli, quali ad esempio il rapporto brandt (1980), vedono nella cooperazione una delle possibilità di aggiustare non solo le economie povere del sud del mondo, ma anche le economie in crisi del nord del mondo. In pratica, secondo questa tesi, i fondi per la cooperazione e lo sviluppo dovrebbero essere finalizzati all'export del paese che aiuta. Quinta fase, anni novanta: la cooperazione come sicurezza cooperazione come sicurezza è il titolo, il nuovo nome, dato alla cooperazione dall'ex ministro degli esteri italiano gianni de michelis. In una importantissima conferenza internazionale sullo sviluppo (roma 17-19 ottobre 1991) si parla di assoluta necessità/obbligatorietà della cooperazione: la cooperazione è la forma nuova che può assumere la ricerca di sicurezza. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>(e ruolo delle ong) per cooperazione decentrata o decentralizzata (cd) s’intende un "nuovo approccio", un "nuovo strumento" o una "nuova forma" della cooperazione allo sviluppo e dei rapporti internazionali tra i popoli. La cd pone l’accento sul nuovo ruolo degli enti locali e della società civile organizzata (associazioni, università, scuole, associazioni di categoria, settori privati, imprese, fondazioni..) per lo sviluppo di politiche di cooperazione, appunto, "decentralizzate" e riconosce uguale dignità e responsabilità alle comunità coinvolte al sud come al nord fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -3308,19 +3308,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1000140</v>
+        <v>1000139</v>
       </c>
       <c r="C141" t="n">
-        <v>3000140</v>
+        <v>3000139</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Corridoio Ecologico</t>
+          <t>Cooperazione Internazionale (Allo Sviluppo)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Il corridoio ecologico è un elemento del paesaggio che connette due o più macchie di habitat naturale. Esso funge da habitat e da canale per lo spostamento di animali e di spore e da zona attraverso la quale avviene lo scambio genetico tra le popolazioni. Sono esempi di corridoi ecologici le fasce arboree ed arbustive che circondano i margini dei terreni coltivati, i sistemi ripari ovvero la vegetazione delle fasce di pertinenza fluviale, le fasce arboree ed arbustive legate ad infrastrutture lineari (strade, ferrovie, canali artificiali) ed i corridoi lineari di vegetazione erbacea entro matrici boscate. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
+          <t>Per "cooperazione internazionale" si intende l'insieme di operazioni di aiuto che qualcuno (ad esempio i paesi ricchi o i paesi industrializzati dell'ocse) mette in atto nei confronti dei paesi definiti "in via di sviluppo". Questo tipo di cooperazione è intesa come "cooperazione allo sviluppo" o "cooperazione con i paesi in via di sviluppo" o "aiuto pubblico ai pvs". La cooperazione internazionale nasce nel secondo dopoguerra e passa attraverso cinque fasi: prima fase, immediatamente dopo la ii guerra mondiale, fino agli inizi degli anni cinquanta: la motivazione politico-ideale. La fine della ii guerra mondiale porta con sé la consapevolezza che l'umanità andava considerata nel suo complesso, come un tutto che richiedeva, di conseguenza, un governo globale dei conflitti e dei problemi. Segue anche una grande spinta "ideale" che si ispira alla possibilità di costruire un "nuovo" mondo. La nascita dell'onu (1945), la dichiarazione universale dei diritti dell'uomo (1948, ed i successivi convenants del 1966) costituiscono la base dello strumento multilaterale della cooperazione. Su questa spinta nascono le agenzie dell'onu (fao, oms, unicef, ecc.) che sottolineano l'aspetto ideale della cooperazione e si fondano su motivi di solidarietà, interdipendenza e coscienza più ampia del "bene comune" allargato a tutta l'umanità e non più riferito solo ai singoli popoli e alla loro semplice sommatoria. Tutti motivi che postulavano e postulano il superamento del concetto di stato-nazione come concetto di riferimento al fine di un'applicazione a livello mondiale dei principi della giustizia distributiva e legale. Seconda fase, anni cinquanta: la motivazione politico-economica nel 1949 la cooperazione assume un nuovo aspetto. Il 20 gennaio del '49 il presidente degli usa truman tiene al congresso un discorso fondamentale. Gli usa si pongono ad esempio per i paesi in "ritardo" nello sviluppo. E si autonominano "maestri" di sviluppo e quindi di cooperazione. Terza fase, anni sessanta: la motivazione etico-sociale. Negli anni sessanta si realizza per la maggior parte dei paesi coloniali il processo di decolonizzazione: è proprio nel 1960 che moltissimi paesi/colonie raggiungono l'indipendenza. È anche il momento in cui le società civili del nord del mondo si fanno carico in maniera più incisiva del problema della cooperazione tra paesi. Anche in italia, a fronte della pressione della società civile, viene approvata una legge sulla cooperazione, nascono le prime organizzazioni non governative, esce la populorum progressio (1968). Vi è una forte tensione che viene appunto definita etico-sociale. Ad esempio, la populorum progressio definendo "lo sviluppo" come "nuovo nome della pace" riassume con chiarezza il paradigma concettuale che si va facendo strada e fonda il cosiddetto "dovere di solidarietà" motivato a sua volta dalla considerazione del "bene comune dell'umanità", di tutta l'umanità. Quarta fase, dagli anni settanta: la cooperazione come marketing "le imprese americane dipendono sempre più dalle materie prime dei paesi sottosviluppati. Inoltre queste imprese hanno bisogno dei mercati dei paesi sottosviluppati. Da ultimo questi paesi offrono possibilità di investimenti produttivi per la tecnologia ed il capitale statunitense". Così si possono riassumere, con collins e lappè, le tre motivazioni dell'aiuto in favore dei paesi in via di sviluppo da parte degli usa. La cooperazione diventa uno degli strumenti di penetrazione e controllo dei mercati mondiali. Anche elaborazioni lodevoli, quali ad esempio il rapporto brandt (1980), vedono nella cooperazione una delle possibilità di aggiustare non solo le economie povere del sud del mondo, ma anche le economie in crisi del nord del mondo. In pratica, secondo questa tesi, i fondi per la cooperazione e lo sviluppo dovrebbero essere finalizzati all'export del paese che aiuta. Quinta fase, anni novanta: la cooperazione come sicurezza cooperazione come sicurezza è il titolo, il nuovo nome, dato alla cooperazione dall'ex ministro degli esteri italiano gianni de michelis. In una importantissima conferenza internazionale sullo sviluppo (roma 17-19 ottobre 1991) si parla di assoluta necessità/obbligatorietà della cooperazione: la cooperazione è la forma nuova che può assumere la ricerca di sicurezza. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -3329,19 +3329,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1000141</v>
+        <v>1000140</v>
       </c>
       <c r="C142" t="n">
-        <v>3000141</v>
+        <v>3000140</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Costi Ambientali</t>
+          <t>Corridoio Ecologico</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Rappresentano tutti i costi associati alle misure adottate dall’azienda (o da terzi per suo conto) per prevenire, ridurre e/o riparare i danni causati all’ambiente dalle attività operative ed anche tutti i costi sostenuti dall’azienda per la conservazione delle risorse rinnovabili e non rinnovabili. Riduzione del livello di benessere collettivo dovuto all’impatto di un progetto sull’ambiente. Generalmente di difficile quantificazione in quanto nasce dalla percezione privata di ciascun individuo. Il termine viene anche comunemente utilizzato per indicare semplicemente un peggioramento relativo a una o più componenti ambientali.</t>
+          <t>Il corridoio ecologico è un elemento del paesaggio che connette due o più macchie di habitat naturale. Esso funge da habitat e da canale per lo spostamento di animali e di spore e da zona attraverso la quale avviene lo scambio genetico tra le popolazioni. Sono esempi di corridoi ecologici le fasce arboree ed arbustive che circondano i margini dei terreni coltivati, i sistemi ripari ovvero la vegetazione delle fasce di pertinenza fluviale, le fasce arboree ed arbustive legate ad infrastrutture lineari (strade, ferrovie, canali artificiali) ed i corridoi lineari di vegetazione erbacea entro matrici boscate. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -3350,19 +3350,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1000142</v>
+        <v>1000141</v>
       </c>
       <c r="C143" t="n">
-        <v>3000142</v>
+        <v>3000141</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Costi Ambientali Nascosti</t>
+          <t>Costi Ambientali</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Costi diretti che generalmente vengono allocati a centri di costo differenti da quelli ambientali sebbene il motivo principale per il quale sono stati sostenuti sia di tipo ambientale e che vengono considerati "costi ambientali" solo dopo un processo di riclassificazione del bilancio</t>
+          <t>Rappresentano tutti i costi associati alle misure adottate dall’azienda (o da terzi per suo conto) per prevenire, ridurre e/o riparare i danni causati all’ambiente dalle attività operative ed anche tutti i costi sostenuti dall’azienda per la conservazione delle risorse rinnovabili e non rinnovabili. Riduzione del livello di benessere collettivo dovuto all’impatto di un progetto sull’ambiente. Generalmente di difficile quantificazione in quanto nasce dalla percezione privata di ciascun individuo. Il termine viene anche comunemente utilizzato per indicare semplicemente un peggioramento relativo a una o più componenti ambientali.</t>
         </is>
       </c>
     </row>
@@ -3371,19 +3371,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1000143</v>
+        <v>1000142</v>
       </c>
       <c r="C144" t="n">
-        <v>3000143</v>
+        <v>3000142</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Crescita Economica Zero</t>
+          <t>Costi Ambientali Nascosti</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Si tratta di un'ipotesi di sviluppo, ipotizzata da h.daly, economista ambientale della banca mondiale, che prevede uno sviluppo senza crescita, ovvero un miglioramento qualitativo senza un aumento quantitativo che ecceda la capacità dell'ambiente di rigenerare input di materia prima e assorbire output di rifiuti. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Costi diretti che generalmente vengono allocati a centri di costo differenti da quelli ambientali sebbene il motivo principale per il quale sono stati sostenuti sia di tipo ambientale e che vengono considerati "costi ambientali" solo dopo un processo di riclassificazione del bilancio</t>
         </is>
       </c>
     </row>
@@ -3392,19 +3392,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1000144</v>
+        <v>1000143</v>
       </c>
       <c r="C145" t="n">
-        <v>3000144</v>
+        <v>3000143</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cultura Ambientale</t>
+          <t>Crescita Economica Zero</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Cultura è l'intero complesso di conoscenze, conquiste, tecnologia, tradizioni, percezioni, costumi, valori ed altre capacità delle società e dell'individuo che collegano i comportamenti del passato a quelli del presente. La cultura influenza idee ed azioni di individui e gruppi e le interazioni tra questi e l'ambiente. In tal senso cultura ambientale è l'insieme delle conoscenze formali ed informali che accrescono la comprensione dei fenomeni ambientali e correggono i comportamenti umani tendenti alla distruzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Si tratta di un'ipotesi di sviluppo, ipotizzata da h.daly, economista ambientale della banca mondiale, che prevede uno sviluppo senza crescita, ovvero un miglioramento qualitativo senza un aumento quantitativo che ecceda la capacità dell'ambiente di rigenerare input di materia prima e assorbire output di rifiuti. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3413,19 +3413,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1000145</v>
+        <v>1000144</v>
       </c>
       <c r="C146" t="n">
-        <v>3000145</v>
+        <v>3000144</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Cultura E Civiltà</t>
+          <t>Cultura Ambientale</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Per cultura si intende un complesso quadro di valori e credenze che caratterizza (proviene da ed influenza) gli attori della comunità sociale, le loro decisioni ed azioni in un processo continuo teso ad affrontare, anticipare e gestire il cambiamento. La cultura si riferisce, quindi, ad una comunità, un gruppo, una nazione, ecc. Ed esprime la coesione di idee, valori, convinzioni, norme e modi di agire, condivisi dalle persone di tali sistemi organizzativi. Il concetto di "cultura" riguarda ormai anche un ecosistema. Esso può essere inteso come complesso modo di vita in continua evoluzione e con molteplicità di componenti ed interazioni, con diverse e costanti modalità di interscambio (interno ed esterno) dl "informazione, materia ed energia". In tal senso, un ecosistema esprime contenuti culturali che abbinano sia le componenti umane sia quelle non umane. Al concetto di civiltà si attribuisce un significato di maggiore universalità (globalizzazione). Valori provenienti da un paese possono, per esempio, divenire universali. Oggi, per civiltà si intende il processo di combinazione ed integrazione fra culture provenienti da comunità diverse con una sempre maggiore attenzione sui loro valori di riconciliazione fra umanità e natura (vedi sostenibilità e sviluppo sostenibile). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Cultura è l'intero complesso di conoscenze, conquiste, tecnologia, tradizioni, percezioni, costumi, valori ed altre capacità delle società e dell'individuo che collegano i comportamenti del passato a quelli del presente. La cultura influenza idee ed azioni di individui e gruppi e le interazioni tra questi e l'ambiente. In tal senso cultura ambientale è l'insieme delle conoscenze formali ed informali che accrescono la comprensione dei fenomeni ambientali e correggono i comportamenti umani tendenti alla distruzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3434,19 +3434,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1000146</v>
+        <v>1000145</v>
       </c>
       <c r="C147" t="n">
-        <v>3000146</v>
+        <v>3000145</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Danno Ambientale</t>
+          <t>Cultura E Civiltà</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Nella legislazione americana, dopo il superfund del 1986 e l’oil pollution act del 1990, si sono stabilite due diversi tipi di responsabilità per i rilasci di sostanze tossiche nell’ambiente naturale: il ripristino dei siti (il clean up) e la responsabilità residuale relativa al periodo successivo alla conclusione delle operazioni di ripristino ovvero quella collegata al danno arrecato alle risorse naturali. Praticamente i danni ambientali sono valutati ai costi di ripristino più il valore economico dei servizi ambientali perduti per effetto del danno. Se volessimo introdurre brevemente ai diversi metodi di calcolo del danno ambientale, potremmo affermare che questo può essere calcolato facendo riferimento a due diversi concetti: il danno inteso come mancato beneficio associato ai beni e/o servizi ambientali danneggiati; il danno inteso valutando i costi di tutela.</t>
+          <t>Per cultura si intende un complesso quadro di valori e credenze che caratterizza (proviene da ed influenza) gli attori della comunità sociale, le loro decisioni ed azioni in un processo continuo teso ad affrontare, anticipare e gestire il cambiamento. La cultura si riferisce, quindi, ad una comunità, un gruppo, una nazione, ecc. Ed esprime la coesione di idee, valori, convinzioni, norme e modi di agire, condivisi dalle persone di tali sistemi organizzativi. Il concetto di "cultura" riguarda ormai anche un ecosistema. Esso può essere inteso come complesso modo di vita in continua evoluzione e con molteplicità di componenti ed interazioni, con diverse e costanti modalità di interscambio (interno ed esterno) dl "informazione, materia ed energia". In tal senso, un ecosistema esprime contenuti culturali che abbinano sia le componenti umane sia quelle non umane. Al concetto di civiltà si attribuisce un significato di maggiore universalità (globalizzazione). Valori provenienti da un paese possono, per esempio, divenire universali. Oggi, per civiltà si intende il processo di combinazione ed integrazione fra culture provenienti da comunità diverse con una sempre maggiore attenzione sui loro valori di riconciliazione fra umanità e natura (vedi sostenibilità e sviluppo sostenibile). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -3455,19 +3455,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1000147</v>
+        <v>1000146</v>
       </c>
       <c r="C148" t="n">
-        <v>3000147</v>
+        <v>3000146</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Decentramento</t>
+          <t>Danno Ambientale</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Processo mediante il quale si trasferiscono potere, competenze e risorse dal governo centrale ad altre istituzioni dello stato più vicine alla popolazione e che posseggono autonomia amministrativa e legittimità proprie. É la forma di organizzazione amministrativa che, in termini generali, affida la realizzazione di alcune competenze ad organi che hanno con l´amministrazione centrale una relazione non gerarchica. É il trasferimento di funzioni, risorse e poteri da un ente centrale ad altro ente autonomo dello stato. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
+          <t>Nella legislazione americana, dopo il superfund del 1986 e l’oil pollution act del 1990, si sono stabilite due diversi tipi di responsabilità per i rilasci di sostanze tossiche nell’ambiente naturale: il ripristino dei siti (il clean up) e la responsabilità residuale relativa al periodo successivo alla conclusione delle operazioni di ripristino ovvero quella collegata al danno arrecato alle risorse naturali. Praticamente i danni ambientali sono valutati ai costi di ripristino più il valore economico dei servizi ambientali perduti per effetto del danno. Se volessimo introdurre brevemente ai diversi metodi di calcolo del danno ambientale, potremmo affermare che questo può essere calcolato facendo riferimento a due diversi concetti: il danno inteso come mancato beneficio associato ai beni e/o servizi ambientali danneggiati; il danno inteso valutando i costi di tutela.</t>
         </is>
       </c>
     </row>
@@ -3476,19 +3476,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1000148</v>
+        <v>1000147</v>
       </c>
       <c r="C149" t="n">
-        <v>3000148</v>
+        <v>3000147</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Decreto Ronchi</t>
+          <t>Decentramento</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Il decreto legislativo 5 febbraio 1997, n.22 emanato in attuazione delle direttive 91/156/cee sui rifiuti, 91/689/cee sui rifiuti pericolosi e 94/62/ce su gli imballaggi e sui rifiuti di imballaggio fonte: arpalazio</t>
+          <t>Processo mediante il quale si trasferiscono potere, competenze e risorse dal governo centrale ad altre istituzioni dello stato più vicine alla popolazione e che posseggono autonomia amministrativa e legittimità proprie. É la forma di organizzazione amministrativa che, in termini generali, affida la realizzazione di alcune competenze ad organi che hanno con l´amministrazione centrale una relazione non gerarchica. É il trasferimento di funzioni, risorse e poteri da un ente centrale ad altro ente autonomo dello stato. Fonte: http://www.mmc2000.net/villaggioglobale/biblio/glo.htmglo01</t>
         </is>
       </c>
     </row>
@@ -3497,19 +3497,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1000149</v>
+        <v>1000148</v>
       </c>
       <c r="C150" t="n">
-        <v>3000149</v>
+        <v>3000148</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Deforestazione</t>
+          <t>Decreto Ronchi</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Rapida distruzione delle foreste in molte zone del mondo, soprattutto ai tropici e in particolare nella foresta amazzonica per convertire il terreno a un uso non forestale; ne consegue l'impoverimento delle risorse naturali capaci di abbassare il tasso di anidride carbonica nell'aria: la combustione, spesso dolosa, delle foreste pluviali, produce infatti più anidride carbonica di quanta esse ne assorbano. La progressiva scomparsa di foreste e boschi aumenta il ritmo di erosione del suolo, e le specie animali che esse ospitavano rischiano l'estinzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Il decreto legislativo 5 febbraio 1997, n.22 emanato in attuazione delle direttive 91/156/cee sui rifiuti, 91/689/cee sui rifiuti pericolosi e 94/62/ce su gli imballaggi e sui rifiuti di imballaggio fonte: arpalazio</t>
         </is>
       </c>
     </row>
@@ -3518,19 +3518,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1000150</v>
+        <v>1000149</v>
       </c>
       <c r="C151" t="n">
-        <v>3000150</v>
+        <v>3000149</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Degrado Ambientale</t>
+          <t>Deforestazione</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Perdita dei caratteri originari delle strutture, degli elementi e delle relazioni fra le componenti dell'ecosistema, con conseguente impoverimento del flusso energetico e degli scambi materiali esistenti. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Rapida distruzione delle foreste in molte zone del mondo, soprattutto ai tropici e in particolare nella foresta amazzonica per convertire il terreno a un uso non forestale; ne consegue l'impoverimento delle risorse naturali capaci di abbassare il tasso di anidride carbonica nell'aria: la combustione, spesso dolosa, delle foreste pluviali, produce infatti più anidride carbonica di quanta esse ne assorbano. La progressiva scomparsa di foreste e boschi aumenta il ritmo di erosione del suolo, e le specie animali che esse ospitavano rischiano l'estinzione. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3539,19 +3539,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1000151</v>
+        <v>1000150</v>
       </c>
       <c r="C152" t="n">
-        <v>3000151</v>
+        <v>3000150</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Dematerializzazione</t>
+          <t>Degrado Ambientale</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>È un orientamento dell'economia che prevede di produrre la stessa "unità di servizio" con un quantitativo minore di materie e di materiali per produrre la stessa "unità di servizio",come previsto dagli aderenti alla dichiarazione di carnoules (club del fattore 10) fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Perdita dei caratteri originari delle strutture, degli elementi e delle relazioni fra le componenti dell'ecosistema, con conseguente impoverimento del flusso energetico e degli scambi materiali esistenti. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3560,19 +3560,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1000152</v>
+        <v>1000151</v>
       </c>
       <c r="C153" t="n">
-        <v>3000152</v>
+        <v>3000151</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Desertificazione</t>
+          <t>Dematerializzazione</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Processo di trasformazione in deserto di territori aridi o semiaridi dovuto principalmente a variazioni climatiche, deforestazione, a cattiva gestione o uso improprio dei territorio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>È un orientamento dell'economia che prevede di produrre la stessa "unità di servizio" con un quantitativo minore di materie e di materiali per produrre la stessa "unità di servizio",come previsto dagli aderenti alla dichiarazione di carnoules (club del fattore 10) fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3581,19 +3581,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1000153</v>
+        <v>1000152</v>
       </c>
       <c r="C154" t="n">
-        <v>3000153</v>
+        <v>3000152</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Design For Environment</t>
+          <t>Desertificazione</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>È un modo di progettare un prodotto tenendo conto, fin dalla fase di ideazione, della necessità di conservare le risorse naturali, ottimizzare il consumo di energia e di materia, favorire il disassemblaggio e la manutenzione, estendere la durata e minimizzare la produzione dei rifiuti e aumentare il riciclo e/o il recupero fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Processo di trasformazione in deserto di territori aridi o semiaridi dovuto principalmente a variazioni climatiche, deforestazione, a cattiva gestione o uso improprio dei territorio. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1000154</v>
+        <v>1000153</v>
       </c>
       <c r="C155" t="n">
-        <v>3000154</v>
+        <v>3000153</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Dichiarazione Ambientale (Per Il Sistema Di Gestione Ambientale Emas)</t>
+          <t>Design For Environment</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Documento pubblico, scritto in forma concisa e comprensibile, che l’azienda redige per comunicare, una volta ottenuta la certificazione emas, i seguenti elementi: a) attività del sito; b) problemi ambientali; c) dati quantitativi di emissioni e scarti; d) fattori di efficienza ambientale; e) politica, programmi e sistema di gestione dell’ambiente; f) scadenze; g) nome verificatore</t>
+          <t>È un modo di progettare un prodotto tenendo conto, fin dalla fase di ideazione, della necessità di conservare le risorse naturali, ottimizzare il consumo di energia e di materia, favorire il disassemblaggio e la manutenzione, estendere la durata e minimizzare la produzione dei rifiuti e aumentare il riciclo e/o il recupero fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3623,19 +3623,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1000155</v>
+        <v>1000154</v>
       </c>
       <c r="C156" t="n">
-        <v>3000155</v>
+        <v>3000154</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Dichiarazione Ambientale Di Prodotto</t>
+          <t>Dichiarazione Ambientale (Per Il Sistema Di Gestione Ambientale Emas)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>La dichiarazione ambientale di prodotto (epd - dap) basata sul modello iso 14025 è una dichiarazione volontaria sviluppata da un produttore, utilizzando uno strumento tipo lca che quantifica gli impatti ambientali che i propri prodotti o servizi causano durante il ciclo di vita.</t>
+          <t>Documento pubblico, scritto in forma concisa e comprensibile, che l’azienda redige per comunicare, una volta ottenuta la certificazione emas, i seguenti elementi: a) attività del sito; b) problemi ambientali; c) dati quantitativi di emissioni e scarti; d) fattori di efficienza ambientale; e) politica, programmi e sistema di gestione dell’ambiente; f) scadenze; g) nome verificatore</t>
         </is>
       </c>
     </row>
@@ -3644,19 +3644,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1000156</v>
+        <v>1000155</v>
       </c>
       <c r="C157" t="n">
-        <v>3000156</v>
+        <v>3000155</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Dichiarazione Di Rio (Sull'Ambiente E Lo Sviluppo)</t>
+          <t>Dichiarazione Ambientale Di Prodotto</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Dichiarazione approvata dalla conferenza delle nazioni unite sull'ambiente e lo sviluppo "eart summit" riunita a rio de janeiro dal 2 al 14 giugno 1992. - il documento si articola in 27 principi il terzo dei quali afferma che "il diritto allo sviluppo deve essere realizzato in modo da soddisfare equamente le esigenze relative all'ambiente ed allo sviluppo delle generazioni presenti e future". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>La dichiarazione ambientale di prodotto (epd - dap) basata sul modello iso 14025 è una dichiarazione volontaria sviluppata da un produttore, utilizzando uno strumento tipo lca che quantifica gli impatti ambientali che i propri prodotti o servizi causano durante il ciclo di vita.</t>
         </is>
       </c>
     </row>
@@ -3665,19 +3665,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1000157</v>
+        <v>1000156</v>
       </c>
       <c r="C158" t="n">
-        <v>3000157</v>
+        <v>3000156</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Dipendenza Energetica</t>
+          <t>Dichiarazione Di Rio (Sull'Ambiente E Lo Sviluppo)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Rapporto tra la quantità totale di energia importata e la quantità totale di energia consumata da un paese, espresso in fonti primarie. Dipende direttamente dall'entità delle risorse energetiche presenti in ogni singolo paese. Per l'italia il grado di dipendenza energetica è molto alto: importiamo infatti oltre l'80% dell'energia consumata fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Dichiarazione approvata dalla conferenza delle nazioni unite sull'ambiente e lo sviluppo "eart summit" riunita a rio de janeiro dal 2 al 14 giugno 1992. - il documento si articola in 27 principi il terzo dei quali afferma che "il diritto allo sviluppo deve essere realizzato in modo da soddisfare equamente le esigenze relative all'ambiente ed allo sviluppo delle generazioni presenti e future". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3686,19 +3686,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1000158</v>
+        <v>1000157</v>
       </c>
       <c r="C159" t="n">
-        <v>3000158</v>
+        <v>3000157</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Direttiva Habitat</t>
+          <t>Dipendenza Energetica</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Direttiva cee/ceea/ce n.43 del 21/05/1992: strumento legislativo mirato alla conservazione degli habitat naturali e seminaturali e della flora e della fauna selvatiche. L'obiettivo finale della direttiva è quello di creare una rete natura 2000 formato da aree zsc. Tale direttiva ha creato per la prima volta un quadro di riferimento per la conservazione della natura in tutti gli stati dell'unione europea. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Rapporto tra la quantità totale di energia importata e la quantità totale di energia consumata da un paese, espresso in fonti primarie. Dipende direttamente dall'entità delle risorse energetiche presenti in ogni singolo paese. Per l'italia il grado di dipendenza energetica è molto alto: importiamo infatti oltre l'80% dell'energia consumata fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -3707,19 +3707,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1000159</v>
+        <v>1000158</v>
       </c>
       <c r="C160" t="n">
-        <v>3000159</v>
+        <v>3000158</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Direttive Ue</t>
+          <t>Direttiva Habitat</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Atti emessi dalla commissione dell'unione europea, di solito relativi a problemi che possono creare situazioni di pericolosità per le persone o per l'ambiente, e sono di recepimento obbligatorio da parte degli stati membri. Ogni direttiva è vincolante per gli obiettivi che si prefigge ma lascia alle autorità nazionali la scelta dei modi e delle forme della sua applicazione. La commissione controlla la sua adozione da parte degli stati membri, che possono essere deferiti alla corte di giustizia nel caso di mancata ottemperanza. Secondo il "nuovo approccio" cee (1985) le direttive stabiliscono i requisiti essenziali cui il prodotto o servizio deve adeguarsi e demandano al cen l'emanazione delle specifiche tecniche relative. Esse sono notificate a coloro ai quali sono destinate ed hanno effetto nel momento della notifica. Tutte le direttive sono pubblicate sulla gazzetta ufficiale della cee serie "l". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Direttiva cee/ceea/ce n.43 del 21/05/1992: strumento legislativo mirato alla conservazione degli habitat naturali e seminaturali e della flora e della fauna selvatiche. L'obiettivo finale della direttiva è quello di creare una rete natura 2000 formato da aree zsc. Tale direttiva ha creato per la prima volta un quadro di riferimento per la conservazione della natura in tutti gli stati dell'unione europea. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3728,19 +3728,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1000160</v>
+        <v>1000159</v>
       </c>
       <c r="C161" t="n">
-        <v>3000160</v>
+        <v>3000159</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Dismissione</t>
+          <t>Direttive Ue</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>L'insieme delle operazioni necessarie per la cessazione delle attività produttive di un impianto o di un'area industriale. Si suddivide generalmente in tre fasi: messa in sicurezza delle componenti; smantellamento e rimozione delle apparecchiature e delle struttura; ripristino del suolo. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Atti emessi dalla commissione dell'unione europea, di solito relativi a problemi che possono creare situazioni di pericolosità per le persone o per l'ambiente, e sono di recepimento obbligatorio da parte degli stati membri. Ogni direttiva è vincolante per gli obiettivi che si prefigge ma lascia alle autorità nazionali la scelta dei modi e delle forme della sua applicazione. La commissione controlla la sua adozione da parte degli stati membri, che possono essere deferiti alla corte di giustizia nel caso di mancata ottemperanza. Secondo il "nuovo approccio" cee (1985) le direttive stabiliscono i requisiti essenziali cui il prodotto o servizio deve adeguarsi e demandano al cen l'emanazione delle specifiche tecniche relative. Esse sono notificate a coloro ai quali sono destinate ed hanno effetto nel momento della notifica. Tutte le direttive sono pubblicate sulla gazzetta ufficiale della cee serie "l". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3749,19 +3749,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1000161</v>
+        <v>1000160</v>
       </c>
       <c r="C162" t="n">
-        <v>3000161</v>
+        <v>3000160</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Dissesti Idrogeologici</t>
+          <t>Dismissione</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Frane, smottamenti, valanghe, alluvioni, erosioni, abbassame</t>
+          <t>L'insieme delle operazioni necessarie per la cessazione delle attività produttive di un impianto o di un'area industriale. Si suddivide generalmente in tre fasi: messa in sicurezza delle componenti; smantellamento e rimozione delle apparecchiature e delle struttura; ripristino del suolo. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3770,19 +3770,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1000162</v>
+        <v>1000161</v>
       </c>
       <c r="C163" t="n">
-        <v>3000162</v>
+        <v>3000161</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ecoaudit</t>
+          <t>Dissesti Idrogeologici</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Nato nel 1993, è un sistema comunitario volontario di ecogestione.il suo obiettivo? garantire la minimizzazione degli impatti ambientali nei processi industriali. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
+          <t>Frane, smottamenti, valanghe, alluvioni, erosioni, abbassame</t>
         </is>
       </c>
     </row>
@@ -3791,19 +3791,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1000163</v>
+        <v>1000162</v>
       </c>
       <c r="C164" t="n">
-        <v>3000163</v>
+        <v>3000162</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ecodesign</t>
+          <t>Ecoaudit</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Riprogettazione del prodotto in modo che causi il minor danno possibile all'ambiente durante la produzione, l'uso e lo smaltimento. Forma unica versus standard, produzione artigianale contro serializzazione. Questo è il succo dell'ecodesign, filosofia creativa che reinterpreta i valori dell'artigianato tradizionale, come la durevolezza, la praticità, l'uso economico dei materiali e la creazione di forme uniche. Fonti: http://www.ecoeconomisti.it/ecoglossario.html http://www.agricolturabiologicaitaliana.it/ ecoefficienza orientamento strategico che consente ad un'impresa che investe nella riduzione degli impatti sull'ambiente di superare i fattori penalizzanti (iniziale aumento dei costi, adeguamenti tecnologici etc...) trasformandoli in occasioni di aumento della profittabilità e competitività dall'azienda. Il significato del termine ecoefficienza può essere fatto risalire alla riformulazione del concetto stesso di efficienza proposta da e. U. Von weiszäcker, a. B. Lovins e l. H. Lovins nel volume fattore 4 (edizioni ambiente, 1998). Qui, per efficienza si intende ciò che consente di scindere il benessere dell'umanità dal consumo di risorse. Secondo gli autori, migliorando e calibrando l'efficienza - attraverso una serie di tecniche e metodologie già oggi disponibili - si può arrivare rapidamente a un utilizzo più razionale delle risorse, con benefici ambientali, sociali ed economici. L'ecoefficienza si basa su 4 principi scientifici: 1) le risorse "rinnovabili" non devono essere sfruttate oltre la loro naturale capacità di rigenerazione; 2) la velocità di sfruttamento delle risorse non rinnovabili non deve essere più alta di quella relativa allo sviluppo di risorse sostitutive, ottenibili attraverso il progresso tecnologico; 3) la produzione dei rifiuti ed il loro rilascio nell'ambiente devono procedere a ritmi uguali o inferiori a quelli di una chiaramente dimostrata e controllata capacità di assimilazione da parte dell'ambiente stesso; 4) devono essere mantenuti i servizi di sostegno all'ambiente (per esempio, la diversità genetica e la regolamentazione climatica). Fonti: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce http://www.srseuropa.it/mat_for/gloframe.htm http://www.ecoeconomisti.it/ecoglossario.html ecogestione per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell'impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell'impresa stessa. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Nato nel 1993, è un sistema comunitario volontario di ecogestione.il suo obiettivo? garantire la minimizzazione degli impatti ambientali nei processi industriali. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
         </is>
       </c>
     </row>
@@ -3812,19 +3812,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1000164</v>
+        <v>1000163</v>
       </c>
       <c r="C165" t="n">
-        <v>3000164</v>
+        <v>3000163</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ecodumping</t>
+          <t>Ecodesign</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Uno dei modi in cui, teoricamente, le questioni ambientali possono incidere sull'andamento del commercio internazionale è rappresentato dalla praticva del cosiddetto "ecodumping", cioè dal trasferimento degli investimenti o delle attività in paesi in cui non esistono, o siano particolarmente ridotti, gli standard ambientali da rispettare nella produzione dei beni. A causa dell' ecodumping, le industrie che operano in paesi con basso standard ambientali godrebbero di un vantaggio competitivo e la migrazione industriale verso "i paradisi dell'inquinamento" causerebbero uno spostamento degli investimenti esteri diretti e dei posti di lavoro dai paesi con alti livelli di controllo a quelli con bassi standard ambientali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Riprogettazione del prodotto in modo che causi il minor danno possibile all'ambiente durante la produzione, l'uso e lo smaltimento. Forma unica versus standard, produzione artigianale contro serializzazione. Questo è il succo dell'ecodesign, filosofia creativa che reinterpreta i valori dell'artigianato tradizionale, come la durevolezza, la praticità, l'uso economico dei materiali e la creazione di forme uniche. Fonti: http://www.ecoeconomisti.it/ecoglossario.html http://www.agricolturabiologicaitaliana.it/ ecoefficienza orientamento strategico che consente ad un'impresa che investe nella riduzione degli impatti sull'ambiente di superare i fattori penalizzanti (iniziale aumento dei costi, adeguamenti tecnologici etc...) trasformandoli in occasioni di aumento della profittabilità e competitività dall'azienda. Il significato del termine ecoefficienza può essere fatto risalire alla riformulazione del concetto stesso di efficienza proposta da e. U. Von weiszäcker, a. B. Lovins e l. H. Lovins nel volume fattore 4 (edizioni ambiente, 1998). Qui, per efficienza si intende ciò che consente di scindere il benessere dell'umanità dal consumo di risorse. Secondo gli autori, migliorando e calibrando l'efficienza - attraverso una serie di tecniche e metodologie già oggi disponibili - si può arrivare rapidamente a un utilizzo più razionale delle risorse, con benefici ambientali, sociali ed economici. L'ecoefficienza si basa su 4 principi scientifici: 1) le risorse "rinnovabili" non devono essere sfruttate oltre la loro naturale capacità di rigenerazione; 2) la velocità di sfruttamento delle risorse non rinnovabili non deve essere più alta di quella relativa allo sviluppo di risorse sostitutive, ottenibili attraverso il progresso tecnologico; 3) la produzione dei rifiuti ed il loro rilascio nell'ambiente devono procedere a ritmi uguali o inferiori a quelli di una chiaramente dimostrata e controllata capacità di assimilazione da parte dell'ambiente stesso; 4) devono essere mantenuti i servizi di sostegno all'ambiente (per esempio, la diversità genetica e la regolamentazione climatica). Fonti: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce http://www.srseuropa.it/mat_for/gloframe.htm http://www.ecoeconomisti.it/ecoglossario.html ecogestione per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell'impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell'impresa stessa. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3833,19 +3833,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1000165</v>
+        <v>1000164</v>
       </c>
       <c r="C166" t="n">
-        <v>3000165</v>
+        <v>3000164</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ecogestione</t>
+          <t>Ecodumping</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell’impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell’impresa stessa.</t>
+          <t>Uno dei modi in cui, teoricamente, le questioni ambientali possono incidere sull'andamento del commercio internazionale è rappresentato dalla praticva del cosiddetto "ecodumping", cioè dal trasferimento degli investimenti o delle attività in paesi in cui non esistono, o siano particolarmente ridotti, gli standard ambientali da rispettare nella produzione dei beni. A causa dell' ecodumping, le industrie che operano in paesi con basso standard ambientali godrebbero di un vantaggio competitivo e la migrazione industriale verso "i paradisi dell'inquinamento" causerebbero uno spostamento degli investimenti esteri diretti e dei posti di lavoro dai paesi con alti livelli di controllo a quelli con bassi standard ambientali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -3854,19 +3854,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1000166</v>
+        <v>1000165</v>
       </c>
       <c r="C167" t="n">
-        <v>3000166</v>
+        <v>3000165</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Eco-Innovatori</t>
+          <t>Ecogestione</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aziende che presentano un grande potenziale innovativo in relazione ai prodotti/servizi erogati ad alta efficienza ecologica. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Per ecogestione o gestione ambientale si intende la parte del sistema di gestione complessivo dell’impresa che comprende la struttura organizzativa, la responsabilità, le prassi, le procedure, i processi e le risorse per definire e attuare la politica ambientale dell’impresa stessa.</t>
         </is>
       </c>
     </row>
@@ -3875,19 +3875,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1000167</v>
+        <v>1000166</v>
       </c>
       <c r="C168" t="n">
-        <v>3000167</v>
+        <v>3000166</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Eco-Labelling</t>
+          <t>Eco-Innovatori</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Insieme delle procedure introdotte in ambito europeo del regolamento comunitario n. 880/92, consistenti nel contrassegnare con un logo specifico i prodotti caratterizzati da un limitato impatto ambientale. Il logo viene assegnato a quei prodotti che soddisfano uno specifico insieme di criteri ecologici. Finora hanno ottenuto l’ecolabel comunitario alcuni prodotti nei settori dei detergenti, lavatrici, vernici ecc.. Poiché l’ecolabel è un simbolo che evidenzia le favorevoli prestazioni ambientali di un prodotto (ad esempio, il contenere un minor quantitativo di un determinato inquinante) rispetto ai suoi concorrenti, le imprese se ne avvalgono per orientare i consumatori all’acquisto di beni più rispettosi dell’ambiente.</t>
+          <t>Aziende che presentano un grande potenziale innovativo in relazione ai prodotti/servizi erogati ad alta efficienza ecologica. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -3896,19 +3896,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1000168</v>
+        <v>1000167</v>
       </c>
       <c r="C169" t="n">
-        <v>3000168</v>
+        <v>3000167</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Eco-Leader</t>
+          <t>Eco-Labelling</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aziende che all'interno del loro settore produttivo raggiungono le migliori performance ambientali. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Insieme delle procedure introdotte in ambito europeo del regolamento comunitario n. 880/92, consistenti nel contrassegnare con un logo specifico i prodotti caratterizzati da un limitato impatto ambientale. Il logo viene assegnato a quei prodotti che soddisfano uno specifico insieme di criteri ecologici. Finora hanno ottenuto l’ecolabel comunitario alcuni prodotti nei settori dei detergenti, lavatrici, vernici ecc.. Poiché l’ecolabel è un simbolo che evidenzia le favorevoli prestazioni ambientali di un prodotto (ad esempio, il contenere un minor quantitativo di un determinato inquinante) rispetto ai suoi concorrenti, le imprese se ne avvalgono per orientare i consumatori all’acquisto di beni più rispettosi dell’ambiente.</t>
         </is>
       </c>
     </row>
@@ -3917,19 +3917,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1000169</v>
+        <v>1000168</v>
       </c>
       <c r="C170" t="n">
-        <v>3000169</v>
+        <v>3000168</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ecologia</t>
+          <t>Eco-Leader</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Dal greco òikos = casa ( luogo in cui si abita ) e lògos = studio - studio dell'ambiente. Scienza che studia l'insieme delle interrelazioni con l'ambiente da parte degli organismi vegetali e animali (haeckel, 1866); recentemente le tematiche di ecologia sono state estese anche all'uomo, con particolare riferimento all'influenza che le variazioni climatiche, ambientali ecc. (comprese quelle indotte dall'uomo) esercitano sull'uomo, sugli animali e sulle piante. Nell'accezione contemporanea indica lo studio interdisciplinare delle problematiche ambientali e la ricerca delle possibili modalità di recupero degli squilibri. Ecologia non è quindi solo protezione della natura o studio dell'inquinamento! si occupa fondamentalmente dei rapporti che legano gli esseri viventi, uomo compreso, all'ambiente che li circonda e richiede il contributo di molte scienze (geografia, botanica, zoologia, biologia, biochimica, medicina, antropologia, etc.) fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Aziende che all'interno del loro settore produttivo raggiungono le migliori performance ambientali. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -3938,19 +3938,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1000170</v>
+        <v>1000169</v>
       </c>
       <c r="C171" t="n">
-        <v>3000170</v>
+        <v>3000169</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ecologia Domestica</t>
+          <t>Ecologia</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Si interessa degli equilibri ecologici e dei rapporti tra casa ed abitanti, delle possibili fonti di inquinamento interne e degli influssi che i comportamenti domestici determinano sull'ambiente esterno. La casa è un ecosistema artificiale di piccole dimensioni, per le cui analisi è possibile utilizzare i principi riferibili ad un ecosistema naturale. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
+          <t>Dal greco òikos = casa ( luogo in cui si abita ) e lògos = studio - studio dell'ambiente. Scienza che studia l'insieme delle interrelazioni con l'ambiente da parte degli organismi vegetali e animali (haeckel, 1866); recentemente le tematiche di ecologia sono state estese anche all'uomo, con particolare riferimento all'influenza che le variazioni climatiche, ambientali ecc. (comprese quelle indotte dall'uomo) esercitano sull'uomo, sugli animali e sulle piante. Nell'accezione contemporanea indica lo studio interdisciplinare delle problematiche ambientali e la ricerca delle possibili modalità di recupero degli squilibri. Ecologia non è quindi solo protezione della natura o studio dell'inquinamento! si occupa fondamentalmente dei rapporti che legano gli esseri viventi, uomo compreso, all'ambiente che li circonda e richiede il contributo di molte scienze (geografia, botanica, zoologia, biologia, biochimica, medicina, antropologia, etc.) fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -3959,19 +3959,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1000171</v>
+        <v>1000170</v>
       </c>
       <c r="C172" t="n">
-        <v>3000171</v>
+        <v>3000170</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ecologia Industriale</t>
+          <t>Ecologia Domestica</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Area di ricerca che, attraverso l'analogia tra funzionamento dell'ecosistema e del sistema industriale, estende a quest'ultimo i principi cardine dell'ecologia. La nascita dell'ecologia industriale si deve all'emergere di una strategia specifica per ridurre gli impatti antropici sulle risorse naturali prendendo a modello i fenomeni di riciclizzazione della materia presenti negli ecosistemi. Per affrontare i problemi ambientali connessi alla produzione industriale occorre considerare il sistema industriale come un sistema interconnesso di produzione e consumo,esaminando come questo genera scorie e inquinanti che danneggiano l'ambiente. Si tratta in particolare di esaminare se esista qualche modo per porre in interazione reciproca processi industriali differenti che producono rifiuti e, in particolar modo, rifiuti pericolosi. Mentre gli approcci tradizionali al management ambientale sono incentrati sui processi produttivi o sui siti industriali, l'ecologia industriale utilizza un approccio sistemico; potrebbe, infatti, non essere opportuno minimizzare i rifiuti di una particolare fabbrica o industria, ma si dovrebbe agire per minimizzare i rifiuti dell'attività industriale nel suo complesso. L'obiettivo dell'ecologia industriale è quello di modificare l'attività umana per ridurre le caratteristiche dissipative; a tal fine sarà il concetto stesso di "scarto" ad essere considerato in una visione sistemica fino alla sua riconsiderazione in qualità di prodotto intermedio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Si interessa degli equilibri ecologici e dei rapporti tra casa ed abitanti, delle possibili fonti di inquinamento interne e degli influssi che i comportamenti domestici determinano sull'ambiente esterno. La casa è un ecosistema artificiale di piccole dimensioni, per le cui analisi è possibile utilizzare i principi riferibili ad un ecosistema naturale. Fonte: http://www.naturanetwork.it/u_gloss.asp</t>
         </is>
       </c>
     </row>
@@ -3980,19 +3980,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1000172</v>
+        <v>1000171</v>
       </c>
       <c r="C173" t="n">
-        <v>3000172</v>
+        <v>3000171</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Economia Sostenibile</t>
+          <t>Ecologia Industriale</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Insieme di strumenti e di politiche per ridurre il consumo di risorse naturali, favorire attività produttive più compatibili con l'ambiente (che producono minori impatti), migliorare le condizioni sociali, rendere più facilmente disponibili risorse economiche e finanziarie anche a soggetti deboli, ecc. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Area di ricerca che, attraverso l'analogia tra funzionamento dell'ecosistema e del sistema industriale, estende a quest'ultimo i principi cardine dell'ecologia. La nascita dell'ecologia industriale si deve all'emergere di una strategia specifica per ridurre gli impatti antropici sulle risorse naturali prendendo a modello i fenomeni di riciclizzazione della materia presenti negli ecosistemi. Per affrontare i problemi ambientali connessi alla produzione industriale occorre considerare il sistema industriale come un sistema interconnesso di produzione e consumo,esaminando come questo genera scorie e inquinanti che danneggiano l'ambiente. Si tratta in particolare di esaminare se esista qualche modo per porre in interazione reciproca processi industriali differenti che producono rifiuti e, in particolar modo, rifiuti pericolosi. Mentre gli approcci tradizionali al management ambientale sono incentrati sui processi produttivi o sui siti industriali, l'ecologia industriale utilizza un approccio sistemico; potrebbe, infatti, non essere opportuno minimizzare i rifiuti di una particolare fabbrica o industria, ma si dovrebbe agire per minimizzare i rifiuti dell'attività industriale nel suo complesso. L'obiettivo dell'ecologia industriale è quello di modificare l'attività umana per ridurre le caratteristiche dissipative; a tal fine sarà il concetto stesso di "scarto" ad essere considerato in una visione sistemica fino alla sua riconsiderazione in qualità di prodotto intermedio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4001,19 +4001,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1000173</v>
+        <v>1000172</v>
       </c>
       <c r="C174" t="n">
-        <v>3000173</v>
+        <v>3000172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ecosistema Antropico</t>
+          <t>Economia Sostenibile</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Complesso ecologico formato dall'uso del suolo, dalla mobilità e dalle componenti socioeconomiche dell'ambiente. In termini generici l'ambiente che coinvolge direttamente l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Insieme di strumenti e di politiche per ridurre il consumo di risorse naturali, favorire attività produttive più compatibili con l'ambiente (che producono minori impatti), migliorare le condizioni sociali, rendere più facilmente disponibili risorse economiche e finanziarie anche a soggetti deboli, ecc. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -4022,19 +4022,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1000174</v>
+        <v>1000173</v>
       </c>
       <c r="C175" t="n">
-        <v>3000174</v>
+        <v>3000173</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ecosistema Naturale</t>
+          <t>Ecosistema Antropico</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Unità che include tutti gli organismi che vivono insieme in una data area, interagenti con l'ambiente fisico, in modo tale che un flusso di energia porta a una ben definita struttura biotica e ad una ciclizzazione dei materiali tra viventi e non viventi all'interno del sistema. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Complesso ecologico formato dall'uso del suolo, dalla mobilità e dalle componenti socioeconomiche dell'ambiente. In termini generici l'ambiente che coinvolge direttamente l'uomo. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4043,19 +4043,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1000175</v>
+        <v>1000174</v>
       </c>
       <c r="C176" t="n">
-        <v>3000175</v>
+        <v>3000174</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ecosistema O Sistema Ecologico</t>
+          <t>Ecosistema Naturale</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Indica un particolare ambiente e tutti gli esseri viventi e non viventi che lo popolane. E'' l'unità funzionale di base in ecologia ed è composta da una comunità di esseri viventi (componente biotica) e non viventi (componente abiotica), dai flussi di energia e dalle loro interazioni. Si parla, oltre che di ecosistemi naturali, anche di "ecosistemi artificiali", ovvero quelli prodotti dall'attività umana.. Il concetto di ecosistema è funzionale alla possibilità di eseguire degli studi per capire il funzionamento dei complessi processi biologici. In realtà i limiti di un ecosistema sfumano normalmente in quelli di un altro e gran parte degli organismi possono far parte di ecosistemi diversi in momenti diversi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Unità che include tutti gli organismi che vivono insieme in una data area, interagenti con l'ambiente fisico, in modo tale che un flusso di energia porta a una ben definita struttura biotica e ad una ciclizzazione dei materiali tra viventi e non viventi all'interno del sistema. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4064,19 +4064,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1000176</v>
+        <v>1000175</v>
       </c>
       <c r="C177" t="n">
-        <v>3000176</v>
+        <v>3000175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ecosviluppo</t>
+          <t>Ecosistema O Sistema Ecologico</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Secondo l'unep (united nation environment program) si tratta di uno sviluppo basato sulla sostenibilità ambientale che tiene conto dei bisogni umani fondamentali (basic needs) e della capacità di basarsi sulle risorse locali e sull'autorganizzazione (self-reliance)."uno sviluppo endogeno e basato sulle proprie forze (self-reliant); sottomesso alla logica dei bisogni dell'intera popolazione e non della produzione elevata a fine in sé, e finalmente cosciente della propria dimensione ecologica e alla ricerca di un'armonia tra uomo e natura" (assemblea generale delle nazioni unite 1975). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Indica un particolare ambiente e tutti gli esseri viventi e non viventi che lo popolane. E'' l'unità funzionale di base in ecologia ed è composta da una comunità di esseri viventi (componente biotica) e non viventi (componente abiotica), dai flussi di energia e dalle loro interazioni. Si parla, oltre che di ecosistemi naturali, anche di "ecosistemi artificiali", ovvero quelli prodotti dall'attività umana.. Il concetto di ecosistema è funzionale alla possibilità di eseguire degli studi per capire il funzionamento dei complessi processi biologici. In realtà i limiti di un ecosistema sfumano normalmente in quelli di un altro e gran parte degli organismi possono far parte di ecosistemi diversi in momenti diversi. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4085,19 +4085,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1000177</v>
+        <v>1000176</v>
       </c>
       <c r="C178" t="n">
-        <v>3000177</v>
+        <v>3000176</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ecovillaggi</t>
+          <t>Ecosviluppo</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Associazioni definite come "piccole comunità rurali o urbane che integrano una struttura sociale basata sulla solidarietà con attività pratiche legate alla progettazione ecologica. Sono modelli insediativi che cercano di proteggere i sistemi viventi del pianeta, di incoraggiare la crescita personale e di sperimentare stili di vita che facilitino l'armonia tra gli esseri umani e la natura." (definizione offerta dal gen, snyder, 1999). Fonte: http://www.buildlab.com/article/33</t>
+          <t>Secondo l'unep (united nation environment program) si tratta di uno sviluppo basato sulla sostenibilità ambientale che tiene conto dei bisogni umani fondamentali (basic needs) e della capacità di basarsi sulle risorse locali e sull'autorganizzazione (self-reliance)."uno sviluppo endogeno e basato sulle proprie forze (self-reliant); sottomesso alla logica dei bisogni dell'intera popolazione e non della produzione elevata a fine in sé, e finalmente cosciente della propria dimensione ecologica e alla ricerca di un'armonia tra uomo e natura" (assemblea generale delle nazioni unite 1975). Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4106,19 +4106,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1000178</v>
+        <v>1000177</v>
       </c>
       <c r="C179" t="n">
-        <v>3000178</v>
+        <v>3000177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Educazione Ambientale</t>
+          <t>Ecovillaggi</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Processo educativo orientato ad approfondire le conoscenze delle interazioni uomo-ambiente, utilizzando una prospettiva interdisciplinare ed un approccio di problematizzazione e ricerca di soluzione degli aspetti rilevanti e critici che derivano da tali interazioni. Concerne il progresso delle conoscenze e delle azioni miranti ad un'integrazione sempre più adeguata dei soggetti e dei gruppi sociali al contesto ambientale ,preoccupandosi della salvaguardia e dell'uso delle risorse. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Associazioni definite come "piccole comunità rurali o urbane che integrano una struttura sociale basata sulla solidarietà con attività pratiche legate alla progettazione ecologica. Sono modelli insediativi che cercano di proteggere i sistemi viventi del pianeta, di incoraggiare la crescita personale e di sperimentare stili di vita che facilitino l'armonia tra gli esseri umani e la natura." (definizione offerta dal gen, snyder, 1999). Fonte: http://www.buildlab.com/article/33</t>
         </is>
       </c>
     </row>
@@ -4127,19 +4127,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1000179</v>
+        <v>1000178</v>
       </c>
       <c r="C180" t="n">
-        <v>3000179</v>
+        <v>3000178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Effetti A Breve O A Lungo Termine</t>
+          <t>Educazione Ambientale</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Conseguenze sull'ambiente derivanti dalla realizzazione di un'opera (ad esempio stabilimento industriale, ferrovie ecc..), registrabili a distanza di poco (settimane, mesi) o molto tempo (anni). Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Processo educativo orientato ad approfondire le conoscenze delle interazioni uomo-ambiente, utilizzando una prospettiva interdisciplinare ed un approccio di problematizzazione e ricerca di soluzione degli aspetti rilevanti e critici che derivano da tali interazioni. Concerne il progresso delle conoscenze e delle azioni miranti ad un'integrazione sempre più adeguata dei soggetti e dei gruppi sociali al contesto ambientale ,preoccupandosi della salvaguardia e dell'uso delle risorse. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4148,19 +4148,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1000180</v>
+        <v>1000179</v>
       </c>
       <c r="C181" t="n">
-        <v>3000180</v>
+        <v>3000179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Effetti Ambientali</t>
+          <t>Effetti A Breve O A Lungo Termine</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Cambiamenti nell’ambiente, sia positivi che negativi, causati dalle attività, prodotti e/o processi di una data organizzazione. Possono essere distinti in effetti interni (riconducibili cioè alle attività svolte all’interno del perimetro del sito) ed effetti esterni (causati dalle attività svolte al di fuori del perimetro del sito, per effetto della presenza del sito stesso, come ad esempio l’emissione di inquinanti atmosferici associati alla movimentazione delle merci, persone e prodotti).</t>
+          <t>Conseguenze sull'ambiente derivanti dalla realizzazione di un'opera (ad esempio stabilimento industriale, ferrovie ecc..), registrabili a distanza di poco (settimane, mesi) o molto tempo (anni). Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4169,19 +4169,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1000181</v>
+        <v>1000180</v>
       </c>
       <c r="C182" t="n">
-        <v>3000181</v>
+        <v>3000180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Effetti Ambientali Globali</t>
+          <t>Effetti Ambientali</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Si tratta di quegli effetti dell’attività economica che non si presentano su scala regionale o locale ma su scala globale, mondiale: effetto serra, eutrofizzazione delle acque, acidificazione delle piogge, riduzione dello strato di ozono. La risoluzione dei problemi globali non può che essere affrontata attraverso accordi di cooperazione internazionale.</t>
+          <t>Cambiamenti nell’ambiente, sia positivi che negativi, causati dalle attività, prodotti e/o processi di una data organizzazione. Possono essere distinti in effetti interni (riconducibili cioè alle attività svolte all’interno del perimetro del sito) ed effetti esterni (causati dalle attività svolte al di fuori del perimetro del sito, per effetto della presenza del sito stesso, come ad esempio l’emissione di inquinanti atmosferici associati alla movimentazione delle merci, persone e prodotti).</t>
         </is>
       </c>
     </row>
@@ -4190,19 +4190,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1000182</v>
+        <v>1000181</v>
       </c>
       <c r="C183" t="n">
-        <v>3000182</v>
+        <v>3000181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Effetto Fotovoltaico</t>
+          <t>Effetti Ambientali Globali</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Proprietà fisica di alcuni materiali semiconduttori (ad esempio il silicio, molto diffuso in natura) che, opportunamente trattati ed interfacciati, sono in grado di generare direttamente elettricità quando sono colpiti dalla radiazione solare. Ai fini industriali l'effetto fv viene sfruttato per mezzo di dispositivi detti celle fotovoltaiche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Si tratta di quegli effetti dell’attività economica che non si presentano su scala regionale o locale ma su scala globale, mondiale: effetto serra, eutrofizzazione delle acque, acidificazione delle piogge, riduzione dello strato di ozono. La risoluzione dei problemi globali non può che essere affrontata attraverso accordi di cooperazione internazionale.</t>
         </is>
       </c>
     </row>
@@ -4211,19 +4211,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1000183</v>
+        <v>1000182</v>
       </c>
       <c r="C184" t="n">
-        <v>3000183</v>
+        <v>3000182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Effetto Serra</t>
+          <t>Effetto Fotovoltaico</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Fenomeno fisico che provoca il riscaldamento all'interno delle serre, dovuto al fatto che il vetro (o i materiali plastici trasparenti) lascia entrare la luce visibile (radiazione solare ad onde corte) che colpisce il terreno, il quale riemette poi parte dell'energia ricevuta come radiazione infrarossa, che il vetro non lascia passare. Per similitudine è anche detto "effetto serra" il fenomeno di riscaldamento del pianeta dovuto al fatto che la superficie terrestre riemette verso lo spazio, sotto forma di radiazione infrarossa, parte del flusso di energia ricevuto dal sole; la radiazione infrarossa viene parzialmente assorbita da alcuni gas presenti nell'atmosfera (gas-serra) e da questi irradiata nuovamente verso la terra. L'effetto serra è un fenomeno naturale (ad esempio viene causato anche dal vapore acqueo e dall'ozono) che ritarda la dispersione di energia del pianeta instaurando una temperatura media (circa 15°c) ben maggiore di quella che si avrebbe in assenza di atmosfera (circa -18°c). L'attività umana sembra stia provocando una intensificazione del fenomeno a causa dell'aumento delle emissioni di gas-serra, con conseguente innalzamento della loro concentrazione in atmosfera; tuttavia, permangono incertezze sull'entità di tali effetti e sulla loro configurazione geografica e stagionale fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Proprietà fisica di alcuni materiali semiconduttori (ad esempio il silicio, molto diffuso in natura) che, opportunamente trattati ed interfacciati, sono in grado di generare direttamente elettricità quando sono colpiti dalla radiazione solare. Ai fini industriali l'effetto fv viene sfruttato per mezzo di dispositivi detti celle fotovoltaiche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4232,19 +4232,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1000184</v>
+        <v>1000183</v>
       </c>
       <c r="C185" t="n">
-        <v>3000184</v>
+        <v>3000183</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Efficienza Ambientale</t>
+          <t>Effetto Serra</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Il raggiungimento del massimo beneficio per ciascuna unità di risorsa utilizzata, limitando al massimo gli impatti ambientali ed i rifiuti prodotti. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
+          <t>Fenomeno fisico che provoca il riscaldamento all'interno delle serre, dovuto al fatto che il vetro (o i materiali plastici trasparenti) lascia entrare la luce visibile (radiazione solare ad onde corte) che colpisce il terreno, il quale riemette poi parte dell'energia ricevuta come radiazione infrarossa, che il vetro non lascia passare. Per similitudine è anche detto "effetto serra" il fenomeno di riscaldamento del pianeta dovuto al fatto che la superficie terrestre riemette verso lo spazio, sotto forma di radiazione infrarossa, parte del flusso di energia ricevuto dal sole; la radiazione infrarossa viene parzialmente assorbita da alcuni gas presenti nell'atmosfera (gas-serra) e da questi irradiata nuovamente verso la terra. L'effetto serra è un fenomeno naturale (ad esempio viene causato anche dal vapore acqueo e dall'ozono) che ritarda la dispersione di energia del pianeta instaurando una temperatura media (circa 15°c) ben maggiore di quella che si avrebbe in assenza di atmosfera (circa -18°c). L'attività umana sembra stia provocando una intensificazione del fenomeno a causa dell'aumento delle emissioni di gas-serra, con conseguente innalzamento della loro concentrazione in atmosfera; tuttavia, permangono incertezze sull'entità di tali effetti e sulla loro configurazione geografica e stagionale fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4253,19 +4253,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1000185</v>
+        <v>1000184</v>
       </c>
       <c r="C186" t="n">
-        <v>3000185</v>
+        <v>3000184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Efficienza Energetica</t>
+          <t>Efficienza Ambientale</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Indica il rapporto tra servizio energetico effettivamente erogato e l'energia utilizzata per erogare questo servizio. Ad esempio, le comuni lampadine elettriche ad incandescenza hanno un'efficienza di conversione di circa 5%, ovvero solo il 5% di elettricità che entra nella lampadina viene convertita in luce, il resto è convertita in calore. Dire che l'efficienza energetica di una centrale elettrica è del 40% significa dire che per ottenere 1 kwh si spende l'equivalente di 2,5 kwh di combustibile. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Il raggiungimento del massimo beneficio per ciascuna unità di risorsa utilizzata, limitando al massimo gli impatti ambientali ed i rifiuti prodotti. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htma</t>
         </is>
       </c>
     </row>
@@ -4274,19 +4274,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1000186</v>
+        <v>1000185</v>
       </c>
       <c r="C187" t="n">
-        <v>3000186</v>
+        <v>3000185</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Emergia O Embodied Energy</t>
+          <t>Efficienza Energetica</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>È la quantità di energia solare, diretta o indiretta, utilizzata come denominatore comune, necessaria per ottenere un prodotto o un flusso di energia (energia elettrica, termoelettrica ecc.). Ad esempio per ottenere un joule di energia elettrica è necessaria energia sotto forma di impianti e di combustibile: la somma totale dell’energia solare impiegata per ottenerla è l’emergia.</t>
+          <t>Indica il rapporto tra servizio energetico effettivamente erogato e l'energia utilizzata per erogare questo servizio. Ad esempio, le comuni lampadine elettriche ad incandescenza hanno un'efficienza di conversione di circa 5%, ovvero solo il 5% di elettricità che entra nella lampadina viene convertita in luce, il resto è convertita in calore. Dire che l'efficienza energetica di una centrale elettrica è del 40% significa dire che per ottenere 1 kwh si spende l'equivalente di 2,5 kwh di combustibile. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4295,19 +4295,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1000187</v>
+        <v>1000186</v>
       </c>
       <c r="C188" t="n">
-        <v>3000187</v>
+        <v>3000186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Emergence</t>
+          <t>Emergia O Embodied Energy</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Un concetto chiave degli ecosistemi che fa riferimento all'abilità di un sistema complesso di sviluppare caratteristiche e un comportamento che sono "più grandi della somma delle sue parti" e che necessariamente non può essere previsto o gestito in termini di comportamento dei suoi elementi costitutivi. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>È la quantità di energia solare, diretta o indiretta, utilizzata come denominatore comune, necessaria per ottenere un prodotto o un flusso di energia (energia elettrica, termoelettrica ecc.). Ad esempio per ottenere un joule di energia elettrica è necessaria energia sotto forma di impianti e di combustibile: la somma totale dell’energia solare impiegata per ottenerla è l’emergia.</t>
         </is>
       </c>
     </row>
@@ -4316,19 +4316,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1000188</v>
+        <v>1000187</v>
       </c>
       <c r="C189" t="n">
-        <v>3000188</v>
+        <v>3000187</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Emission Trading</t>
+          <t>Emergence</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Meccanismo flessibile previsto dal protocollo di kyoto che consiste nel commercio di diritti di emissione di gas serra tra paesi dell'annesso i. In pratica, quei paesi dell'annesso i che riescono a ridurre le loro emissioni in eccesso di quanto previsto dagli accordi stabiliti possono vendere tale surplus ad altri paesi dell'annesso i per facilitare il rispetto degli impegni presi da parte di questi ultimi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Un concetto chiave degli ecosistemi che fa riferimento all'abilità di un sistema complesso di sviluppare caratteristiche e un comportamento che sono "più grandi della somma delle sue parti" e che necessariamente non può essere previsto o gestito in termini di comportamento dei suoi elementi costitutivi. Fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
         </is>
       </c>
     </row>
@@ -4337,19 +4337,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1000189</v>
+        <v>1000188</v>
       </c>
       <c r="C190" t="n">
-        <v>3000189</v>
+        <v>3000188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Emissione</t>
+          <t>Emission Trading</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Scarico di qualsiasi sostanza solida, liquida o gassosa introdotta nell'ecosistema, che può produrre direttamente o indirettamente un impatto sull'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Meccanismo flessibile previsto dal protocollo di kyoto che consiste nel commercio di diritti di emissione di gas serra tra paesi dell'annesso i. In pratica, quei paesi dell'annesso i che riescono a ridurre le loro emissioni in eccesso di quanto previsto dagli accordi stabiliti possono vendere tale surplus ad altri paesi dell'annesso i per facilitare il rispetto degli impegni presi da parte di questi ultimi. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4358,19 +4358,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1000190</v>
+        <v>1000189</v>
       </c>
       <c r="C191" t="n">
-        <v>3000190</v>
+        <v>3000189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Empowerment</t>
+          <t>Emissione</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>La parola inglese "empowerment" deriva dal verbo "to empower" che in italiano viene comunemente tradotto con "conferire poteri", "mettere in grado di". I diversi dizionari privilegiano ora l'uno ora l'altro aspetto. Risulta comunque impossibile tradurre questo termine in italiano con una sola parola, per la ricchezza semantica di tale concetto. Empowerment è una parola duplice, in quanto dà nome sia al processo operativo percorso per raggiungere un certo risultato, sia al risultato stesso, caratterizzante lo stato "empowered" del soggetto. Pur avendo accezioni specifiche in diversi ambiti di applicazione, il termine empowerment può essere inteso come "accrescere la possibilità dei singoli e dei gruppi di controllare attivamente la propria vita". L'empowerment si realizza quando si affermano opportunità e possibilità per tutti (azioni positive), a partire dai soggetti più deboli, svantaggiati, poveri ed emarginati, affinché costoro si emancipino rispetto ad una condizione che li rende subalterni e passivi, inibendo l'attivazione delle loro potenzialità (vedi capitale umano). Empowerment è democrazia e sussidiarietà (vedi) in quanto consente ai cittadini di definire liberamente ogni dimensione della vita comune, l'organizzazione del governo, della proprietà, del lavoro e delle relazioni interpersonali, ecc. Empowerment è un processo che integra azioni dall'alto verso il basso e viceversa, ossia combina "attribuzione" e "conquista" di maggior potere nelle comunità sociale di appartenenza. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Scarico di qualsiasi sostanza solida, liquida o gassosa introdotta nell'ecosistema, che può produrre direttamente o indirettamente un impatto sull'ambiente. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4379,19 +4379,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1000191</v>
+        <v>1000190</v>
       </c>
       <c r="C192" t="n">
-        <v>3000191</v>
+        <v>3000190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Empowerment</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Grandezza fisica che conferisce ad un sistema la capacità di compiere lavoro. L'energia è essenziale per lo svolgimento di qualsiasi attività e la disponibilità di fonti di energia affidabili ed economiche è alla base dell'attuale modello di sviluppo delle società industrializzate. Si distinguono due forme fondamentali di energia: potenziale e cinetica. L'energia potenziale dipende dalla configurazione delle componenti di un sistema e dal loro stato fisico e chimico: per esempio un blocco di marmo sollevato in aria possiede una energia potenziale pari al prodotto della sua massa per l'accelerazione di gravità (9,81 m/s2) per l'altezza rispetto al suolo. È invece detta energia cinetica quella che un sistema possiede a causa del movimento delle diverse parti che lo compongono. Abitualmente si usano nomi diversi per indicare la forma in cui l'energia si presenta in certi contesti: si parla quindi di energia meccanica, elettrica, termica, chimica, nucleare eccetera fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>La parola inglese "empowerment" deriva dal verbo "to empower" che in italiano viene comunemente tradotto con "conferire poteri", "mettere in grado di". I diversi dizionari privilegiano ora l'uno ora l'altro aspetto. Risulta comunque impossibile tradurre questo termine in italiano con una sola parola, per la ricchezza semantica di tale concetto. Empowerment è una parola duplice, in quanto dà nome sia al processo operativo percorso per raggiungere un certo risultato, sia al risultato stesso, caratterizzante lo stato "empowered" del soggetto. Pur avendo accezioni specifiche in diversi ambiti di applicazione, il termine empowerment può essere inteso come "accrescere la possibilità dei singoli e dei gruppi di controllare attivamente la propria vita". L'empowerment si realizza quando si affermano opportunità e possibilità per tutti (azioni positive), a partire dai soggetti più deboli, svantaggiati, poveri ed emarginati, affinché costoro si emancipino rispetto ad una condizione che li rende subalterni e passivi, inibendo l'attivazione delle loro potenzialità (vedi capitale umano). Empowerment è democrazia e sussidiarietà (vedi) in quanto consente ai cittadini di definire liberamente ogni dimensione della vita comune, l'organizzazione del governo, della proprietà, del lavoro e delle relazioni interpersonali, ecc. Empowerment è un processo che integra azioni dall'alto verso il basso e viceversa, ossia combina "attribuzione" e "conquista" di maggior potere nelle comunità sociale di appartenenza. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
         <v>1000191</v>
       </c>
       <c r="C193" t="n">
-        <v>3000192</v>
+        <v>3000191</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>(Nella Politica Europea) la politica energetica dell'unione europea mira a garantire un approvvigionamento sicuro, economico e senza rischi per la salute dei cittadini e l'ambiente. Originariamente i trattati istitutivi delle comunità europee non prevedevano una politica comunitaria dell'energia. Gli inizi della costruzione dell'unione europea hanno visto la creazione di quadri istituzionali per il carbon fossile e l'energia atomica: nel 1951 la comunità europea del carbone e dell'acciaio (ceca) il cui trattato è giunto a scadenza il 31 dicembre 2002; nel 1957 la comunità europea dell'energia atomica (euratom). I trattati successivi non hanno previsto una base giuridica specifica per la politica comunitaria dell'energia i cui fondamenti restano legati al trattato euratom e a qualche disposizione contenuta nei capitoli "mercato interno" e "ambiente". Nel contesto energetico attuale, l'unione europea deve fare fronte a numerose sfide: lo sviluppo delle energie rinnovabili, la liberalizzazione del mercato del gas e dell'elettricità, la limitazione della dipendenza energetica dell'unione europea e la garanzia della sicurezza nucleare. Di fronte a queste nuove sfide energetiche, l'unione europea ha preso misure per garantire la sicurezza dell'approvvigionamento in una situazione di dipendenza dalle importazioni di petrolio da regioni politicamente instabili, ridefinire le priorità in materia di energia nucleare tenendo conto in particolare dei rischi di incidenti e dello smaltimento dei residui nonché sostenere lo sviluppo sostenibile. Con il nuovo programma di azione "energia intelligente per l'europa" la commissione propone inoltre di rafforzare il sostegno europeo alla promozione delle energie rinnovabili (altener) e dell'efficienza energetica (save), per riorientare l'azione internazionale verso queste due priorità (coopener fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Grandezza fisica che conferisce ad un sistema la capacità di compiere lavoro. L'energia è essenziale per lo svolgimento di qualsiasi attività e la disponibilità di fonti di energia affidabili ed economiche è alla base dell'attuale modello di sviluppo delle società industrializzate. Si distinguono due forme fondamentali di energia: potenziale e cinetica. L'energia potenziale dipende dalla configurazione delle componenti di un sistema e dal loro stato fisico e chimico: per esempio un blocco di marmo sollevato in aria possiede una energia potenziale pari al prodotto della sua massa per l'accelerazione di gravità (9,81 m/s2) per l'altezza rispetto al suolo. È invece detta energia cinetica quella che un sistema possiede a causa del movimento delle diverse parti che lo compongono. Abitualmente si usano nomi diversi per indicare la forma in cui l'energia si presenta in certi contesti: si parla quindi di energia meccanica, elettrica, termica, chimica, nucleare eccetera fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4421,19 +4421,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1000193</v>
+        <v>1000191</v>
       </c>
       <c r="C194" t="n">
-        <v>3000193</v>
+        <v>3000192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Energia Alternativa</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Energia prodotta senza attingere alle risorse naturali fossili (petrolio, gas, carbone), e senza utilizzazione del nucleare. All'energia alternativa appartiene per esempio: l'energia eolica, prodotta dal vento; l'energia solare, originata dal sole (termica e fotovoltaica). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
+          <t>(Nella Politica Europea) la politica energetica dell'unione europea mira a garantire un approvvigionamento sicuro, economico e senza rischi per la salute dei cittadini e l'ambiente. Originariamente i trattati istitutivi delle comunità europee non prevedevano una politica comunitaria dell'energia. Gli inizi della costruzione dell'unione europea hanno visto la creazione di quadri istituzionali per il carbon fossile e l'energia atomica: nel 1951 la comunità europea del carbone e dell'acciaio (ceca) il cui trattato è giunto a scadenza il 31 dicembre 2002; nel 1957 la comunità europea dell'energia atomica (euratom). I trattati successivi non hanno previsto una base giuridica specifica per la politica comunitaria dell'energia i cui fondamenti restano legati al trattato euratom e a qualche disposizione contenuta nei capitoli "mercato interno" e "ambiente". Nel contesto energetico attuale, l'unione europea deve fare fronte a numerose sfide: lo sviluppo delle energie rinnovabili, la liberalizzazione del mercato del gas e dell'elettricità, la limitazione della dipendenza energetica dell'unione europea e la garanzia della sicurezza nucleare. Di fronte a queste nuove sfide energetiche, l'unione europea ha preso misure per garantire la sicurezza dell'approvvigionamento in una situazione di dipendenza dalle importazioni di petrolio da regioni politicamente instabili, ridefinire le priorità in materia di energia nucleare tenendo conto in particolare dei rischi di incidenti e dello smaltimento dei residui nonché sostenere lo sviluppo sostenibile. Con il nuovo programma di azione "energia intelligente per l'europa" la commissione propone inoltre di rafforzare il sostegno europeo alla promozione delle energie rinnovabili (altener) e dell'efficienza energetica (save), per riorientare l'azione internazionale verso queste due priorità (coopener fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -4442,19 +4442,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1000194</v>
+        <v>1000192</v>
       </c>
       <c r="C195" t="n">
-        <v>3000194</v>
+        <v>3000195</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Energia Eolica</t>
+          <t>Energia Geotermica</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Energia cinetica delle masse d'aria (venti) in movimento. A parte gli usi tradizionali (mulini a vento, navi a vela eccetera) l'energia eolica viene sfruttata per la produzione elettrica tramite aerogeneratori fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Energia termica accumulata nella crosta terrestre e che viene costantemente alimentata dal flusso di calore proveniente dal mantello e dal nucleo del pianeta. Il calore geotermico sale verso la superficie sotto forma di un flusso pari a circa 0,063 w/m2, troppo diluito per uno sfruttamento economico. Lo sfruttamento dell'energia geotermica è pertanto limitata a zone ove sono presenti "anomalie" dovute al vulcanesimo secondario, cioè al riscaldamento intenso e localizzato di alcune zone superficiali della crosta terrestre percorse da falde acquifere, come nel caso dei sistemi idrotermali. Gli usi più frequenti dell' energia geotermica riguardano la produzione di energia elettrica (centrali geotermoelettriche) o la produzione di calore destinato ad usi civili o industriali fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4463,19 +4463,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1000192</v>
+        <v>1000193</v>
       </c>
       <c r="C196" t="n">
-        <v>3000195</v>
+        <v>3000193</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Energia Geotermica</t>
+          <t>Energia Alternativa</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Energia termica accumulata nella crosta terrestre e che viene costantemente alimentata dal flusso di calore proveniente dal mantello e dal nucleo del pianeta. Il calore geotermico sale verso la superficie sotto forma di un flusso pari a circa 0,063 w/m2, troppo diluito per uno sfruttamento economico. Lo sfruttamento dell'energia geotermica è pertanto limitata a zone ove sono presenti "anomalie" dovute al vulcanesimo secondario, cioè al riscaldamento intenso e localizzato di alcune zone superficiali della crosta terrestre percorse da falde acquifere, come nel caso dei sistemi idrotermali. Gli usi più frequenti dell' energia geotermica riguardano la produzione di energia elettrica (centrali geotermoelettriche) o la produzione di calore destinato ad usi civili o industriali fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Energia prodotta senza attingere alle risorse naturali fossili (petrolio, gas, carbone), e senza utilizzazione del nucleare. All'energia alternativa appartiene per esempio: l'energia eolica, prodotta dal vento; l'energia solare, originata dal sole (termica e fotovoltaica). Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -4484,19 +4484,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1000195</v>
+        <v>1000194</v>
       </c>
       <c r="C197" t="n">
-        <v>3000196</v>
+        <v>3000194</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Energia Idraulica</t>
+          <t>Energia Eolica</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Energia derivata dall'energia potenziale e cinetica posseduta dall'acqua. La trasformazione dell'energia idraulica in energia elettrica avviene tramite centrali idroelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Energia cinetica delle masse d'aria (venti) in movimento. A parte gli usi tradizionali (mulini a vento, navi a vela eccetera) l'energia eolica viene sfruttata per la produzione elettrica tramite aerogeneratori fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4505,19 +4505,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1000197</v>
+        <v>1000195</v>
       </c>
       <c r="C198" t="n">
-        <v>3000197</v>
+        <v>3000196</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Energia Nucleare</t>
+          <t>Energia Idraulica</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Energia associata alle reazioni di fissione nucleare, che avvengono in modo controllato nelle centrali nucleari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Energia derivata dall'energia potenziale e cinetica posseduta dall'acqua. La trasformazione dell'energia idraulica in energia elettrica avviene tramite centrali idroelettriche fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4526,19 +4526,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1000198</v>
+        <v>1000196</v>
       </c>
       <c r="C199" t="n">
-        <v>3000198</v>
+        <v>3000199</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Energia Rinnovabile</t>
+          <t>Energia Solare</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Fonti rinnovabili fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>L'energia raggiante sprigionata dal sole e che raggiunge la terra sotto forma di radiazione elettromagnetica. La potenza incidente al suolo dipende dall'altezza del sole sull'orizzonte (dipendente a sua volta dalla latitudine, dal giorno dell'anno, dall'ora del giorno), dalla quota e dalle condizioni atmosferiche, nonché dall'orientamento della superficie ricevente. In campo energetico il termine energia solare si usa per indicare l'insieme di tecnologie volte allo sfruttamento dell'energia proveniente dal sole sia direttamente (conversione fotovoltaica, riscaldamento solare eccetera) sia anche indirettamente, cioè sfruttando le forme in cui l'energia dal sole si trasforma in modo naturale (biomassa, vento, onde, ciclo ideologico: vedi fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4547,19 +4547,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1000196</v>
+        <v>1000197</v>
       </c>
       <c r="C200" t="n">
-        <v>3000199</v>
+        <v>3000197</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Energia Solare</t>
+          <t>Energia Nucleare</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>L'energia raggiante sprigionata dal sole e che raggiunge la terra sotto forma di radiazione elettromagnetica. La potenza incidente al suolo dipende dall'altezza del sole sull'orizzonte (dipendente a sua volta dalla latitudine, dal giorno dell'anno, dall'ora del giorno), dalla quota e dalle condizioni atmosferiche, nonché dall'orientamento della superficie ricevente. In campo energetico il termine energia solare si usa per indicare l'insieme di tecnologie volte allo sfruttamento dell'energia proveniente dal sole sia direttamente (conversione fotovoltaica, riscaldamento solare eccetera) sia anche indirettamente, cioè sfruttando le forme in cui l'energia dal sole si trasforma in modo naturale (biomassa, vento, onde, ciclo ideologico: vedi fonti rinnovabili) fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>Energia associata alle reazioni di fissione nucleare, che avvengono in modo controllato nelle centrali nucleari fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4568,19 +4568,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1000199</v>
+        <v>1000198</v>
       </c>
       <c r="C201" t="n">
-        <v>3000200</v>
+        <v>3000198</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Energie Alternative</t>
+          <t>Energia Rinnovabile</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Dal 1970 in avanti, quando si parlava di energie alternative, si pensava ad energie alternative al petrolio; ora una definizione più vicina alle mutate esigenze socio-ambientali fa restringere il campo alle sole fonti rinnovabili: il sole, il vento, l'energia idraulica, la geotermia, il moto ondoso, le maree, le biomasse (trasformazione dei rifiuti organici ed inorganici) [con esclusione, cioè del nucleare]. Fonte: http://www.obsidian.it/mimmo/geomorfologia/normativa/glossario%20giuridicohtm</t>
+          <t>Fonti rinnovabili fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -4589,19 +4589,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1000201</v>
+        <v>1000199</v>
       </c>
       <c r="C202" t="n">
-        <v>3000201</v>
+        <v>3000200</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Energy Audit</t>
+          <t>Energie Alternative</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Si tratta di una "diagnosi" in cui il "malato" è l'edificio. Attraverso l'energy audit, viene definito il bilancio energetico di una costruzione, che dovrebbe servire ad applicare per il futuro migliori pratiche di risparmio energetico. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
+          <t>Dal 1970 in avanti, quando si parlava di energie alternative, si pensava ad energie alternative al petrolio; ora una definizione più vicina alle mutate esigenze socio-ambientali fa restringere il campo alle sole fonti rinnovabili: il sole, il vento, l'energia idraulica, la geotermia, il moto ondoso, le maree, le biomasse (trasformazione dei rifiuti organici ed inorganici) [con esclusione, cioè del nucleare]. Fonte: http://www.obsidian.it/mimmo/geomorfologia/normativa/glossario%20giuridicohtm</t>
         </is>
       </c>
     </row>
@@ -4610,19 +4610,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1000202</v>
+        <v>1000201</v>
       </c>
       <c r="C203" t="n">
-        <v>3000202</v>
+        <v>3000201</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Entropia</t>
+          <t>Energy Audit</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>È la tendenza dell'energia, quando viene utilizzata, a degradarsi, ovvero a trasformarsi in calore a bassa temperatura di scarsa utilità. È indice della tendenza al disordine di un sistema. I processi naturali sono sempre tesi a organizzare la materia, sia che si tratti di fenomeni viventi che non (formazione di rocce, minerali). Ciò, naturalmente avviene a spese dell'energia, ossia producendo entropia (disordine, calore dissipato). Tuttavia i cicli naturali si riequilibrano assorbendo energia solare e non producono scarti o rifiuti. I cicli naturali sono chiusi. Al contrario, i processi attuati dall'uomo, che portano alle strutture organizzate (manufatti, città, organizzazioni) con uso di energia e produzione di entropia, non riescono a chiudersi e generano scarti, rifiuti e inquinamento. "esternalità" vengono chiamati gli elementi di risulta dei processi antropici e vengono smaltiti nell'ambiente. L'entropia rappresenta il saldo energetico negativo creato dal processo e va pertanto minimizzata: un primo obiettivo è allora quello di produrre la massima organizzazione con la minima produzione di entropia. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Si tratta di una "diagnosi" in cui il "malato" è l'edificio. Attraverso l'energy audit, viene definito il bilancio energetico di una costruzione, che dovrebbe servire ad applicare per il futuro migliori pratiche di risparmio energetico. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
         </is>
       </c>
     </row>
@@ -4631,19 +4631,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1000203</v>
+        <v>1000202</v>
       </c>
       <c r="C204" t="n">
-        <v>3000203</v>
+        <v>3000202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Environmental Condition Indicators</t>
+          <t>Entropia</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>La norma iso 14031 ha codificato gli indicatori eci (assieme agli epi): gli indicatori di condizione ambientale forniscono informazioni sulle condizioni naturalistiche e ambientali del territorio. Sono sviluppati da agenzie governative, organizzazioni non governative, istituzioni scientifiche e di ricerca e possono riguardare vari aspetti, come: i fenomeni di inquinamento o cambiamento ambientale su scala globale, regionale, locale: la qualità delle varie componenti ambientali (aria,acqua, suolo, fauna); gli aspetti, legati all'uomo, di tipo paesaggistico, artistico o storico-culturale. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>È la tendenza dell'energia, quando viene utilizzata, a degradarsi, ovvero a trasformarsi in calore a bassa temperatura di scarsa utilità. È indice della tendenza al disordine di un sistema. I processi naturali sono sempre tesi a organizzare la materia, sia che si tratti di fenomeni viventi che non (formazione di rocce, minerali). Ciò, naturalmente avviene a spese dell'energia, ossia producendo entropia (disordine, calore dissipato). Tuttavia i cicli naturali si riequilibrano assorbendo energia solare e non producono scarti o rifiuti. I cicli naturali sono chiusi. Al contrario, i processi attuati dall'uomo, che portano alle strutture organizzate (manufatti, città, organizzazioni) con uso di energia e produzione di entropia, non riescono a chiudersi e generano scarti, rifiuti e inquinamento. "esternalità" vengono chiamati gli elementi di risulta dei processi antropici e vengono smaltiti nell'ambiente. L'entropia rappresenta il saldo energetico negativo creato dal processo e va pertanto minimizzata: un primo obiettivo è allora quello di produrre la massima organizzazione con la minima produzione di entropia. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4652,19 +4652,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1000204</v>
+        <v>1000203</v>
       </c>
       <c r="C205" t="n">
-        <v>3000204</v>
+        <v>3000203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Environmental Performance Indicators</t>
+          <t>Environmental Condition Indicators</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>La norma iso 14031 ha codificato gli indicatori epi, che comprendono a loro volta gli indicatori di prestazione operativi (opi, operational performance indicators), che forniscono informazioni sulle prestazioni ambientali delle attività aziendali, e gli indicatori di prestazione gestionali (mpi management performance indicators), che forniscono invece informazioni sugli sforzi gestionali per tenere sotto controllo e minimizzare le prestazioni ambientali aziendali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>La norma iso 14031 ha codificato gli indicatori eci (assieme agli epi): gli indicatori di condizione ambientale forniscono informazioni sulle condizioni naturalistiche e ambientali del territorio. Sono sviluppati da agenzie governative, organizzazioni non governative, istituzioni scientifiche e di ricerca e possono riguardare vari aspetti, come: i fenomeni di inquinamento o cambiamento ambientale su scala globale, regionale, locale: la qualità delle varie componenti ambientali (aria,acqua, suolo, fauna); gli aspetti, legati all'uomo, di tipo paesaggistico, artistico o storico-culturale. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4673,19 +4673,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1000205</v>
+        <v>1000204</v>
       </c>
       <c r="C206" t="n">
-        <v>3000205</v>
+        <v>3000204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Equilibrio</t>
+          <t>Environmental Performance Indicators</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Questo concetto è strettamente legato a quello di cambiamento, complessità, caos, incertezza ed al principio precauzionale (vedi). Secondo scuole di pensiero, ormai superate, un sistema tende inevitabilmente all'equilibrio: quando si introducono cambiamenti in un sistema, essi sono inevitabilmente funzionali a nuovi ordini di vita stabile. Si tratta di scuole che hanno sostenuto la linearità razionale dei processi causa-effetto e la certezza deterministica della soluzione dei problemi. Tale teoria appare fortemente riduzionista e semplicistica a fronte di quelle del caos e della complessità, secondo le quali: il sistema non può mai essere in equilibrio, non arriva mai ad uno stato in cui si annullano differenze e contrapposizioni; un sistema è sempre in transizione, in un delicato bilanciamento tra forze di stabilità e forze di instabilità, tra ordini diversi e coevolutivi, non sempre decodificabili dalla conoscenza umana. Per tali motivi, l'essere umano deve riflettere sulle molteplici opzioni ed alternative di cambiamento, cercando maggiore consapevolezza sugli impatti che le sue scelte di sviluppo possono determinare nell'ecosistema fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>La norma iso 14031 ha codificato gli indicatori epi, che comprendono a loro volta gli indicatori di prestazione operativi (opi, operational performance indicators), che forniscono informazioni sulle prestazioni ambientali delle attività aziendali, e gli indicatori di prestazione gestionali (mpi management performance indicators), che forniscono invece informazioni sugli sforzi gestionali per tenere sotto controllo e minimizzare le prestazioni ambientali aziendali. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4694,19 +4694,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1000206</v>
+        <v>1000205</v>
       </c>
       <c r="C207" t="n">
-        <v>3000206</v>
+        <v>3000205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Equità</t>
+          <t>Equilibrio</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>L'equità riconosce che le persone non sono uguali fra loro, ed afferma che tutte hanno pari dignità, meritano rispetto e devono avere stessi diritti e pari opportunità di realizzazione. Il principio di equità esprime l'esigenza di far assumere a cittadini, imprese, istituzioni, la responsabilità delle proprie scelte economiche, sociali ed ambientali, con la consapevolezza delle ricadute collettive che esse producono nel tempo, coinvolgendo anche le generazioni di domani. L'equità implica, quindi, solidarietà fra tutti gli esseri umani, ma anche con le altre componenti della natura. Il concetto di equità è quindi strettamente legato a quello di diversità ed il primo presuppone la valorizzazione del secondo tramite un responsabile uso delle risorse ambientali, socioculturali ed economiche. Come espresso sin dalla dichiarazione di rio nel 1992, l'equità è la risposta al "perché" si vuole perseguire lo sviluppo sostenibile. Si tratta di una risposta basata sull'integrazione di tre diversità: sociale (nell'ambito della comunità interessata); inter-locale o inter-regionale (tra più comunità sociali); inter-temporale (tra le generazioni attuali e quelle future). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Questo concetto è strettamente legato a quello di cambiamento, complessità, caos, incertezza ed al principio precauzionale (vedi). Secondo scuole di pensiero, ormai superate, un sistema tende inevitabilmente all'equilibrio: quando si introducono cambiamenti in un sistema, essi sono inevitabilmente funzionali a nuovi ordini di vita stabile. Si tratta di scuole che hanno sostenuto la linearità razionale dei processi causa-effetto e la certezza deterministica della soluzione dei problemi. Tale teoria appare fortemente riduzionista e semplicistica a fronte di quelle del caos e della complessità, secondo le quali: il sistema non può mai essere in equilibrio, non arriva mai ad uno stato in cui si annullano differenze e contrapposizioni; un sistema è sempre in transizione, in un delicato bilanciamento tra forze di stabilità e forze di instabilità, tra ordini diversi e coevolutivi, non sempre decodificabili dalla conoscenza umana. Per tali motivi, l'essere umano deve riflettere sulle molteplici opzioni ed alternative di cambiamento, cercando maggiore consapevolezza sugli impatti che le sue scelte di sviluppo possono determinare nell'ecosistema fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -4715,19 +4715,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1000207</v>
+        <v>1000206</v>
       </c>
       <c r="C208" t="n">
-        <v>3000207</v>
+        <v>3000206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Equità Intergenerazionale</t>
+          <t>Equità</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>L'equità intergenerazionale, chiaramente enunciata da brundtland, richiede che l'attività economica delle generazioni presenti non pregiudichi il benessere delle generazioni future degradando in modo irreversibile gli stock di risorse ambientali disponibili. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>L'equità riconosce che le persone non sono uguali fra loro, ed afferma che tutte hanno pari dignità, meritano rispetto e devono avere stessi diritti e pari opportunità di realizzazione. Il principio di equità esprime l'esigenza di far assumere a cittadini, imprese, istituzioni, la responsabilità delle proprie scelte economiche, sociali ed ambientali, con la consapevolezza delle ricadute collettive che esse producono nel tempo, coinvolgendo anche le generazioni di domani. L'equità implica, quindi, solidarietà fra tutti gli esseri umani, ma anche con le altre componenti della natura. Il concetto di equità è quindi strettamente legato a quello di diversità ed il primo presuppone la valorizzazione del secondo tramite un responsabile uso delle risorse ambientali, socioculturali ed economiche. Come espresso sin dalla dichiarazione di rio nel 1992, l'equità è la risposta al "perché" si vuole perseguire lo sviluppo sostenibile. Si tratta di una risposta basata sull'integrazione di tre diversità: sociale (nell'ambito della comunità interessata); inter-locale o inter-regionale (tra più comunità sociali); inter-temporale (tra le generazioni attuali e quelle future). Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -4736,19 +4736,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1000208</v>
+        <v>1000207</v>
       </c>
       <c r="C209" t="n">
-        <v>3000208</v>
+        <v>3000207</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Ergonomia</t>
+          <t>Equità Intergenerazionale</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Disciplina che studia il migliore adattamento reciproco fra uomo, macchina e ambiente. Fonte: http://www.ennerev.it/ennerev/glossario.htm</t>
+          <t>L'equità intergenerazionale, chiaramente enunciata da brundtland, richiede che l'attività economica delle generazioni presenti non pregiudichi il benessere delle generazioni future degradando in modo irreversibile gli stock di risorse ambientali disponibili. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -4757,19 +4757,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1000209</v>
+        <v>1000208</v>
       </c>
       <c r="C210" t="n">
-        <v>3000209</v>
+        <v>3000208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Esternalità</t>
+          <t>Ergonomia</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sono presenti quando le attività di un agente economico come un'imprese d'affari ha conseguenze esterne per quegli attori sociali che non intervengono nell'equilibrio economico della domanda e offerta su cui ci sono effetti non ricompensati. Ad esempio il gestore di una discoteca per soddisfare la propria clientela, tiene il volume elevato ma disturba i condomini degli appartamenti vicini. Fonte: http://www.kalao.org/glossario.htm</t>
+          <t>Disciplina che studia il migliore adattamento reciproco fra uomo, macchina e ambiente. Fonte: http://www.ennerev.it/ennerev/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -4778,19 +4778,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1000210</v>
+        <v>1000209</v>
       </c>
       <c r="C211" t="n">
-        <v>3000210</v>
+        <v>3000209</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Esternalità Ambientali</t>
+          <t>Esternalità</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Gli effetti che l’attività economica produce sull’ambiente, il cui costo di risanamento può essere internalizzato dall’azienda che li produce</t>
+          <t>Sono presenti quando le attività di un agente economico come un'imprese d'affari ha conseguenze esterne per quegli attori sociali che non intervengono nell'equilibrio economico della domanda e offerta su cui ci sono effetti non ricompensati. Ad esempio il gestore di una discoteca per soddisfare la propria clientela, tiene il volume elevato ma disturba i condomini degli appartamenti vicini. Fonte: http://www.kalao.org/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -4799,19 +4799,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1000211</v>
+        <v>1000210</v>
       </c>
       <c r="C212" t="n">
-        <v>3000211</v>
+        <v>3000210</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Etica</t>
+          <t>Esternalità Ambientali</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>L'etica riguarda il comportamento umano, come insieme di regole che sono condivise nelle relazioni del sistema sociale, ambientale, economico, ecc. (si veda anche ecosistema). L'etica fa riferimento a valori. Ma mentre questi ultimi sono soggettivamente scelti dalle persone, l'etica presuppone uno scambio, una condivisione di valori tra più persone al fine di definire comportamenti coerenti per il loro raggiungimento. I valori non possono essere imposti, l'etica sì! quindi, etica non va confusa con valori, pur essendo ad essi finalizzata. Valori ed etica svolgono ruoli diversi, tant'è che l'etica deve sempre essere aggettivata (cristiana, protestante, proletaria, capitalistica, ambientalista, ecc.). Può esserci un'etica efficiente per valori umanamente ripugnanti (si veda il caso dell'etica nazista). In genere è bene sempre esaminare a quali valori un'etica fa riferimento. Oggi, si riconosce che l'etica deve giocare un ruolo forte per la sostenibilità. Questo significa favorire una condivisione planetaria del valore della "riconciliazione dell'umanità con la natura" tramite comportamenti coerenti negli stili di vita, lavoro e consumo a dimensioni e livelli diversi. L'uso di codici di condotta in vari settori economici, l'adesione a carte per lo sviluppo sostenibile hanno, appunto, la funzione di diffondere una cultura ed un'etica della sostenibilità. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Gli effetti che l’attività economica produce sull’ambiente, il cui costo di risanamento può essere internalizzato dall’azienda che li produce</t>
         </is>
       </c>
     </row>
@@ -4820,19 +4820,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1000212</v>
+        <v>1000211</v>
       </c>
       <c r="C213" t="n">
-        <v>3000212</v>
+        <v>3000211</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>European Awareness Scenario Workshop</t>
+          <t>Etica</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Metodologia partecipativa specifica messa a punto nell'ambito di un progetto finanziato dall'unione europea, attraverso essa si persegue: - la crescita della consapevolezza dei problemi ambientali a livello urbano. - la discussione su ciò che ostacola una sviluppo sostenibile - l'identificazione collettiva delle possibili soluzioni e dei possibili scenari futuri per la propria realtà locale. Fonte: arpalazio</t>
+          <t>L'etica riguarda il comportamento umano, come insieme di regole che sono condivise nelle relazioni del sistema sociale, ambientale, economico, ecc. (si veda anche ecosistema). L'etica fa riferimento a valori. Ma mentre questi ultimi sono soggettivamente scelti dalle persone, l'etica presuppone uno scambio, una condivisione di valori tra più persone al fine di definire comportamenti coerenti per il loro raggiungimento. I valori non possono essere imposti, l'etica sì! quindi, etica non va confusa con valori, pur essendo ad essi finalizzata. Valori ed etica svolgono ruoli diversi, tant'è che l'etica deve sempre essere aggettivata (cristiana, protestante, proletaria, capitalistica, ambientalista, ecc.). Può esserci un'etica efficiente per valori umanamente ripugnanti (si veda il caso dell'etica nazista). In genere è bene sempre esaminare a quali valori un'etica fa riferimento. Oggi, si riconosce che l'etica deve giocare un ruolo forte per la sostenibilità. Questo significa favorire una condivisione planetaria del valore della "riconciliazione dell'umanità con la natura" tramite comportamenti coerenti negli stili di vita, lavoro e consumo a dimensioni e livelli diversi. L'uso di codici di condotta in vari settori economici, l'adesione a carte per lo sviluppo sostenibile hanno, appunto, la funzione di diffondere una cultura ed un'etica della sostenibilità. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -4841,19 +4841,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1000213</v>
+        <v>1000212</v>
       </c>
       <c r="C214" t="n">
-        <v>3000213</v>
+        <v>3000212</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>European Common Indicators</t>
+          <t>European Awareness Scenario Workshop</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Il progetto di definizione di indicatori comuni europei di sviluppo sostenibile (eci) è un'iniziativa indirizzata al monitoraggio della sostenibilità a livello locale, portato avanti da un gruppo di esperti e di rappresentanti di comunità locali europei. L'idea progettuale, realizzata grazie ad un partenariato di diverse organizzazioni ed autorità locali, è un'iniziativa congiunta della commissione europea (dg ambiente), dell'agenzia europea dell'ambiente (eea) e del gruppo di esperti sull'ambiente urbano creato nel 1991 dalla stessa commissione europea. Tali soggetti hanno intrapreso un lavoro insieme finalizzato ad una migliore comprensione della sostenibilità nelle comunità locali ed alla produzione di dati confrontabili tra loro. Obiettivo di tale lavoro è stato quello di stimolare gli enti locali europei ad utilizzare, come base di riferimento complementare agli indicatori nazionali o locali, i 10 eci (european common indicators): strumenti di misurazione dei progressi nell'ambito dello sviluppo sostenibile locale. Utilizzati in combinazione con altri indicatori ed altri metodi di valutazione, gli indicatori comuni europei, possono contribuire a una strategia di monitoraggio sia unitaria che a livello locale o regionale. Fonte: apat: "ag21l2003-dall'agenda all'azione: linee d'indirizzo ed esperienze"</t>
+          <t>Metodologia partecipativa specifica messa a punto nell'ambito di un progetto finanziato dall'unione europea, attraverso essa si persegue: - la crescita della consapevolezza dei problemi ambientali a livello urbano. - la discussione su ciò che ostacola una sviluppo sostenibile - l'identificazione collettiva delle possibili soluzioni e dei possibili scenari futuri per la propria realtà locale. Fonte: arpalazio</t>
         </is>
       </c>
     </row>
@@ -4862,19 +4862,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1000214</v>
+        <v>1000213</v>
       </c>
       <c r="C215" t="n">
-        <v>3000214</v>
+        <v>3000213</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Eutrofizzazione</t>
+          <t>European Common Indicators</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Processo per cui un ambiente acquatico modifica il suo equilibrio ecologico, per cause naturali o artificiali, e si arricchisce di sostanze nutritive (in particolare modo i composti dell'azoto ovvero del fosforo) provenienti dall'agricoltura (fertilizzanti) e dagli scarichi fognari non depurati, nei laghi o nei mari poco profondi o con scarso ricambio idrico che provoca cambiamenti tipici quali l'eccessivo incremento della produzione di alghe (macrofite) e/o di alghe microscopiche (microplancton). Che, alla fine del ciclo vitale, vanno in decomposizione. La conseguenza dell'eutrofizzazione è il degrado della qualità dell'acqua tale da ridurne o precluderne l'uso, con conseguente instaurarsi di un ambiente anaerobico e la distruzione delle principali forme di vita acquatica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Il progetto di definizione di indicatori comuni europei di sviluppo sostenibile (eci) è un'iniziativa indirizzata al monitoraggio della sostenibilità a livello locale, portato avanti da un gruppo di esperti e di rappresentanti di comunità locali europei. L'idea progettuale, realizzata grazie ad un partenariato di diverse organizzazioni ed autorità locali, è un'iniziativa congiunta della commissione europea (dg ambiente), dell'agenzia europea dell'ambiente (eea) e del gruppo di esperti sull'ambiente urbano creato nel 1991 dalla stessa commissione europea. Tali soggetti hanno intrapreso un lavoro insieme finalizzato ad una migliore comprensione della sostenibilità nelle comunità locali ed alla produzione di dati confrontabili tra loro. Obiettivo di tale lavoro è stato quello di stimolare gli enti locali europei ad utilizzare, come base di riferimento complementare agli indicatori nazionali o locali, i 10 eci (european common indicators): strumenti di misurazione dei progressi nell'ambito dello sviluppo sostenibile locale. Utilizzati in combinazione con altri indicatori ed altri metodi di valutazione, gli indicatori comuni europei, possono contribuire a una strategia di monitoraggio sia unitaria che a livello locale o regionale. Fonte: apat: "ag21l2003-dall'agenda all'azione: linee d'indirizzo ed esperienze"</t>
         </is>
       </c>
     </row>
@@ -4883,19 +4883,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1000215</v>
+        <v>1000214</v>
       </c>
       <c r="C216" t="n">
-        <v>3000215</v>
+        <v>3000214</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Evoluzione Degli Ecosistemi</t>
+          <t>Eutrofizzazione</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Quando sono giovani gli ecosistemi tendono ad evolversi nel tempo e presentano poche specie vegetali o animali, dette pionieristiche. In questa fase di continuo mutamento le popolazioni pionieristiche presentano una certa instabilità demografica e le loro densità sono molto variabili. Raggiunta la maturità, gli ecosistemi presentano molte specie, a basse densità, in condizioni di equilibrio, o quasi-equilbrio biologico. Il campo coltivato, o agroecosistema, è simile ad un ecosistema giovane, con un equilibrio o quasi-equilibrio biologico precario e, per di più, le specie botaniche che lo popolano, al contrario delle pionieristiche, sono state sottratte dall'uomo alla selezione naturale e sono quindi poco resistenti alle avversità. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Processo per cui un ambiente acquatico modifica il suo equilibrio ecologico, per cause naturali o artificiali, e si arricchisce di sostanze nutritive (in particolare modo i composti dell'azoto ovvero del fosforo) provenienti dall'agricoltura (fertilizzanti) e dagli scarichi fognari non depurati, nei laghi o nei mari poco profondi o con scarso ricambio idrico che provoca cambiamenti tipici quali l'eccessivo incremento della produzione di alghe (macrofite) e/o di alghe microscopiche (microplancton). Che, alla fine del ciclo vitale, vanno in decomposizione. La conseguenza dell'eutrofizzazione è il degrado della qualità dell'acqua tale da ridurne o precluderne l'uso, con conseguente instaurarsi di un ambiente anaerobico e la distruzione delle principali forme di vita acquatica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4904,19 +4904,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1000216</v>
+        <v>1000215</v>
       </c>
       <c r="C217" t="n">
-        <v>3000216</v>
+        <v>3000215</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Ex Situ</t>
+          <t>Evoluzione Degli Ecosistemi</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Intervento di risanamento ambientale con modalità di trattamento di un particolare materiale inquinato effettuato all'esterno dell'area interessata, dalla quale è stato prelevato. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Quando sono giovani gli ecosistemi tendono ad evolversi nel tempo e presentano poche specie vegetali o animali, dette pionieristiche. In questa fase di continuo mutamento le popolazioni pionieristiche presentano una certa instabilità demografica e le loro densità sono molto variabili. Raggiunta la maturità, gli ecosistemi presentano molte specie, a basse densità, in condizioni di equilibrio, o quasi-equilbrio biologico. Il campo coltivato, o agroecosistema, è simile ad un ecosistema giovane, con un equilibrio o quasi-equilibrio biologico precario e, per di più, le specie botaniche che lo popolano, al contrario delle pionieristiche, sono state sottratte dall'uomo alla selezione naturale e sono quindi poco resistenti alle avversità. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4925,19 +4925,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1000217</v>
+        <v>1000216</v>
       </c>
       <c r="C218" t="n">
-        <v>3000217</v>
+        <v>3000216</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Facilitatore</t>
+          <t>Ex Situ</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Nuova figura di operatore che ha la funzione di gestire i conflitti, e facilitare le riunioni, gli incontri, i gruppi di lavoro, i forum istituiti per realizzare l'agenda21. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
+          <t>Intervento di risanamento ambientale con modalità di trattamento di un particolare materiale inquinato effettuato all'esterno dell'area interessata, dalla quale è stato prelevato. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4946,19 +4946,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1000218</v>
+        <v>1000217</v>
       </c>
       <c r="C219" t="n">
-        <v>3000218</v>
+        <v>3000217</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Fattore D'Impatto Ambientale</t>
+          <t>Facilitatore</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Fattore materiale (prodotti, residui, etc.) e immateriale (energia, agenti fisici quale rumore e vibrazioni o altro) che può causare, per la sua quantità e qualità, effetti sull'ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Nuova figura di operatore che ha la funzione di gestire i conflitti, e facilitare le riunioni, gli incontri, i gruppi di lavoro, i forum istituiti per realizzare l'agenda21. Fonte: http://www.comune.firenze.it/agende21toscana/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -4967,19 +4967,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1000219</v>
+        <v>1000218</v>
       </c>
       <c r="C220" t="n">
-        <v>3000219</v>
+        <v>3000218</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Fattori Biotici</t>
+          <t>Fattore D'Impatto Ambientale</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>I fattori biotici sono le componenti biologiche di un ecosistema che comprendono le piante, gli animali e i microrganismi che interagiscono nella comunità biologica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Fattore materiale (prodotti, residui, etc.) e immateriale (energia, agenti fisici quale rumore e vibrazioni o altro) che può causare, per la sua quantità e qualità, effetti sull'ambiente. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -4988,19 +4988,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1000220</v>
+        <v>1000219</v>
       </c>
       <c r="C221" t="n">
-        <v>3000220</v>
+        <v>3000219</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Fattori Di Pressione</t>
+          <t>Fattori Biotici</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Gli elementi che determinano una pressione sull’ambiente e che sono rappresentati, in diverso modo, da attività antropiche quali il turismo, l'attività industriale, l'agricoltura, l'allevamento, il trasporto ecc.</t>
+          <t>I fattori biotici sono le componenti biologiche di un ecosistema che comprendono le piante, gli animali e i microrganismi che interagiscono nella comunità biologica. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -5009,19 +5009,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1000221</v>
+        <v>1000220</v>
       </c>
       <c r="C222" t="n">
-        <v>3000221</v>
+        <v>3000220</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Fauna</t>
+          <t>Fattori Di Pressione</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Il complesso delle specie animali proprie di un determinato ambiente o territorio. La fauna viene divisa in due grandi categorie: gli invertebrati e i vertebrati. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>Gli elementi che determinano una pressione sull’ambiente e che sono rappresentati, in diverso modo, da attività antropiche quali il turismo, l'attività industriale, l'agricoltura, l'allevamento, il trasporto ecc.</t>
         </is>
       </c>
     </row>
@@ -5030,19 +5030,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1000222</v>
+        <v>1000221</v>
       </c>
       <c r="C223" t="n">
-        <v>3000222</v>
+        <v>3000221</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Feedback</t>
+          <t>Fauna</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>È l'effetto di iterazione, continuità e connessione che permette l'autoregolazione di un sistema. Costituisce il flusso di comunicazione che qualifica un sistema tramite fluidità di relazioni tra le sue componenti. Il termine feedback è, quindi, usato anche per indicare l'informazione di ritorno rispetto ad una iniziativa, una esperienza, che contiene il pensiero, il giudizio di utenti e/o di persone/cittadini coinvolti. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
+          <t>Il complesso delle specie animali proprie di un determinato ambiente o territorio. La fauna viene divisa in due grandi categorie: gli invertebrati e i vertebrati. Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -5051,19 +5051,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1000223</v>
+        <v>1000222</v>
       </c>
       <c r="C224" t="n">
-        <v>3000223</v>
+        <v>3000222</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Feng Shui</t>
+          <t>Feedback</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>È la nuova frontiera del costruire e dell'abitare secondo natura. Un tipo di architettura, che dall'antica saggezza cinese ricava gli strumenti per interpretare ed armonizzare le energie che contraddistinguono i diversi luoghi della casa, per prevenire o correggere gli influssi negativi che possono colpire chi la abita. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
+          <t>È l'effetto di iterazione, continuità e connessione che permette l'autoregolazione di un sistema. Costituisce il flusso di comunicazione che qualifica un sistema tramite fluidità di relazioni tra le sue componenti. Il termine feedback è, quindi, usato anche per indicare l'informazione di ritorno rispetto ad una iniziativa, una esperienza, che contiene il pensiero, il giudizio di utenti e/o di persone/cittadini coinvolti. Fonte: http://www.srseuropa.it/mat_for/gloframe.htm</t>
         </is>
       </c>
     </row>
@@ -5072,19 +5072,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1000224</v>
+        <v>1000223</v>
       </c>
       <c r="C225" t="n">
-        <v>3000224</v>
+        <v>3000223</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Filosofia Ambientale</t>
+          <t>Feng Shui</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>La filosofia ambientale raccoglie in sé i pensieri, le idee, i concetti che l'uomo ha elaborato ed elabora nel suo rapportarsi con ciò che lo circonda e, in particolare, con il mondo naturale. In senso stretto si interessa di cosa pensa l'uomo della natura; in senso più generale si interessa di: scienza ed ecologia, fonti di conoscenze riguardo le leggi naturali ed i rapporti tra gli organismi viventi e l'ambiente; etica ambientale, cioè il comportamento dell'uomo nei confronti del mondo naturale (etica degli animali, etica degli ecosistemi ecc.); politica ambientale: teoria e prassi sui rapporti dello stato (quindi dei cittadini) con l'ambiente naturale; teologia in relazione all'ambiente: rapporti fra uomo-divinità-natura; ed inoltre ... Tutto ciò che concerne il rapporto uomo-natura, organismi viventi-natura; fonte: http://wds.bologna.enea.it/cose.htm</t>
+          <t>È la nuova frontiera del costruire e dell'abitare secondo natura. Un tipo di architettura, che dall'antica saggezza cinese ricava gli strumenti per interpretare ed armonizzare le energie che contraddistinguono i diversi luoghi della casa, per prevenire o correggere gli influssi negativi che possono colpire chi la abita. Fonte: http://www.agricolturabiologicaitaliana.it/</t>
         </is>
       </c>
     </row>
@@ -5093,19 +5093,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1000225</v>
+        <v>1000224</v>
       </c>
       <c r="C226" t="n">
-        <v>3000225</v>
+        <v>3000224</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Finanza Etica</t>
+          <t>Filosofia Ambientale</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sempre di più si sta diffondendo una nuova cultura che mira all'investimento con caratteristiche etiche, dove l'investitore mira non solo alla speculazione ma punta su attività che rispondano a certi requisiti di responsabilità sociale ed ambientale. L'investimento etico consiste nella selezione e nella gestione degli investimenti (azioni, obbligazioni, prestiti) condizionata da criteri etici e di natura sociale, concetto racchiuso nell'espressione socially responsabile investment usata negli stati uniti, o ethical investment, espressione usata in gran bretagna. L'investitore etico è invece colui che non è unicamente interessato al rendimento delle proprie azioni, ma vuole conoscere le ragioni di fondo che realizzano questa redditività, le caratteristiche dei beni prodotti, la localizzazione dell'azienda e verificare come vengano condotti gli affari. Fonte: http://www.finanza-etica.it/</t>
+          <t>La filosofia ambientale raccoglie in sé i pensieri, le idee, i concetti che l'uomo ha elaborato ed elabora nel suo rapportarsi con ciò che lo circonda e, in particolare, con il mondo naturale. In senso stretto si interessa di cosa pensa l'uomo della natura; in senso più generale si interessa di: scienza ed ecologia, fonti di conoscenze riguardo le leggi naturali ed i rapporti tra gli organismi viventi e l'ambiente; etica ambientale, cioè il comportamento dell'uomo nei confronti del mondo naturale (etica degli animali, etica degli ecosistemi ecc.); politica ambientale: teoria e prassi sui rapporti dello stato (quindi dei cittadini) con l'ambiente naturale; teologia in relazione all'ambiente: rapporti fra uomo-divinità-natura; ed inoltre ... Tutto ciò che concerne il rapporto uomo-natura, organismi viventi-natura; fonte: http://wds.bologna.enea.it/cose.htm</t>
         </is>
       </c>
     </row>
@@ -5114,19 +5114,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1000226</v>
+        <v>1000225</v>
       </c>
       <c r="C227" t="n">
-        <v>3000226</v>
+        <v>3000225</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Fiscalità Ambientale</t>
+          <t>Finanza Etica</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Insieme di tasse e tributi che incentivano l'uso di risorse abbondanti e favoriscono il risparmio di risorse limitate. A seconda della base che vanno a colpire le tasse ambientali possono essere ripartite in: tasse e tariffe sulle emissioni; tasse sui prodotto; tasse d'uso riferite ai servii ambientali ottenuti in loro cambio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
+          <t>Sempre di più si sta diffondendo una nuova cultura che mira all'investimento con caratteristiche etiche, dove l'investitore mira non solo alla speculazione ma punta su attività che rispondano a certi requisiti di responsabilità sociale ed ambientale. L'investimento etico consiste nella selezione e nella gestione degli investimenti (azioni, obbligazioni, prestiti) condizionata da criteri etici e di natura sociale, concetto racchiuso nell'espressione socially responsabile investment usata negli stati uniti, o ethical investment, espressione usata in gran bretagna. L'investitore etico è invece colui che non è unicamente interessato al rendimento delle proprie azioni, ma vuole conoscere le ragioni di fondo che realizzano questa redditività, le caratteristiche dei beni prodotti, la localizzazione dell'azienda e verificare come vengano condotti gli affari. Fonte: http://www.finanza-etica.it/</t>
         </is>
       </c>
     </row>
@@ -5135,19 +5135,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1000227</v>
+        <v>1000226</v>
       </c>
       <c r="C228" t="n">
-        <v>3000227</v>
+        <v>3000226</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Fitodepurazione</t>
+          <t>Fiscalità Ambientale</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>La fitodepurazione consiste nella depurazione delle acque attraverso l'azione di zone umide (naturali od artificiali). Gli inquinanti vengono rimossi attraverso la combinazione di processi quali la sedimentazione, la precipitazione, l'assorbimento, l'assimilazione da parte delle piante e l'attività microbiologica. Attraverso la fitodepurazione è possibile eseguire trattamenti secondari e terziari (finissaggio) di acque reflue contenendo l'impatto ambientale ed il consumo energetico. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
+          <t>Insieme di tasse e tributi che incentivano l'uso di risorse abbondanti e favoriscono il risparmio di risorse limitate. A seconda della base che vanno a colpire le tasse ambientali possono essere ripartite in: tasse e tariffe sulle emissioni; tasse sui prodotto; tasse d'uso riferite ai servii ambientali ottenuti in loro cambio. Fonte: glossario per lo sviluppo sostenibile, prog life env/it/000032.ce</t>
         </is>
       </c>
     </row>
@@ -5156,19 +5156,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1000228</v>
+        <v>1000227</v>
       </c>
       <c r="C229" t="n">
-        <v>3000228</v>
+        <v>3000227</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Fitorisanamento</t>
+          <t>Fitodepurazione</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Funzione antinquinamento dei vegetali, che assorbono e neutralizzano gli inquinanti dell'ambiente. Nel '97 è stato scoperto da un istituto di ricerca del dipartimento americano dell'agricoltura, il water management lab di fresno in california, che i vegetali possono assorbire sostanze inquinanti come nichel, zinco... Processo che viene definito appunto con il termine di fitorisanamento e si compone di quattro processi base: la rizofiltrazione (le radici assorbono i metalli tossici delle acque inquinanti); la fitostabilizzazione (la pianta cattura i residui metallici presenti nel suolo); la fitoestrazione (la parte aerea della pianta, dove si concentrano i metalli può essere bruciata riciclando dalle ceneri il metallo); la fitovolatilizzazione (la pianta assorbe, per esempio, selenio e mercurio e li libera in forma diluita nell'atmosfera).gli esperti del dipartimento sostengono che questi vegetali producano molecole (peptidi) oppure acidi organici per legare i metalli da immagazzinare nei vacuoli (compartimenti cellulari dove le piante custodiscono le sostanze utili o quelle da eliminare). Quindi, non solo una pianta può assorbire grandi quantità di sostanze tossiche, ma le può bloccare chimicamente evitando di esserne a sua volta "asfissiata". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
+          <t>La fitodepurazione consiste nella depurazione delle acque attraverso l'azione di zone umide (naturali od artificiali). Gli inquinanti vengono rimossi attraverso la combinazione di processi quali la sedimentazione, la precipitazione, l'assorbimento, l'assimilazione da parte delle piante e l'attività microbiologica. Attraverso la fitodepurazione è possibile eseguire trattamenti secondari e terziari (finissaggio) di acque reflue contenendo l'impatto ambientale ed il consumo energetico. Fonte: http://www.comune.dozza.bo.it/sellustra/mioweb2/glossario.htm</t>
         </is>
       </c>
     </row>
@@ -5177,19 +5177,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1000229</v>
+        <v>1000228</v>
       </c>
       <c r="C230" t="n">
-        <v>3000229</v>
+        <v>3000228</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Fondi Ecologici</t>
+          <t>Fitorisanamento</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Fondo comune che investe in azioni o società che si distinguono per l'impegno verso la salvaguardia, la tutela e il rispetto dei principi etici. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
+          <t>Funzione antinquinamento dei vegetali, che assorbono e neutralizzano gli inquinanti dell'ambiente. Nel '97 è stato scoperto da un istituto di ricerca del dipartimento americano dell'agricoltura, il water management lab di fresno in california, che i vegetali possono assorbire sostanze inquinanti come nichel, zinco... Processo che viene definito appunto con il termine di fitorisanamento e si compone di quattro processi base: la rizofiltrazione (le radici assorbono i metalli tossici delle acque inquinanti); la fitostabilizzazione (la pianta cattura i residui metallici presenti nel suolo); la fitoestrazione (la parte aerea della pianta, dove si concentrano i metalli può essere bruciata riciclando dalle ceneri il metallo); la fitovolatilizzazione (la pianta assorbe, per esempio, selenio e mercurio e li libera in forma diluita nell'atmosfera).gli esperti del dipartimento sostengono che questi vegetali producano molecole (peptidi) oppure acidi organici per legare i metalli da immagazzinare nei vacuoli (compartimenti cellulari dove le piante custodiscono le sostanze utili o quelle da eliminare). Quindi, non solo una pianta può assorbire grandi quantità di sostanze tossiche, ma le può bloccare chimicamente evitando di esserne a sua volta "asfissiata". Fonte: http://www.corpoforestale.it/areeprotette/materiale/glossario_a.html</t>
         </is>
       </c>
     </row>
@@ -5198,19 +5198,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1000230</v>
+        <v>1000229</v>
       </c>
       <c r="C231" t="n">
-        <v>3000230</v>
+        <v>3000229</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Fondi Strutturali E Fondo Di Coesione</t>
+          <t>Fondi Ecologici</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>I fondi strutturali e il fondo di coesione sono componenti della politica strutturale della comunità che mira a ridurre il divario tra i livelli di sviluppo esistente tra le regioni e tra gli stati membri dell'unione europea. Essi contribuiscono così a pieno titolo all'obiettivo della coesione economica e sociale. Per il periodo 2000-2006, la dotazione finanziaria assegnata alla politica regionale della comunità ammonta a 213 miliardi , di cui 195 miliardi destinati ai fondi strutturali e 18 miliardi destinati al fondo di coesione. Tale importo rappresenta il 35% del bilancio comunitario, ossia la seconda voce di spesa. I fondi strutturali sono quattro: il più importante è il fondo europeo di sviluppo regionale (fesr), creato nel 1975. Esso finanzia la realizzazione di infrastrutture, investimenti produttivi generatori di occupazione a favore in particolare delle imprese e progetti di sviluppo locale; il fondo sociale europeo (fse), istituito nel 1958, promuove l'inserimento professionale dei disoccupati e delle categorie sociali svantaggiate finanziando in particolare azioni di formazione; il fondo europeo agricolo di orientamento e di garanzia (feaog), istituito anch'esso nel 1958 quale strumento finanziario della politica agricola comune, consta di due sezioni: la sezione orientamento, che finanzia azioni di sviluppo rurale e aiuti agli agricoltori nelle regioni in ritardo di sviluppo, e la sezione garanzia, che finanzia le organizzazioni comuni di mercato nonché misure di sviluppo rurale in altre zone della comunità; lo strumento finanziario di orientamento della pesca (sfop) è stato istituito nel 1993 e si prefigge l'adeguamento e l'ammodernamento delle attrezzature del settore nonché la diversificazione economica nelle zone dipendenti dall'attività di pesca. Per conferire maggiore efficacia agli interventi comunitari nel periodo 2000-2006, la comunicazione "agenda 2000" della commissione ha proposto un'importante riforma della politica strutturale, di cui il consiglio di berlino del 1999 ha fissato le implicazioni finanziarie. La riforma ha consentito di concentrare gli aiuti e di semplificare la relativa procedura di assegnazione e di gestione riducendo gli obiettivi prioritari d'intervento, che sono diventati tre: l'obiettivo 1 contribuisce allo sviluppo e all'adeguamento strutturale delle regioni in ritardo di sviluppo con prodotto interno lordo (pil) medio pro capite inferiore al 75% della media comunitaria; l'obiettivo 2 sostiene la riconversione economica e sociale delle zone con difficoltà strutturali quali le zone in cui sono in atto mutamenti economici, le zone rurali in declino o dipendenti dall'attività di pesca, i quartieri urbani in crisi, le zone geografiche con gravi handicap naturali o demografici; l'obiettivo 3 sostiene l'adeguamento e l'ammodernamento delle politiche e dei sistemi di istruzione, formazione e occupazione nelle regioni non comprese nell'obiettivo 1. Inoltre, nello stesso periodo, quattro iniziative comunitarie si prefiggono di sperimentare nuove vie di sviluppo per rispondere a problematiche specifiche. A tali iniziative è assegnato il 5,35% degli stanziamenti dei fondi strutturali: interreg iii si prefigge di incentivare la cooperazione transfrontaliera, transnazionale e interregionale; leader + punta a promuovere lo sviluppo socioeconomico delle zone rurali; equal mira allo sviluppo di nuove prassi per la lotta contro le discriminazioni e le disuguaglianze di qualsiasi tipo nell'accesso al mercato del lavoro; urban ii favorisce il rilancio economico e sociale delle città e delle periferie in crisi. Per rafforzare ulteriormente la politica strutturale, nel 1994 è stato istituito il fondo di coesione, destinato ai paesi con pil medio pro capite inferiore al 90% della media comunitaria ( grecia, spagna, irlanda e portogallo ). Il fondo concede finanziamenti per progetti di infrastrutture nei settori dell'ambiente e dei trasporti. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
+          <t>Fondo comune che investe in azioni o società che si distinguono per l'impegno verso la salvaguardia, la tutela e il rispetto dei principi etici. Fonte: http://www.ecoeconomisti.it/ecoglossario.html</t>
         </is>
       </c>
     </row>
@@ -5219,19 +5219,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1000231</v>
+        <v>1000230</v>
       </c>
       <c r="C232" t="n">
-        <v>3000231</v>
+        <v>3000230</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Fondo Europeo Agricolo Di Orientamento E Garanzia</t>
+          <t>Fondi Strutturali E Fondo Di Coesione</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Il fondo europeo agricolo di orientamento e garanzia opera per il miglioramento delle strutture agricole tramite un regime di aiuti diretti e indiretti. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
+          <t>I fondi strutturali e il fondo di coesione sono componenti della politica strutturale della comunità che mira a ridurre il divario tra i livelli di sviluppo esistente tra le regioni e tra gli stati membri dell'unione europea. Essi contribuiscono così a pieno titolo all'obiettivo della coesione economica e sociale. Per il periodo 2000-2006, la dotazione finanziaria assegnata alla politica regionale della comunità ammonta a 213 miliardi , di cui 195 miliardi destinati ai fondi strutturali e 18 miliardi destinati al fondo di coesione. Tale importo rappresenta il 35% del bilancio comunitario, ossia la seconda voce di spesa. I fondi strutturali sono quattro: il più importante è il fondo europeo di sviluppo regionale (fesr), creato nel 1975. Esso finanzia la realizzazione di infrastrutture, investimenti produttivi generatori di occupazione a favore in particolare delle imprese e progetti di sviluppo locale; il fondo sociale europeo (fse), istituito nel 1958, promuove l'inserimento professionale dei disoccupati e delle categorie sociali svantaggiate finanziando in particolare azioni di formazione; il fondo europeo agricolo di orientamento e di garanzia (feaog), istituito anch'esso nel 1958 quale strumento finanziario della politica agricola comune, consta di due sezioni: la sezione orientamento, che finanzia azioni di sviluppo rurale e aiuti agli agricoltori nelle regioni in ritardo di sviluppo, e la sezione garanzia, che finanzia le organizzazioni comuni di mercato nonché misure di sviluppo rurale in altre zone della comunità; lo strumento finanziario di orientamento della pesca (sfop) è stato istituito nel 1993 e si prefigge l'adeguamento e l'ammodernamento delle attrezzature del settore nonché la diversificazione economica nelle zone dipendenti dall'attività di pesca. Per conferire maggiore efficacia agli interventi comunitari nel periodo 2000-2006, la comunicazione "agenda 2000" della commissione ha proposto un'importante riforma della politica strutturale, di cui il consiglio di berlino del 1999 ha fissato le implicazioni finanziarie. La riforma ha consentito di concentrare gli aiuti e di semplificare la relativa procedura di assegnazione e di gestione riducendo gli obiettivi prioritari d'intervento, che sono diventati tre: l'obiettivo 1 contribuisce allo sviluppo e all'adeguamento strutturale delle regioni in ritardo di sviluppo con prodotto interno lordo (pil) medio pro capite inferiore al 75% della media comunitaria; l'obiettivo 2 sostiene la riconversione economica e sociale delle zone con difficoltà strutturali quali le zone in cui sono in atto mutamenti economici, le zone rurali in declino o dipendenti dall'attività di pesca, i quartieri urbani in crisi, le zone geografiche con gravi handicap naturali o demografici; l'obiettivo 3 sostiene l'adeguamento e l'ammodernamento delle politiche e dei sistemi di istruzione, formazione e occupazione nelle regioni non comprese nell'obiettivo 1. Inoltre, nello stesso periodo, quattro iniziative comunitarie si prefiggono di sperimentare nuove vie di sviluppo per rispondere a problematiche specifiche. A tali iniziative è assegnato il 5,35% degli stanziamenti dei fondi strutturali: interreg iii si prefigge di incentivare la cooperazione transfrontaliera, transnazionale e interregionale; leader + punta a promuovere lo sviluppo socioeconomico delle zone rurali; equal mira allo sviluppo di nuove prassi per la lotta contro le discriminazioni e le disuguaglianze di qualsiasi tipo nell'accesso al mercato del lavoro; urban ii favorisce il rilancio economico e sociale delle città e delle periferie in crisi. Per rafforzare ulteriormente la politica strutturale, nel 1994 è stato istituito il fondo di coesione, destinato ai paesi con pil medio pro capite inferiore al 90% della media comunitaria ( grecia, spagna, irlanda e portogallo ). Il fondo concede finanziamenti per progetti di infrastrutture nei settori dell'ambiente e dei trasporti. Fonte: http://europa.eu.int/scadplus/leg/it/cig/g4000.htm</t>
         </is>
       </c>
     </row>
@@ -5240,19 +5240,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1000232</v>
+        <v>1000231</v>
       </c>
       <c r="C233" t="n">
-        <v>3000232</v>
+        <v>3000231</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Fondo Europeo Di Sviluppo Regionale</t>
+          <t>Fondo Europeo Agricolo Di Orientamento E Garanzia</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Il fondo europeo di sviluppo regionale è finalizzato alla riduzione degli squilibri regionali, concede a questo scopo sovvenzioni agli investimenti in infrastrutture e nei settori produttivi localizzati nelle aree depresse della comunità. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
+          <t>Il fondo europeo agricolo di orientamento e garanzia opera per il miglioramento delle strutture agricole tramite un regime di aiuti diretti e indiretti. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
         </is>
       </c>
     </row>
@@ -5261,19 +5261,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1000233</v>
+        <v>1000232</v>
       </c>
       <c r="C234" t="n">
-        <v>3000233</v>
+        <v>3000232</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Fondo Europeo Per Gli Investimenti</t>
+          <t>Fondo Europeo Di Sviluppo Regionale</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>La missione del fondo è quella di contribuire al perseguimento degli obiettivi comunitari sostenendo: lo sviluppo delle reti transeuropee nei settori delle infrastrutture dei trasporti, delle telecomunicazioni e dell'energia; lo sviluppo delle piccole e medi imprese. Il fondo opera attraverso la prestazione di garanzie sia in favore di grandi progetti che di finanziamenti a medio lungo termine per pmi. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
+          <t>Il fondo europeo di sviluppo regionale è finalizzato alla riduzione degli squilibri regionali, concede a questo scopo sovvenzioni agli investimenti in infrastrutture e nei settori produttivi localizzati nelle aree depresse della comunità. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
         </is>
       </c>
     </row>
@@ -5282,19 +5282,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1000234</v>
+        <v>1000233</v>
       </c>
       <c r="C235" t="n">
-        <v>3000234</v>
+        <v>3000233</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Fonti Assimilate</t>
+          <t>Fondo Europeo Per Gli Investimenti</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Risorse energetiche di origine fossile che, ai sensi della legge n. 10 del 9-1-91, vengono "assimilate" alle fonti rinnovabili in virtù degli elevati rendimenti energetici. Secondo il provvedimento cip 6, sono considerati impianti alimentati da fonti assimilate gli impianti di cogenerazione, gli impianti che utilizzano calore di recupero, fumi di scarico e altre forme di energia recuperabile in processi produttivi e in impianti, nonché gli impianti che utilizzano gli scarti di lavorazione e/o di processi e quelli che utilizzano fonti fossili prodotte esclusivamente da giacimenti minori isolati fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
+          <t>La missione del fondo è quella di contribuire al perseguimento degli obiettivi comunitari sostenendo: lo sviluppo delle reti transeuropee nei settori delle infrastrutture dei trasporti, delle telecomunicazioni e dell'energia; lo sviluppo delle piccole e medi imprese. Il fondo opera attraverso la prestazione di garanzie sia in favore di grandi progetti che di finanziamenti a medio lungo termine per pmi. Fonte: http://www.federlazio.it/attivita/glossario.doc</t>
         </is>
       </c>
     </row>
@@ -5303,19 +5303,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1000235</v>
+        <v>1000234</v>
       </c>
       <c r="C236" t="n">
-        <v>3000235</v>
+        <v>3000234</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Fonti Rinnovabili</t>
+          <t>Fonti Assimilate</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sorgenti di energia riconducibili a tre flussi energetici inesauribili che investono l'ambiente in cui viviamo: l'energia solare, l'energia geotermica, l'energia di marea (originata dall'attrazione gravitazionale di sole e, soprattutto, luna). La fonte ri</t>
+          <t>Risorse energetiche di origine fossile che, ai sensi della legge n. 10 del 9-1-91, vengono "assimilate" alle fonti rinnovabili in virtù degli elevati rendimenti energetici. Secondo il provvedimento cip 6, sono considerati impianti alimentati da fonti assimilate gli impianti di cogenerazione, gli impianti che utilizzano calore di recupero, fumi di scarico e altre forme di energia recuperabile in processi produttivi e in impianti, nonché gli impianti che utilizzano gli scarti di lavorazione e/o di processi e quelli che utilizzano fonti fossili prodotte esclusivamente da giacimenti minori isolati fonte: http://www.enel.it/ambiente/e_nergy/s_glossario_it.shtmsv</t>
         </is>
       </c>
     </row>
@@ -5324,19 +5324,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1000085</v>
+        <v>1000235</v>
       </c>
       <c r="C237" t="n">
-        <v>3000236</v>
+        <v>3000235</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Capacity Building</t>
+          <t>Fonti Rinnovabili</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>I processi e mezzi adottati da governi nazionali e comunità locali per sviluppare le abilità e competenze necessarie per gestire il proprio ambiente e le risorse naturali in un maniera sostenibile fonte: http://www.geocities.com/athens/agora/5311/giuridica/extra/00-eu-sustain-glossario.htmagenda locale 21</t>
+          <t>Sorgenti di energia riconducibili a tre flussi energetici inesauribili che investono l'ambiente in cui viviamo: l'energia solare, l'energia geotermica, l'energia di marea (originata dall'attrazione gravitazionale di sole e, soprattutto, luna). La fonte ri</t>
         </is>
       </c>
     </row>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Lemma_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Lemma_of.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
+          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1000026</v>
+        <v>1000025</v>
       </c>
       <c r="C27" t="n">
         <v>3000026</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Evento NBC - settore B</t>
+          <t>Emergenza Di Tipo B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
+          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
         </is>
       </c>
     </row>
@@ -939,19 +939,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1000027</v>
+        <v>1000026</v>
       </c>
       <c r="C28" t="n">
-        <v>3000027</v>
+        <v>3000076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emergenza Di Tipo C</t>
+          <t>Centro operativo regionale</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
+          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
         </is>
       </c>
     </row>
@@ -960,19 +960,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1000028</v>
+        <v>1000027</v>
       </c>
       <c r="C29" t="n">
-        <v>3000028</v>
+        <v>3000027</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pianificazione Di Protezione Civile</t>
+          <t>Emergenza Di Tipo C</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>La pianificazione di protezione civile ai diversi livelli territoriali e' l'attivita' di prevenzione non strutturale, basata sulle attivita' di previsione e, in particolare, di identificazione degli scenari di cui all'articolo 2, comma 2, finalizzata: a) alla definizione delle strategie operative e del modello di intervento contenente l'organizzazione delle strutture per lo svolgimento, in forma coordinata, delle attivita' di protezione civile e della risposta operativa per la gestione degli eventi calamitosi previsti o in atto, garantendo l'effettivita' delle funzioni da svolgere con particolare riguardo alle persone in condizioni di fragilita' sociale e con disabilita', in relazione agli ambiti ottimali di cui all'articolo 11, comma 3, definiti su base provinciale e comunale, quest'ultimo anche in forma aggregata; b) ad assicurare il necessario raccordo informativo con le strutture preposte all'allertamento del Servizio nazionale; c) alla definizione dei flussi di comunicazione tra le componenti e strutture operative del Servizio nazionale interessate; d) alla definizione dei meccanismi e delle procedure per la revisione e l'aggiornamento della pianificazione, per l'organizzazione di esercitazioni e per la relativa informazione alla popolazione, da assicurare anche in corso di evento;</t>
+          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
         </is>
       </c>
     </row>
@@ -981,19 +981,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1000029</v>
+        <v>1000028</v>
       </c>
       <c r="C30" t="n">
-        <v>3000029</v>
+        <v>3000028</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Prevenzione</t>
+          <t>Pianificazione Di Protezione Civile</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
+          <t>La pianificazione di protezione civile ai diversi livelli territoriali e' l'attivita' di prevenzione non strutturale, basata sulle attivita' di previsione e, in particolare, di identificazione degli scenari di cui all'articolo 2, comma 2, finalizzata: a) alla definizione delle strategie operative e del modello di intervento contenente l'organizzazione delle strutture per lo svolgimento, in forma coordinata, delle attivita' di protezione civile e della risposta operativa per la gestione degli eventi calamitosi previsti o in atto, garantendo l'effettivita' delle funzioni da svolgere con particolare riguardo alle persone in condizioni di fragilita' sociale e con disabilita', in relazione agli ambiti ottimali di cui all'articolo 11, comma 3, definiti su base provinciale e comunale, quest'ultimo anche in forma aggregata; b) ad assicurare il necessario raccordo informativo con le strutture preposte all'allertamento del Servizio nazionale; c) alla definizione dei flussi di comunicazione tra le componenti e strutture operative del Servizio nazionale interessate; d) alla definizione dei meccanismi e delle procedure per la revisione e l'aggiornamento della pianificazione, per l'organizzazione di esercitazioni e per la relativa informazione alla popolazione, da assicurare anche in corso di evento;</t>
         </is>
       </c>
     </row>
@@ -1002,19 +1002,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1000030</v>
+        <v>1000029</v>
       </c>
       <c r="C31" t="n">
-        <v>3000030</v>
+        <v>3000029</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Previsione</t>
+          <t>Prevenzione</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
+          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
         </is>
       </c>
     </row>
@@ -1023,19 +1023,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1000031</v>
+        <v>1000030</v>
       </c>
       <c r="C32" t="n">
-        <v>3000031</v>
+        <v>3000030</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Autorità Territoriali Di Protezione Civile</t>
+          <t>Previsione</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
+          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
         </is>
       </c>
     </row>
@@ -1044,19 +1044,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1000032</v>
+        <v>1000031</v>
       </c>
       <c r="C33" t="n">
-        <v>3000032</v>
+        <v>3000031</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mezzi Straordinari</t>
+          <t>Autorità Territoriali Di Protezione Civile</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Termine che indica il denaro del fondo emergenza nazionale.</t>
+          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
         </is>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1000033</v>
+        <v>1000032</v>
       </c>
       <c r="C34" t="n">
-        <v>3000033</v>
+        <v>3000032</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Suscettività Da Frana</t>
+          <t>Mezzi Straordinari</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
+          <t>Termine che indica il denaro del fondo emergenza nazionale.</t>
         </is>
       </c>
     </row>
@@ -1086,19 +1086,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1000034</v>
+        <v>1000033</v>
       </c>
       <c r="C35" t="n">
-        <v>3000034</v>
+        <v>3000033</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Vigili del fuoco</t>
+          <t>Suscettività Da Frana</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Struttura operativa della protezione civile.</t>
+          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
         </is>
       </c>
     </row>
@@ -1110,16 +1110,16 @@
         <v>1000034</v>
       </c>
       <c r="C36" t="n">
-        <v>3000049</v>
+        <v>3000034</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vigili del fuoco</t>
+          <t>SOREU dei laghi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
+          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
         </is>
       </c>
     </row>
@@ -1135,12 +1135,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
+          <t>Vigili del fuoco</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
+          <t>Struttura operativa della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,80 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>1000035</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3000048</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Vigili del fuoco</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>1000036</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>3000036</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1000037</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3000037</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1000038</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3000038</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>sezione del militare e della protezione della popolazione</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
 Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
@@ -1170,61 +1233,6 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1000037</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3000037</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1000038</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3000038</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Componente della protezione civile, costituiscono corpo civico</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1000038</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3000071</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
@@ -1237,12 +1245,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOREU dei laghi</t>
+          <t>Centrale nazionale d'allarme</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
+          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
         </is>
       </c>
     </row>
@@ -1258,31 +1266,10 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Centrale nazionale d'allarme</t>
+          <t>Stato maggiore federale Protezione della popolazione</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
-        <is>
-          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1000041</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3000041</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Stato maggiore federale Protezione della popolazione</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>Nel caso in cui si delinea o si è verificato un evento di portata nazionale rilevante per la protezione della popolazione, lo SMFP assume i compiti seguenti (art. 4, cpv. 2 OSMFP):
 - assicura lo scambio di informazioni e il coordinamento con altri stati maggiori e organi della Confederazione e dei Cantoni, con i gestori di infrastrutture critiche e con i competenti organi all'estero;
@@ -1294,12 +1281,33 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1000041</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3000041</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Protezione civile</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
+        </is>
+      </c>
+    </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1000042</v>
+        <v>1000041</v>
       </c>
       <c r="C45" t="n">
         <v>3000042</v>
@@ -1311,7 +1319,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
+          <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
         </is>
       </c>
     </row>
@@ -1323,16 +1331,16 @@
         <v>1000042</v>
       </c>
       <c r="C46" t="n">
-        <v>3000043</v>
+        <v>3000069</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Protezione civile</t>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
+          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1349,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1000044</v>
+        <v>1000042</v>
       </c>
       <c r="C47" t="n">
-        <v>3000044</v>
+        <v>3000070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1000043</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3000043</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Comando della protezione civile</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Il comando della protezione civile è l’organo che dirige la protezione civile, ed è generalmente costituito dal comandante della protezione civile e dai suoi sostituti. I suoi compiti fondamentali sono i seguenti:
 - condurre gli interventi
@@ -1362,43 +1387,43 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1000045</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3000045</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Impianto di protezione per la protezione della popolazione</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1000046</v>
+        <v>1000044</v>
       </c>
       <c r="C49" t="n">
-        <v>3000046</v>
+        <v>3000044</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Impianto di protezione per la protezione della popolazione</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1000045</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3000045</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Evento NBC</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Per evento NBC s'intende l'emissione illecita di sostanze nucleari (atomiche e radiologiche, N), biologiche (B) o chimiche (C). L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico). Si distinguono i seguenti settori:
 - settore N: emissione di radiazioni ionizzanti e radioattività;
@@ -1407,45 +1432,24 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1000047</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3000047</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Suscettibilità da Frana</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
-        </is>
-      </c>
-    </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1000048</v>
+        <v>1000046</v>
       </c>
       <c r="C51" t="n">
-        <v>3000048</v>
+        <v>3000046</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Pompieri</t>
+          <t>Suscettibilità da Frana</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
+          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
         </is>
       </c>
     </row>
@@ -1454,19 +1458,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1000050</v>
+        <v>1000047</v>
       </c>
       <c r="C52" t="n">
-        <v>3000050</v>
+        <v>3000047</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Organizzazione partner</t>
+          <t>Pompieri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
+          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
         </is>
       </c>
     </row>
@@ -1475,10 +1479,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1000051</v>
+        <v>1000049</v>
       </c>
       <c r="C53" t="n">
-        <v>3000051</v>
+        <v>3000049</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1496,20 +1500,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1000052</v>
+        <v>1000050</v>
       </c>
       <c r="C54" t="n">
-        <v>3000052</v>
+        <v>3000050</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Organo di condotta</t>
+          <t>Organizzazione partner</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
- organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
+          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1518,19 +1521,20 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1000053</v>
+        <v>1000051</v>
       </c>
       <c r="C55" t="n">
-        <v>3000053</v>
+        <v>3000051</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Stato di necessità</t>
+          <t>Organo di condotta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
+          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
+ organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
         </is>
       </c>
     </row>
@@ -1539,10 +1543,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1000054</v>
+        <v>1000052</v>
       </c>
       <c r="C56" t="n">
-        <v>3000054</v>
+        <v>3000052</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1560,19 +1564,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1000055</v>
+        <v>1000053</v>
       </c>
       <c r="C57" t="n">
-        <v>3000055</v>
+        <v>3000053</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Impianto di protezione</t>
+          <t>Stato di necessità</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
+          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
         </is>
       </c>
     </row>
@@ -1581,19 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1000056</v>
+        <v>1000054</v>
       </c>
       <c r="C58" t="n">
-        <v>3000056</v>
+        <v>3000054</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Costruzione di protezione</t>
+          <t>Impianto di protezione</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
+          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
         </is>
       </c>
     </row>
@@ -1602,19 +1606,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1000057</v>
+        <v>1000055</v>
       </c>
       <c r="C59" t="n">
-        <v>3000057</v>
+        <v>3000055</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rifugio</t>
+          <t>Costruzione di protezione</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
+          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -1623,19 +1627,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1000058</v>
+        <v>1000056</v>
       </c>
       <c r="C60" t="n">
-        <v>3000058</v>
+        <v>3000056</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Addetto all'assistenza</t>
+          <t>Rifugio</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
+          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
         </is>
       </c>
     </row>
@@ -1644,19 +1648,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1000059</v>
+        <v>1000057</v>
       </c>
       <c r="C61" t="n">
-        <v>3000059</v>
+        <v>3000057</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Assistente di stato maggiore</t>
+          <t>Addetto all'assistenza</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
+          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
         </is>
       </c>
     </row>
@@ -1665,19 +1669,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1000060</v>
+        <v>1000058</v>
       </c>
       <c r="C62" t="n">
-        <v>3000060</v>
+        <v>3000058</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Organizzazione degli Stati maggiori di condotta</t>
+          <t>Assistente di stato maggiore</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
+          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
         </is>
       </c>
     </row>
@@ -1686,17 +1690,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1000061</v>
+        <v>1000059</v>
       </c>
       <c r="C63" t="n">
-        <v>3000061</v>
+        <v>3000059</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>Organizzazione degli Stati maggiori di condotta</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1000060</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3000060</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>Pioniere</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>milite impiegato soprattutto per assistere le organizzazioni
 partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
@@ -1705,45 +1730,24 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1000062</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3000062</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Stato maggiore cantonale di condotta</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
-        </is>
-      </c>
-    </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1000063</v>
+        <v>1000061</v>
       </c>
       <c r="C65" t="n">
-        <v>3000063</v>
+        <v>3000061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sistema d’allarme acqua</t>
+          <t>Stato maggiore cantonale di condotta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
         </is>
       </c>
     </row>
@@ -1752,19 +1756,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1000064</v>
+        <v>1000062</v>
       </c>
       <c r="C66" t="n">
-        <v>3000064</v>
+        <v>3000062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Allarme acqua</t>
+          <t>Sistema d’allarme acqua</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
         </is>
       </c>
     </row>
@@ -1773,19 +1777,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1000065</v>
+        <v>1000063</v>
       </c>
       <c r="C67" t="n">
-        <v>3000065</v>
+        <v>3000063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Stato maggiore regionale di condotta</t>
+          <t>Allarme acqua</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
+          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
         </is>
       </c>
     </row>
@@ -1794,19 +1798,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1000066</v>
+        <v>1000064</v>
       </c>
       <c r="C68" t="n">
-        <v>3000066</v>
+        <v>3000064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Stato maggiore enti di primo intervento</t>
+          <t>Stato maggiore regionale di condotta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
         </is>
       </c>
     </row>
@@ -1815,17 +1819,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1000068</v>
+        <v>1000065</v>
       </c>
       <c r="C69" t="n">
-        <v>3000068</v>
+        <v>3000065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Stato maggiore enti di primo intervento</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1000066</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3000066</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>Protezione della popolazione</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
 Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
@@ -1833,62 +1858,46 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1000069</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3000069</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Dipartimento della protezione civile</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
-        </is>
-      </c>
-    </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1000070</v>
+        <v>1000068</v>
       </c>
       <c r="C71" t="n">
-        <v>3000070</v>
+        <v>3000068</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>Dipartimento della protezione civile</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1000072</v>
+        <v>1000069</v>
       </c>
       <c r="C72" t="n">
-        <v>3000072</v>
+        <v>3000075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Volontario di protezione civile</t>
+          <t>Legge sulla protezione della popolazione del 26 febbraio 2007</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
+          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
+Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
         </is>
       </c>
     </row>
@@ -1897,10 +1906,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1000072</v>
+        <v>1000071</v>
       </c>
       <c r="C73" t="n">
-        <v>3000073</v>
+        <v>3000071</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1909,8 +1918,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
-I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
+          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
         </is>
       </c>
     </row>
@@ -1919,20 +1927,20 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1000074</v>
+        <v>1000071</v>
       </c>
       <c r="C74" t="n">
-        <v>3000074</v>
+        <v>3000072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Consiglio di stato</t>
+          <t>Volontario di protezione civile</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
-transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
+          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
+I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
         </is>
       </c>
     </row>
@@ -1941,20 +1949,20 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1000075</v>
+        <v>1000073</v>
       </c>
       <c r="C75" t="n">
-        <v>3000075</v>
+        <v>3000073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Milite</t>
+          <t>Consiglio di stato</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
-Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
+          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
+transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
         </is>
       </c>
     </row>
@@ -1963,41 +1971,20 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1000076</v>
+        <v>1000074</v>
       </c>
       <c r="C76" t="n">
-        <v>3000076</v>
+        <v>3000074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Legge sulla protezione della popolazione del 26 febbraio 2007</t>
+          <t>Milite</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
-Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1000077</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3000077</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Centro operativo regionale</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
+          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
+Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
         </is>
       </c>
     </row>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Lemma_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Lemma_of.xlsx
@@ -1114,12 +1114,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SOREU dei laghi</t>
+          <t>Centrale nazionale d'allarme</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
+          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
         </is>
       </c>
     </row>
@@ -1135,141 +1135,10 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Vigili del fuoco</t>
+          <t>Stato maggiore federale Protezione della popolazione</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
-        <is>
-          <t>Struttura operativa della protezione civile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1000035</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3000048</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Vigili del fuoco</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1000036</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3000036</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1000037</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3000037</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1000038</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3000038</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>sezione del militare e della protezione della popolazione</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
-Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
-Il Servizio degli affari militari e comando di circondario si occupa delle pratiche amministrative legate ai servizi d’istruzione dei militi domiciliati in Ticino come pure degli obblighi fuori servizio (tiro obbligatorio, obbligo di notifica), tiene il controllo dei dati di servizio e di quelli personali dei militi con la collaborazione degli uffici di controllo abitanti dei comuni. 
-Il Servizio della protezione civile, unitamente al Centro istruzione della protezione civile di Rivera, assicura l'applicazione delle norme federali e cantonali di protezione civile nelle regioni e nei comuni, cura le diverse pianificazioni (allarmi, approvvigionamenti,...) e l'istruzione dei militi astretti.
-Il Servizio costruzioni si occupa della pianificazione e gestione dei posti protetti, come pure della realizzazione delle costruzioni protette (rifugi, impianti regionali).
-Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1000039</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3000039</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Centrale nazionale d'allarme</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1000040</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3000040</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Stato maggiore federale Protezione della popolazione</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>Nel caso in cui si delinea o si è verificato un evento di portata nazionale rilevante per la protezione della popolazione, lo SMFP assume i compiti seguenti (art. 4, cpv. 2 OSMFP):
 - assicura lo scambio di informazioni e il coordinamento con altri stati maggiori e organi della Confederazione e dei Cantoni, con i gestori di infrastrutture critiche e con i competenti organi all'estero;
@@ -1281,102 +1150,64 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1000041</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3000041</v>
-      </c>
-      <c r="D44" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1000036</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3000036</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Protezione civile</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1000041</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3000042</v>
-      </c>
-      <c r="D45" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1000036</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3000037</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Protezione civile</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1000042</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3000069</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1000042</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3000070</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1000043</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3000043</v>
-      </c>
-      <c r="D48" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1000038</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3000038</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Comando della protezione civile</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Il comando della protezione civile è l’organo che dirige la protezione civile, ed è generalmente costituito dal comandante della protezione civile e dai suoi sostituti. I suoi compiti fondamentali sono i seguenti:
 - condurre gli interventi
@@ -1387,43 +1218,43 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1000044</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3000044</v>
-      </c>
-      <c r="D49" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1000039</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3000039</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Impianto di protezione per la protezione della popolazione</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1000045</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3000045</v>
-      </c>
-      <c r="D50" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1000040</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3000040</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Evento NBC</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Per evento NBC s'intende l'emissione illecita di sostanze nucleari (atomiche e radiologiche, N), biologiche (B) o chimiche (C). L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico). Si distinguono i seguenti settori:
 - settore N: emissione di radiazioni ionizzanti e radioattività;
@@ -1432,24 +1263,193 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1000041</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3000041</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Suscettibilità da Frana</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1000042</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3000042</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Pompieri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1000043</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3000043</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Vigili del fuoco</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1000043</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3000072</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Vigili del fuoco</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Struttura operativa della protezione civile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1000044</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3000044</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Struttura operativa</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1000045</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3000045</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Organizzazione partner</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1000046</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3000046</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Organo di condotta</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
+ organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1000047</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3000047</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Stato di necessità</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
+        </is>
+      </c>
+    </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1000046</v>
+        <v>1000048</v>
       </c>
       <c r="C51" t="n">
-        <v>3000046</v>
+        <v>3000048</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Suscettibilità da Frana</t>
+          <t>Emergenza / Stato di emergenza / Evento emergenziale / Evento</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
+          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
         </is>
       </c>
     </row>
@@ -1458,19 +1458,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1000047</v>
+        <v>1000049</v>
       </c>
       <c r="C52" t="n">
-        <v>3000047</v>
+        <v>3000049</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Pompieri</t>
+          <t>Impianto di protezione</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
+          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
         </is>
       </c>
     </row>
@@ -1479,19 +1479,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1000049</v>
+        <v>1000050</v>
       </c>
       <c r="C53" t="n">
-        <v>3000049</v>
+        <v>3000050</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Struttura operativa</t>
+          <t>Costruzione di protezione</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
+          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -1500,19 +1500,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1000050</v>
+        <v>1000051</v>
       </c>
       <c r="C54" t="n">
-        <v>3000050</v>
+        <v>3000051</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Organizzazione partner</t>
+          <t>Rifugio</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
+          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
         </is>
       </c>
     </row>
@@ -1521,20 +1521,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1000051</v>
+        <v>1000052</v>
       </c>
       <c r="C55" t="n">
-        <v>3000051</v>
+        <v>3000052</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Organo di condotta</t>
+          <t>Addetto all'assistenza</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
- organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
+          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
         </is>
       </c>
     </row>
@@ -1543,19 +1542,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1000052</v>
+        <v>1000053</v>
       </c>
       <c r="C56" t="n">
-        <v>3000052</v>
+        <v>3000053</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Emergenza / Stato di emergenza / Evento emergenziale / Evento</t>
+          <t>Assistente di stato maggiore</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
+          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
         </is>
       </c>
     </row>
@@ -1564,19 +1563,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1000053</v>
+        <v>1000054</v>
       </c>
       <c r="C57" t="n">
-        <v>3000053</v>
+        <v>3000054</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Stato di necessità</t>
+          <t>Organizzazione degli Stati maggiori di condotta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
+          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
         </is>
       </c>
     </row>
@@ -1585,143 +1584,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1000054</v>
+        <v>1000055</v>
       </c>
       <c r="C58" t="n">
-        <v>3000054</v>
+        <v>3000055</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Impianto di protezione</t>
+          <t>Pioniere</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
-        <is>
-          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1000055</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3000055</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Costruzione di protezione</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1000056</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3000056</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Rifugio</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1000057</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3000057</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Addetto all'assistenza</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1000058</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3000058</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Assistente di stato maggiore</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1000059</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3000059</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Organizzazione degli Stati maggiori di condotta</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1000060</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3000060</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Pioniere</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
         <is>
           <t>milite impiegato soprattutto per assistere le organizzazioni
 partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
@@ -1730,24 +1603,152 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1000056</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3000056</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Stato maggiore cantonale di condotta</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1000057</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3000057</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sistema d’allarme acqua</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1000058</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3000058</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Allarme acqua</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1000059</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3000059</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Stato maggiore regionale di condotta</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1000060</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3000060</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Stato maggiore enti di primo intervento</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1000062</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3000062</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Protezione della popolazione</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
+Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
+Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
+        </is>
+      </c>
+    </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1000061</v>
+        <v>1000063</v>
       </c>
       <c r="C65" t="n">
-        <v>3000061</v>
+        <v>3000063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Stato maggiore cantonale di condotta</t>
+          <t>Dipartimento della protezione civile</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
+          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
         </is>
       </c>
     </row>
@@ -1756,19 +1757,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1000062</v>
+        <v>1000064</v>
       </c>
       <c r="C66" t="n">
-        <v>3000062</v>
+        <v>3000061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sistema d’allarme acqua</t>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -1777,40 +1778,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1000063</v>
+        <v>1000064</v>
       </c>
       <c r="C67" t="n">
-        <v>3000063</v>
+        <v>3000064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Allarme acqua</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
-        </is>
-      </c>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1000064</v>
+        <v>1000066</v>
       </c>
       <c r="C68" t="n">
-        <v>3000064</v>
+        <v>3000066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Stato maggiore regionale di condotta</t>
+          <t>Volontario di protezione civile</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
+          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
         </is>
       </c>
     </row>
@@ -1819,19 +1816,20 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1000065</v>
+        <v>1000066</v>
       </c>
       <c r="C69" t="n">
-        <v>3000065</v>
+        <v>3000067</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Stato maggiore enti di primo intervento</t>
+          <t>Volontario di protezione civile</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
+I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
         </is>
       </c>
     </row>
@@ -1840,21 +1838,20 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1000066</v>
+        <v>1000068</v>
       </c>
       <c r="C70" t="n">
-        <v>3000066</v>
+        <v>3000068</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Protezione della popolazione</t>
+          <t>Consiglio di stato</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
-Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
-Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
+          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
+transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
         </is>
       </c>
     </row>
@@ -1863,19 +1860,20 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1000068</v>
+        <v>1000069</v>
       </c>
       <c r="C71" t="n">
-        <v>3000068</v>
+        <v>3000069</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dipartimento della protezione civile</t>
+          <t>Milite</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
+          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
+Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
         </is>
       </c>
     </row>
@@ -1884,10 +1882,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1000069</v>
+        <v>1000070</v>
       </c>
       <c r="C72" t="n">
-        <v>3000075</v>
+        <v>3000070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1913,12 +1911,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Volontario di protezione civile</t>
+          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
+          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
         </is>
       </c>
     </row>
@@ -1927,20 +1925,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1000071</v>
+        <v>1000073</v>
       </c>
       <c r="C74" t="n">
-        <v>3000072</v>
+        <v>3000073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Volontario di protezione civile</t>
+          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
-I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
+          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
         </is>
       </c>
     </row>
@@ -1949,20 +1946,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1000073</v>
+        <v>1000074</v>
       </c>
       <c r="C75" t="n">
-        <v>3000073</v>
+        <v>3000074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Consiglio di stato</t>
+          <t>SOREU dei laghi</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
-transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
+          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
         </is>
       </c>
     </row>
@@ -1971,20 +1967,24 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1000074</v>
+        <v>1000075</v>
       </c>
       <c r="C76" t="n">
-        <v>3000074</v>
+        <v>3000075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Milite</t>
+          <t>sezione del militare e della protezione della popolazione</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
-Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
+          <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
+Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
+Il Servizio degli affari militari e comando di circondario si occupa delle pratiche amministrative legate ai servizi d’istruzione dei militi domiciliati in Ticino come pure degli obblighi fuori servizio (tiro obbligatorio, obbligo di notifica), tiene il controllo dei dati di servizio e di quelli personali dei militi con la collaborazione degli uffici di controllo abitanti dei comuni. 
+Il Servizio della protezione civile, unitamente al Centro istruzione della protezione civile di Rivera, assicura l'applicazione delle norme federali e cantonali di protezione civile nelle regioni e nei comuni, cura le diverse pianificazioni (allarmi, approvvigionamenti,...) e l'istruzione dei militi astretti.
+Il Servizio costruzioni si occupa della pianificazione e gestione dei posti protetti, come pure della realizzazione delle costruzioni protette (rifugi, impianti regionali).
+Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.</t>
         </is>
       </c>
     </row>
